--- a/tools/Расчет АС-3.xlsx
+++ b/tools/Расчет АС-3.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosoj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosoj/Documents/Arduino/Samovar/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C43DBF-75BA-A54B-A426-D4CDCD7E3FD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B48B6E8-0F59-0648-9E54-5971B22DC78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет базовый" sheetId="1" r:id="rId1"/>
     <sheet name="С разбивкой по емкостям и прогр" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -671,7 +670,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -843,9 +842,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -931,6 +927,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -951,14 +991,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -967,44 +999,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1467,82 +1463,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
     </row>
     <row r="2" spans="1:20" hidden="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" hidden="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
       <c r="P4" s="31" t="s">
         <v>1</v>
       </c>
@@ -1552,21 +1548,21 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74"/>
       <c r="P5" s="30" t="s">
         <v>2</v>
       </c>
@@ -1576,21 +1572,21 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="77"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1620,31 +1616,31 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="17" thickBot="1">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="81"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="81"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="81"/>
+      <c r="L8" s="80"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="79" t="s">
+      <c r="N8" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="81"/>
+      <c r="O8" s="80"/>
       <c r="P8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1681,18 +1677,18 @@
         <v>0.32000000000000006</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="62">
+      <c r="K9" s="61">
         <f>I9+F9</f>
         <v>1.28</v>
       </c>
-      <c r="L9" s="63"/>
+      <c r="L9" s="62"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="64">
+      <c r="N9" s="63">
         <f>C9-K9</f>
         <v>5.12</v>
       </c>
-      <c r="O9" s="65"/>
-      <c r="P9" s="68">
+      <c r="O9" s="64"/>
+      <c r="P9" s="67">
         <f>A9-K9-N9</f>
         <v>9.6000000000000014</v>
       </c>
@@ -1715,9 +1711,9 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="69"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="68"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2769,7 +2765,7 @@
   <dimension ref="A2:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2798,21 +2794,21 @@
   <sheetData>
     <row r="2" spans="1:23" ht="17" thickBot="1"/>
     <row r="3" spans="1:23" ht="17" thickBot="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="33"/>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="94"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="94"/>
       <c r="J3" s="33"/>
       <c r="K3" s="34" t="s">
         <v>6</v>
@@ -2827,14 +2823,14 @@
     </row>
     <row r="4" spans="1:23" ht="29" thickBot="1">
       <c r="A4" s="29">
-        <v>9.58</v>
+        <v>8.25</v>
       </c>
       <c r="B4" s="28">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="C4" s="25">
         <f>A4*B4</f>
-        <v>2.2034000000000002</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="28">
@@ -2842,7 +2838,7 @@
       </c>
       <c r="F4" s="25">
         <f>C4*E4</f>
-        <v>0.22034000000000004</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="28">
@@ -2850,29 +2846,29 @@
       </c>
       <c r="I4" s="25">
         <f>C4*H4</f>
-        <v>0.11017000000000002</v>
+        <v>9.0749999999999997E-2</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="25">
         <f>I4+F4</f>
-        <v>0.33051000000000008</v>
+        <v>0.27224999999999999</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="26">
         <f>C4-K4</f>
-        <v>1.8728900000000002</v>
+        <v>1.5427499999999998</v>
       </c>
       <c r="Q4" s="27">
         <f>(A4-K4-M4)</f>
-        <v>7.3765999999999998</v>
+        <v>6.4350000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
     </row>
     <row r="6" spans="1:23" ht="29" thickBot="1">
       <c r="B6" s="28">
@@ -2880,27 +2876,27 @@
       </c>
       <c r="C6" s="25">
         <f>C4/B6</f>
-        <v>2.2952083333333335</v>
+        <v>1.890625</v>
       </c>
       <c r="F6" s="25">
         <f>F4/B6</f>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="I6" s="25">
         <f>I4/B6*2</f>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="K6" s="25">
         <f>I6+F6</f>
-        <v>0.45904166666666674</v>
+        <v>0.37812499999999999</v>
       </c>
       <c r="M6" s="26">
         <f>M4/B6</f>
-        <v>1.9509270833333336</v>
+        <v>1.6070312499999999</v>
       </c>
       <c r="Q6" s="27">
         <f>(A4-K6-M6) * 0.9</f>
-        <v>6.4530281250000012</v>
+        <v>5.6383593750000012</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="17" thickBot="1"/>
@@ -2917,7 +2913,7 @@
       <c r="E8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="60">
         <v>120</v>
       </c>
       <c r="G8" s="32" t="s">
@@ -2941,80 +2937,80 @@
       <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:23" ht="17" customHeight="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="87" t="s">
+      <c r="D10" s="95"/>
+      <c r="E10" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="91" t="s">
+      <c r="F10" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="89" t="s">
+      <c r="I10" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="85" t="s">
+      <c r="J10" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="85"/>
-      <c r="M10" s="87" t="s">
+      <c r="L10" s="95"/>
+      <c r="M10" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="91" t="s">
+      <c r="N10" s="88" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="43"/>
-      <c r="Q10" s="89" t="s">
+      <c r="Q10" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="85" t="s">
+      <c r="R10" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="85" t="s">
+      <c r="S10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="85"/>
-      <c r="U10" s="87" t="s">
+      <c r="T10" s="95"/>
+      <c r="U10" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="91" t="s">
+      <c r="V10" s="88" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="90"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="92"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="99"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="43"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="92"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="89"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="44">
@@ -3031,14 +3027,14 @@
       </c>
       <c r="E12" s="47">
         <f>$F$6*C12</f>
-        <v>0.16066458333333336</v>
+        <v>0.13234374999999998</v>
       </c>
       <c r="F12" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G12" s="49">
         <f>E12/B12</f>
-        <v>1.6066458333333336</v>
+        <v>1.3234374999999998</v>
       </c>
       <c r="I12" s="44">
         <v>1</v>
@@ -3054,14 +3050,14 @@
       </c>
       <c r="M12" s="47">
         <f>$F$6*K12</f>
-        <v>0.16066458333333336</v>
+        <v>0.13234374999999998</v>
       </c>
       <c r="N12" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O12" s="49">
         <f t="shared" ref="O12:O22" si="0">M12/J12</f>
-        <v>1.6066458333333336</v>
+        <v>1.3234374999999998</v>
       </c>
       <c r="Q12" s="44">
         <v>1</v>
@@ -3077,14 +3073,14 @@
       </c>
       <c r="U12" s="47">
         <f>$F$6*S12</f>
-        <v>0.18361666666666671</v>
+        <v>0.15125</v>
       </c>
       <c r="V12" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="W12" s="49">
         <f>U12/R12</f>
-        <v>1.8361666666666669</v>
+        <v>1.5125</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -3102,14 +3098,14 @@
       </c>
       <c r="E13" s="47">
         <f t="shared" ref="E13:E16" si="1">$F$6*C13</f>
-        <v>2.2952083333333338E-2</v>
+        <v>1.8906249999999999E-2</v>
       </c>
       <c r="F13" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G13" s="49">
         <f t="shared" ref="G13:G22" si="2">E13/B13</f>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="I13" s="44">
         <v>2</v>
@@ -3125,14 +3121,14 @@
       </c>
       <c r="M13" s="47">
         <f>$F$6*K13</f>
-        <v>2.2952083333333338E-2</v>
+        <v>1.8906249999999999E-2</v>
       </c>
       <c r="N13" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O13" s="49">
         <f t="shared" si="0"/>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="Q13" s="44">
         <v>2</v>
@@ -3148,14 +3144,14 @@
       </c>
       <c r="U13" s="47">
         <f t="shared" ref="U13:U15" si="3">$F$6*S13</f>
-        <v>2.2952083333333338E-2</v>
+        <v>1.8906249999999999E-2</v>
       </c>
       <c r="V13" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="W13" s="49">
         <f t="shared" ref="W13:W22" si="4">U13/R13</f>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -3173,14 +3169,14 @@
       </c>
       <c r="E14" s="47">
         <f t="shared" si="1"/>
-        <v>2.2952083333333338E-2</v>
+        <v>1.8906249999999999E-2</v>
       </c>
       <c r="F14" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G14" s="49">
         <f t="shared" si="2"/>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="I14" s="44">
         <v>3</v>
@@ -3196,14 +3192,14 @@
       </c>
       <c r="M14" s="47">
         <f>$F$6*K14</f>
-        <v>2.2952083333333338E-2</v>
+        <v>1.8906249999999999E-2</v>
       </c>
       <c r="N14" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O14" s="49">
         <f t="shared" si="0"/>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="Q14" s="44">
         <v>3</v>
@@ -3219,14 +3215,14 @@
       </c>
       <c r="U14" s="47">
         <f t="shared" si="3"/>
-        <v>2.2952083333333338E-2</v>
+        <v>1.8906249999999999E-2</v>
       </c>
       <c r="V14" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="W14" s="49">
         <f t="shared" si="4"/>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -3244,14 +3240,14 @@
       </c>
       <c r="E15" s="47">
         <f t="shared" si="1"/>
-        <v>2.2952083333333338E-2</v>
+        <v>1.8906249999999999E-2</v>
       </c>
       <c r="F15" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G15" s="49">
         <f t="shared" si="2"/>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="I15" s="44">
         <v>4</v>
@@ -3267,14 +3263,14 @@
       </c>
       <c r="M15" s="47">
         <f>$F$6*K15</f>
-        <v>2.2952083333333338E-2</v>
+        <v>1.8906249999999999E-2</v>
       </c>
       <c r="N15" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O15" s="49">
         <f t="shared" si="0"/>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="Q15" s="44">
         <v>4</v>
@@ -3294,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="W15" s="49">
         <f t="shared" si="4"/>
@@ -3320,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G16" s="49">
         <f t="shared" si="2"/>
@@ -3344,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O16" s="49">
         <f t="shared" si="0"/>
@@ -3364,14 +3360,14 @@
       </c>
       <c r="U16" s="47">
         <f>$F$6*S16</f>
-        <v>2.2952083333333338E-2</v>
+        <v>1.8906249999999999E-2</v>
       </c>
       <c r="V16" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="W16" s="49">
         <f t="shared" si="4"/>
-        <v>4.5904166666666676E-2</v>
+        <v>3.7812499999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -3389,14 +3385,14 @@
       </c>
       <c r="E17" s="47">
         <f>$M$6*C17</f>
-        <v>0.19509270833333336</v>
+        <v>0.160703125</v>
       </c>
       <c r="F17" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G17" s="49">
         <f t="shared" si="2"/>
-        <v>0.39018541666666673</v>
+        <v>0.32140625</v>
       </c>
       <c r="I17" s="44">
         <v>5</v>
@@ -3412,14 +3408,14 @@
       </c>
       <c r="M17" s="47">
         <f>$M$6*K17</f>
-        <v>0.19509270833333336</v>
+        <v>0.160703125</v>
       </c>
       <c r="N17" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O17" s="49">
         <f t="shared" si="0"/>
-        <v>0.39018541666666673</v>
+        <v>0.32140625</v>
       </c>
       <c r="Q17" s="44">
         <v>5</v>
@@ -3435,14 +3431,14 @@
       </c>
       <c r="U17" s="47">
         <f>$M$6*S17</f>
-        <v>1.3656489583333336</v>
+        <v>1.1249218749999998</v>
       </c>
       <c r="V17" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="W17" s="49">
         <f t="shared" si="4"/>
-        <v>1.5173877314814816</v>
+        <v>1.2499131944444442</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -3460,14 +3456,14 @@
       </c>
       <c r="E18" s="47">
         <f t="shared" ref="E18:E20" si="5">$M$6*C18</f>
-        <v>1.3656489583333336</v>
+        <v>1.1249218749999998</v>
       </c>
       <c r="F18" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G18" s="49">
         <f t="shared" si="2"/>
-        <v>1.5173877314814816</v>
+        <v>1.2499131944444442</v>
       </c>
       <c r="I18" s="44">
         <v>6</v>
@@ -3483,14 +3479,14 @@
       </c>
       <c r="M18" s="47">
         <f>$M$6*K18</f>
-        <v>0.97546354166666682</v>
+        <v>0.80351562499999996</v>
       </c>
       <c r="N18" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O18" s="49">
         <f t="shared" si="0"/>
-        <v>1.0838483796296299</v>
+        <v>0.89279513888888884</v>
       </c>
       <c r="Q18" s="44">
         <v>6</v>
@@ -3506,14 +3502,14 @@
       </c>
       <c r="U18" s="47">
         <f t="shared" ref="U18:U20" si="6">$M$6*S18</f>
-        <v>0.19509270833333336</v>
+        <v>0.160703125</v>
       </c>
       <c r="V18" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="W18" s="49">
         <f t="shared" si="4"/>
-        <v>0.39018541666666673</v>
+        <v>0.32140625</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -3531,14 +3527,14 @@
       </c>
       <c r="E19" s="47">
         <f t="shared" si="5"/>
-        <v>0.19509270833333336</v>
+        <v>0.160703125</v>
       </c>
       <c r="F19" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G19" s="49">
         <f t="shared" si="2"/>
-        <v>0.39018541666666673</v>
+        <v>0.32140625</v>
       </c>
       <c r="I19" s="44">
         <v>7</v>
@@ -3554,14 +3550,14 @@
       </c>
       <c r="M19" s="47">
         <f>$M$6*K19</f>
-        <v>0.58527812500000009</v>
+        <v>0.48210937499999995</v>
       </c>
       <c r="N19" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O19" s="49">
         <f t="shared" si="0"/>
-        <v>1.1705562500000002</v>
+        <v>0.9642187499999999</v>
       </c>
       <c r="Q19" s="44">
         <v>7</v>
@@ -3577,14 +3573,14 @@
       </c>
       <c r="U19" s="47">
         <f t="shared" si="6"/>
-        <v>0.19509270833333336</v>
+        <v>0.160703125</v>
       </c>
       <c r="V19" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="W19" s="49">
         <f t="shared" si="4"/>
-        <v>0.65030902777777788</v>
+        <v>0.53567708333333341</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -3602,14 +3598,14 @@
       </c>
       <c r="E20" s="47">
         <f t="shared" si="5"/>
-        <v>0.19509270833333336</v>
+        <v>0.160703125</v>
       </c>
       <c r="F20" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G20" s="49">
         <f t="shared" si="2"/>
-        <v>0.65030902777777788</v>
+        <v>0.53567708333333341</v>
       </c>
       <c r="I20" s="44">
         <v>8</v>
@@ -3625,14 +3621,14 @@
       </c>
       <c r="M20" s="47">
         <f>$M$6*K20</f>
-        <v>0.19509270833333336</v>
+        <v>0.160703125</v>
       </c>
       <c r="N20" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O20" s="49">
         <f t="shared" si="0"/>
-        <v>0.65030902777777788</v>
+        <v>0.53567708333333341</v>
       </c>
       <c r="Q20" s="44">
         <v>8</v>
@@ -3648,14 +3644,14 @@
       </c>
       <c r="U20" s="47">
         <f t="shared" si="6"/>
-        <v>0.19509270833333336</v>
+        <v>0.160703125</v>
       </c>
       <c r="V20" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="W20" s="49">
         <f t="shared" si="4"/>
-        <v>0.97546354166666682</v>
+        <v>0.80351562499999996</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3673,14 +3669,14 @@
       </c>
       <c r="E21" s="47">
         <f>$I$6*C21</f>
-        <v>2.2952083333333338E-2</v>
+        <v>1.8906249999999999E-2</v>
       </c>
       <c r="F21" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G21" s="49">
         <f t="shared" si="2"/>
-        <v>0.11476041666666668</v>
+        <v>9.4531249999999997E-2</v>
       </c>
       <c r="I21" s="44">
         <v>9</v>
@@ -3696,14 +3692,14 @@
       </c>
       <c r="M21" s="47">
         <f>$I$6*K21</f>
-        <v>2.2952083333333338E-2</v>
+        <v>1.8906249999999999E-2</v>
       </c>
       <c r="N21" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O21" s="49">
         <f t="shared" si="0"/>
-        <v>0.11476041666666668</v>
+        <v>9.4531249999999997E-2</v>
       </c>
       <c r="Q21" s="44">
         <v>9</v>
@@ -3719,14 +3715,14 @@
       </c>
       <c r="U21" s="47">
         <f>$I$6*S21</f>
-        <v>0.11476041666666668</v>
+        <v>9.4531249999999997E-2</v>
       </c>
       <c r="V21" s="48">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="W21" s="49">
         <f t="shared" si="4"/>
-        <v>5.7380208333333342E-2</v>
+        <v>4.7265624999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" thickBot="1">
@@ -3744,14 +3740,14 @@
       </c>
       <c r="E22" s="55">
         <f>$I$6*C22</f>
-        <v>2.2952083333333338E-2</v>
-      </c>
-      <c r="F22" s="56">
-        <v>80</v>
+        <v>1.8906249999999999E-2</v>
+      </c>
+      <c r="F22" s="48">
+        <v>100</v>
       </c>
       <c r="G22" s="49">
         <f t="shared" si="2"/>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="I22" s="51">
         <v>10</v>
@@ -3767,14 +3763,14 @@
       </c>
       <c r="M22" s="55">
         <f>$I$6*K22</f>
-        <v>2.2952083333333338E-2</v>
-      </c>
-      <c r="N22" s="56">
-        <v>80</v>
+        <v>1.8906249999999999E-2</v>
+      </c>
+      <c r="N22" s="48">
+        <v>100</v>
       </c>
       <c r="O22" s="49">
         <f t="shared" si="0"/>
-        <v>0.22952083333333337</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="Q22" s="51">
         <v>10</v>
@@ -3790,317 +3786,337 @@
       </c>
       <c r="U22" s="55">
         <f>$I$6*S22</f>
-        <v>9.1808333333333353E-2</v>
-      </c>
-      <c r="V22" s="56">
-        <v>80</v>
+        <v>7.5624999999999998E-2</v>
+      </c>
+      <c r="V22" s="48">
+        <v>100</v>
       </c>
       <c r="W22" s="49">
         <f t="shared" si="4"/>
-        <v>4.5904166666666676E-2</v>
+        <v>3.7812499999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="E23" s="100" t="s">
+      <c r="E23" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="57">
+      <c r="F23" s="81"/>
+      <c r="G23" s="56">
         <f>SUM(G12:G22)</f>
-        <v>5.5875571759259266</v>
-      </c>
-      <c r="K23" s="58"/>
-      <c r="M23" s="100" t="s">
+        <v>4.602621527777778</v>
+      </c>
+      <c r="K23" s="57"/>
+      <c r="M23" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="100"/>
-      <c r="O23" s="57">
+      <c r="N23" s="81"/>
+      <c r="O23" s="56">
         <f>SUM(O12:O22)</f>
-        <v>5.9343886574074087</v>
-      </c>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="U23" s="100" t="s">
+        <v>4.8883159722222222</v>
+      </c>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="U23" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="V23" s="100"/>
-      <c r="W23" s="57">
+      <c r="V23" s="81"/>
+      <c r="W23" s="56">
         <f>SUM(W12:W22)</f>
-        <v>5.9777425925925929</v>
+        <v>4.9240277777777779</v>
       </c>
     </row>
     <row r="24" spans="1:23">
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="E25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="S25" s="60"/>
+      <c r="E25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="S25" s="59"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="I26" s="99" t="s">
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="I26" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="P26" s="99" t="s">
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="P26" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="60"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="59"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="B27" s="94" t="str">
+      <c r="B27" s="84" t="str">
         <f>SUBSTITUTE(D12 &amp; ";"&amp;ROUND(E12,3)* 1000&amp; ";"&amp;B12&amp; ";" &amp;A12&amp;";0;"&amp;F12,",",".")</f>
-        <v>H;161;0.1;1;0;80</v>
-      </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96"/>
-      <c r="I27" s="98" t="str">
+        <v>H;132;0.1;1;0;100</v>
+      </c>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="I27" s="82" t="str">
         <f t="shared" ref="I27:I37" si="7">SUBSTITUTE(L12 &amp; ";"&amp;ROUND(M12,3)* 1000&amp; ";"&amp;J12&amp; ";" &amp;I12&amp;";0;"&amp;N12,",",".")</f>
-        <v>H;161;0.1;1;0;80</v>
-      </c>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="P27" s="98" t="str">
+        <v>H;132;0.1;1;0;100</v>
+      </c>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="P27" s="82" t="str">
         <f t="shared" ref="P27:P37" si="8">SUBSTITUTE(T12 &amp; ";"&amp;ROUND(U12,3)* 1000&amp; ";"&amp;R12&amp; ";" &amp;Q12&amp;";0;"&amp;V12,",",".")</f>
-        <v>H;184;0.1;1;0;80</v>
-      </c>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="60"/>
+        <v>H;151;0.1;1;0;100</v>
+      </c>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="59"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="B28" s="94" t="str">
+      <c r="B28" s="84" t="str">
         <f t="shared" ref="B28:B37" si="9">SUBSTITUTE(D13 &amp; ";"&amp;ROUND(E13,3)* 1000&amp; ";"&amp;B13&amp; ";" &amp;A13&amp;";0;"&amp;F13,",",".")</f>
-        <v>H;23;0.1;2;0;80</v>
-      </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="96"/>
-      <c r="I28" s="98" t="str">
+        <v>H;19;0.1;2;0;100</v>
+      </c>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="I28" s="82" t="str">
         <f t="shared" si="7"/>
-        <v>H;23;0.1;2;0;80</v>
-      </c>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="P28" s="98" t="str">
+        <v>H;19;0.1;2;0;100</v>
+      </c>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="P28" s="82" t="str">
         <f t="shared" si="8"/>
-        <v>H;23;0.1;2;0;80</v>
-      </c>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="98"/>
+        <v>H;19;0.1;2;0;100</v>
+      </c>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="B29" s="94" t="str">
+      <c r="B29" s="84" t="str">
         <f t="shared" si="9"/>
-        <v>H;23;0.1;3;0;80</v>
-      </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
-      <c r="I29" s="98" t="str">
+        <v>H;19;0.1;3;0;100</v>
+      </c>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="I29" s="82" t="str">
         <f t="shared" si="7"/>
-        <v>H;23;0.1;3;0;80</v>
-      </c>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="P29" s="98" t="str">
+        <v>H;19;0.1;3;0;100</v>
+      </c>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="P29" s="82" t="str">
         <f t="shared" si="8"/>
-        <v>H;23;0.1;3;0;80</v>
-      </c>
-      <c r="Q29" s="98"/>
-      <c r="R29" s="98"/>
+        <v>H;19;0.1;3;0;100</v>
+      </c>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="B30" s="94" t="str">
+      <c r="B30" s="84" t="str">
         <f t="shared" si="9"/>
-        <v>H;23;0.1;4;0;80</v>
-      </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="96"/>
-      <c r="I30" s="98" t="str">
+        <v>H;19;0.1;4;0;100</v>
+      </c>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="I30" s="82" t="str">
         <f t="shared" si="7"/>
-        <v>H;23;0.1;4;0;80</v>
-      </c>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="P30" s="98" t="str">
+        <v>H;19;0.1;4;0;100</v>
+      </c>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="P30" s="82" t="str">
         <f t="shared" si="8"/>
-        <v>P;0;120;4;0;80</v>
-      </c>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
+        <v>P;0;120;4;0;100</v>
+      </c>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="B31" s="94" t="str">
+      <c r="B31" s="84" t="str">
         <f t="shared" si="9"/>
-        <v>P;0;120;4;0;80</v>
-      </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="96"/>
-      <c r="I31" s="98" t="str">
+        <v>P;0;120;4;0;100</v>
+      </c>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
+      <c r="I31" s="82" t="str">
         <f t="shared" si="7"/>
-        <v>P;0;120;4;0;80</v>
-      </c>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="P31" s="98" t="str">
+        <v>P;0;120;4;0;100</v>
+      </c>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="P31" s="82" t="str">
         <f t="shared" si="8"/>
-        <v>B;23;0.5;4;0;80</v>
-      </c>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="98"/>
+        <v>B;19;0.5;4;0;100</v>
+      </c>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="B32" s="94" t="str">
+      <c r="B32" s="84" t="str">
         <f t="shared" si="9"/>
-        <v>B;195;0.5;5;0;80</v>
-      </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="96"/>
-      <c r="I32" s="98" t="str">
+        <v>B;161;0.5;5;0;100</v>
+      </c>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="I32" s="82" t="str">
         <f t="shared" si="7"/>
-        <v>B;195;0.5;5;0;80</v>
-      </c>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="P32" s="98" t="str">
+        <v>B;161;0.5;5;0;100</v>
+      </c>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="P32" s="82" t="str">
         <f t="shared" si="8"/>
-        <v>B;1366;0.9;5;0;80</v>
-      </c>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="98"/>
+        <v>B;1125;0.9;5;0;100</v>
+      </c>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="94" t="str">
+      <c r="B33" s="84" t="str">
         <f t="shared" si="9"/>
-        <v>B;1366;0.9;6;0;80</v>
-      </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96"/>
-      <c r="I33" s="98" t="str">
+        <v>B;1125;0.9;6;0;100</v>
+      </c>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="I33" s="82" t="str">
         <f t="shared" si="7"/>
-        <v>B;975;0.9;6;0;80</v>
-      </c>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="P33" s="98" t="str">
+        <v>B;804;0.9;6;0;100</v>
+      </c>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="P33" s="82" t="str">
         <f t="shared" si="8"/>
-        <v>B;195;0.5;6;0;80</v>
-      </c>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="98"/>
+        <v>B;161;0.5;6;0;100</v>
+      </c>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="82"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="94" t="str">
+      <c r="B34" s="84" t="str">
         <f t="shared" si="9"/>
-        <v>B;195;0.5;7;0;80</v>
-      </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
-      <c r="I34" s="98" t="str">
+        <v>B;161;0.5;7;0;100</v>
+      </c>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
+      <c r="I34" s="82" t="str">
         <f t="shared" si="7"/>
-        <v>B;585;0.5;7;0;80</v>
-      </c>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="P34" s="98" t="str">
+        <v>B;482;0.5;7;0;100</v>
+      </c>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="P34" s="82" t="str">
         <f t="shared" si="8"/>
-        <v>B;195;0.3;7;0;80</v>
-      </c>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="98"/>
+        <v>B;161;0.3;7;0;100</v>
+      </c>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="94" t="str">
+      <c r="B35" s="84" t="str">
         <f t="shared" si="9"/>
-        <v>B;195;0.3;8;0;80</v>
-      </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="96"/>
-      <c r="I35" s="98" t="str">
+        <v>B;161;0.3;8;0;100</v>
+      </c>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="I35" s="82" t="str">
         <f t="shared" si="7"/>
-        <v>B;195;0.3;8;0;80</v>
-      </c>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="P35" s="98" t="str">
+        <v>B;161;0.3;8;0;100</v>
+      </c>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="P35" s="82" t="str">
         <f t="shared" si="8"/>
-        <v>T;195;0.2;8;0;80</v>
-      </c>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="98"/>
+        <v>T;161;0.2;8;0;100</v>
+      </c>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="94" t="str">
+      <c r="B36" s="84" t="str">
         <f t="shared" si="9"/>
-        <v>T;23;0.2;9;0;80</v>
-      </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="96"/>
-      <c r="I36" s="98" t="str">
+        <v>T;19;0.2;9;0;100</v>
+      </c>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86"/>
+      <c r="I36" s="82" t="str">
         <f t="shared" si="7"/>
-        <v>T;23;0.2;9;0;80</v>
-      </c>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
-      <c r="P36" s="98" t="str">
+        <v>T;19;0.2;9;0;100</v>
+      </c>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="P36" s="82" t="str">
         <f t="shared" si="8"/>
-        <v>T;115;2;9;0;80</v>
-      </c>
-      <c r="Q36" s="98"/>
-      <c r="R36" s="98"/>
+        <v>T;95;2;9;0;100</v>
+      </c>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="94" t="str">
+      <c r="B37" s="84" t="str">
         <f t="shared" si="9"/>
-        <v>T;23;0.1;10;0;80</v>
-      </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="96"/>
-      <c r="I37" s="98" t="str">
+        <v>T;19;0.1;10;0;100</v>
+      </c>
+      <c r="C37" s="85"/>
+      <c r="D37" s="86"/>
+      <c r="I37" s="82" t="str">
         <f t="shared" si="7"/>
-        <v>T;23;0.1;10;0;80</v>
-      </c>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="P37" s="98" t="str">
+        <v>T;19;0.1;10;0;100</v>
+      </c>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="P37" s="82" t="str">
         <f t="shared" si="8"/>
-        <v>T;92;2;10;0;80</v>
-      </c>
-      <c r="Q37" s="98"/>
-      <c r="R37" s="98"/>
+        <v>T;76;2;10;0;100</v>
+      </c>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A4:B5" name="Диапазон1"/>
   </protectedRanges>
   <mergeCells count="60">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="P35:R35"/>
     <mergeCell ref="P36:R36"/>
     <mergeCell ref="P37:R37"/>
@@ -4117,38 +4133,18 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="P26:R26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tools/Расчет АС-3.xlsx
+++ b/tools/Расчет АС-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosoj/Documents/Arduino/Samovar/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B48B6E8-0F59-0648-9E54-5971B22DC78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33B0AD-D8CD-1848-9E8E-F3E2438358E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
   </bookViews>
@@ -670,7 +670,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -927,8 +927,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -936,71 +996,15 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -2765,7 +2769,7 @@
   <dimension ref="A2:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2794,21 +2798,21 @@
   <sheetData>
     <row r="2" spans="1:23" ht="17" thickBot="1"/>
     <row r="3" spans="1:23" ht="17" thickBot="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="33"/>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="83"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="94"/>
+      <c r="I3" s="83"/>
       <c r="J3" s="33"/>
       <c r="K3" s="34" t="s">
         <v>6</v>
@@ -2823,22 +2827,22 @@
     </row>
     <row r="4" spans="1:23" ht="29" thickBot="1">
       <c r="A4" s="29">
-        <v>8.25</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="B4" s="28">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="C4" s="25">
         <f>A4*B4</f>
-        <v>1.8149999999999999</v>
+        <v>3.468</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="28">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F4" s="25">
         <f>C4*E4</f>
-        <v>0.18149999999999999</v>
+        <v>0.5202</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="28">
@@ -2846,29 +2850,29 @@
       </c>
       <c r="I4" s="25">
         <f>C4*H4</f>
-        <v>9.0749999999999997E-2</v>
+        <v>0.1734</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="25">
         <f>I4+F4</f>
-        <v>0.27224999999999999</v>
+        <v>0.69359999999999999</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="26">
         <f>C4-K4</f>
-        <v>1.5427499999999998</v>
+        <v>2.7744</v>
       </c>
       <c r="Q4" s="27">
         <f>(A4-K4-M4)</f>
-        <v>6.4350000000000005</v>
+        <v>6.7319999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
     </row>
     <row r="6" spans="1:23" ht="29" thickBot="1">
       <c r="B6" s="28">
@@ -2876,27 +2880,27 @@
       </c>
       <c r="C6" s="25">
         <f>C4/B6</f>
-        <v>1.890625</v>
+        <v>3.6125000000000003</v>
       </c>
       <c r="F6" s="25">
         <f>F4/B6</f>
-        <v>0.18906249999999999</v>
+        <v>0.541875</v>
       </c>
       <c r="I6" s="25">
         <f>I4/B6*2</f>
-        <v>0.18906249999999999</v>
+        <v>0.36125000000000002</v>
       </c>
       <c r="K6" s="25">
         <f>I6+F6</f>
-        <v>0.37812499999999999</v>
+        <v>0.90312499999999996</v>
       </c>
       <c r="M6" s="26">
         <f>M4/B6</f>
-        <v>1.6070312499999999</v>
+        <v>2.89</v>
       </c>
       <c r="Q6" s="27">
         <f>(A4-K6-M6) * 0.9</f>
-        <v>5.6383593750000012</v>
+        <v>5.7661875</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="17" thickBot="1"/>
@@ -2937,80 +2941,80 @@
       <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:23" ht="17" customHeight="1">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="90" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="95"/>
-      <c r="M10" s="90" t="s">
+      <c r="L10" s="84"/>
+      <c r="M10" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="88" t="s">
+      <c r="N10" s="90" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="43"/>
-      <c r="Q10" s="97" t="s">
+      <c r="Q10" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="95" t="s">
+      <c r="S10" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="95"/>
-      <c r="U10" s="90" t="s">
+      <c r="T10" s="84"/>
+      <c r="U10" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="88" t="s">
+      <c r="V10" s="90" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="98"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="99"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="89"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="91"/>
       <c r="O11" s="43"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="91"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="44">
@@ -3027,14 +3031,14 @@
       </c>
       <c r="E12" s="47">
         <f>$F$6*C12</f>
-        <v>0.13234374999999998</v>
+        <v>0.3793125</v>
       </c>
       <c r="F12" s="48">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="G12" s="49">
         <f>E12/B12</f>
-        <v>1.3234374999999998</v>
+        <v>3.7931249999999999</v>
       </c>
       <c r="I12" s="44">
         <v>1</v>
@@ -3050,14 +3054,14 @@
       </c>
       <c r="M12" s="47">
         <f>$F$6*K12</f>
-        <v>0.13234374999999998</v>
+        <v>0.3793125</v>
       </c>
       <c r="N12" s="48">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="O12" s="49">
         <f t="shared" ref="O12:O22" si="0">M12/J12</f>
-        <v>1.3234374999999998</v>
+        <v>3.7931249999999999</v>
       </c>
       <c r="Q12" s="44">
         <v>1</v>
@@ -3073,14 +3077,14 @@
       </c>
       <c r="U12" s="47">
         <f>$F$6*S12</f>
-        <v>0.15125</v>
+        <v>0.4335</v>
       </c>
       <c r="V12" s="48">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="W12" s="49">
         <f>U12/R12</f>
-        <v>1.5125</v>
+        <v>4.335</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -3098,14 +3102,14 @@
       </c>
       <c r="E13" s="47">
         <f t="shared" ref="E13:E16" si="1">$F$6*C13</f>
-        <v>1.8906249999999999E-2</v>
+        <v>5.41875E-2</v>
       </c>
       <c r="F13" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G13" s="49">
         <f t="shared" ref="G13:G22" si="2">E13/B13</f>
-        <v>0.18906249999999999</v>
+        <v>0.541875</v>
       </c>
       <c r="I13" s="44">
         <v>2</v>
@@ -3121,14 +3125,14 @@
       </c>
       <c r="M13" s="47">
         <f>$F$6*K13</f>
-        <v>1.8906249999999999E-2</v>
+        <v>5.41875E-2</v>
       </c>
       <c r="N13" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O13" s="49">
         <f t="shared" si="0"/>
-        <v>0.18906249999999999</v>
+        <v>0.541875</v>
       </c>
       <c r="Q13" s="44">
         <v>2</v>
@@ -3144,14 +3148,14 @@
       </c>
       <c r="U13" s="47">
         <f t="shared" ref="U13:U15" si="3">$F$6*S13</f>
-        <v>1.8906249999999999E-2</v>
+        <v>5.41875E-2</v>
       </c>
       <c r="V13" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W13" s="49">
         <f t="shared" ref="W13:W22" si="4">U13/R13</f>
-        <v>0.18906249999999999</v>
+        <v>0.541875</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -3169,14 +3173,14 @@
       </c>
       <c r="E14" s="47">
         <f t="shared" si="1"/>
-        <v>1.8906249999999999E-2</v>
+        <v>5.41875E-2</v>
       </c>
       <c r="F14" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="49">
         <f t="shared" si="2"/>
-        <v>0.18906249999999999</v>
+        <v>0.541875</v>
       </c>
       <c r="I14" s="44">
         <v>3</v>
@@ -3192,14 +3196,14 @@
       </c>
       <c r="M14" s="47">
         <f>$F$6*K14</f>
-        <v>1.8906249999999999E-2</v>
+        <v>5.41875E-2</v>
       </c>
       <c r="N14" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="49">
         <f t="shared" si="0"/>
-        <v>0.18906249999999999</v>
+        <v>0.541875</v>
       </c>
       <c r="Q14" s="44">
         <v>3</v>
@@ -3215,14 +3219,14 @@
       </c>
       <c r="U14" s="47">
         <f t="shared" si="3"/>
-        <v>1.8906249999999999E-2</v>
+        <v>5.41875E-2</v>
       </c>
       <c r="V14" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="49">
         <f t="shared" si="4"/>
-        <v>0.18906249999999999</v>
+        <v>0.541875</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -3240,14 +3244,14 @@
       </c>
       <c r="E15" s="47">
         <f t="shared" si="1"/>
-        <v>1.8906249999999999E-2</v>
+        <v>5.41875E-2</v>
       </c>
       <c r="F15" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="49">
         <f t="shared" si="2"/>
-        <v>0.18906249999999999</v>
+        <v>0.541875</v>
       </c>
       <c r="I15" s="44">
         <v>4</v>
@@ -3263,14 +3267,14 @@
       </c>
       <c r="M15" s="47">
         <f>$F$6*K15</f>
-        <v>1.8906249999999999E-2</v>
+        <v>5.41875E-2</v>
       </c>
       <c r="N15" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="49">
         <f t="shared" si="0"/>
-        <v>0.18906249999999999</v>
+        <v>0.541875</v>
       </c>
       <c r="Q15" s="44">
         <v>4</v>
@@ -3290,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W15" s="49">
         <f t="shared" si="4"/>
@@ -3316,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G16" s="49">
         <f t="shared" si="2"/>
@@ -3340,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O16" s="49">
         <f t="shared" si="0"/>
@@ -3360,14 +3364,14 @@
       </c>
       <c r="U16" s="47">
         <f>$F$6*S16</f>
-        <v>1.8906249999999999E-2</v>
+        <v>5.41875E-2</v>
       </c>
       <c r="V16" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W16" s="49">
         <f t="shared" si="4"/>
-        <v>3.7812499999999999E-2</v>
+        <v>0.108375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -3385,14 +3389,14 @@
       </c>
       <c r="E17" s="47">
         <f>$M$6*C17</f>
-        <v>0.160703125</v>
+        <v>0.28900000000000003</v>
       </c>
       <c r="F17" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="49">
         <f t="shared" si="2"/>
-        <v>0.32140625</v>
+        <v>0.57800000000000007</v>
       </c>
       <c r="I17" s="44">
         <v>5</v>
@@ -3408,14 +3412,14 @@
       </c>
       <c r="M17" s="47">
         <f>$M$6*K17</f>
-        <v>0.160703125</v>
+        <v>0.28900000000000003</v>
       </c>
       <c r="N17" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="49">
         <f t="shared" si="0"/>
-        <v>0.32140625</v>
+        <v>0.57800000000000007</v>
       </c>
       <c r="Q17" s="44">
         <v>5</v>
@@ -3431,14 +3435,14 @@
       </c>
       <c r="U17" s="47">
         <f>$M$6*S17</f>
-        <v>1.1249218749999998</v>
+        <v>2.0230000000000001</v>
       </c>
       <c r="V17" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="49">
         <f t="shared" si="4"/>
-        <v>1.2499131944444442</v>
+        <v>2.2477777777777779</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -3456,14 +3460,14 @@
       </c>
       <c r="E18" s="47">
         <f t="shared" ref="E18:E20" si="5">$M$6*C18</f>
-        <v>1.1249218749999998</v>
+        <v>2.0230000000000001</v>
       </c>
       <c r="F18" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="49">
         <f t="shared" si="2"/>
-        <v>1.2499131944444442</v>
+        <v>2.2477777777777779</v>
       </c>
       <c r="I18" s="44">
         <v>6</v>
@@ -3479,14 +3483,14 @@
       </c>
       <c r="M18" s="47">
         <f>$M$6*K18</f>
-        <v>0.80351562499999996</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N18" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="49">
         <f t="shared" si="0"/>
-        <v>0.89279513888888884</v>
+        <v>1.6055555555555556</v>
       </c>
       <c r="Q18" s="44">
         <v>6</v>
@@ -3501,15 +3505,15 @@
         <v>18</v>
       </c>
       <c r="U18" s="47">
-        <f t="shared" ref="U18:U20" si="6">$M$6*S18</f>
-        <v>0.160703125</v>
+        <f t="shared" ref="U18:U19" si="6">$M$6*S18</f>
+        <v>0.28900000000000003</v>
       </c>
       <c r="V18" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="49">
         <f t="shared" si="4"/>
-        <v>0.32140625</v>
+        <v>0.57800000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -3527,14 +3531,14 @@
       </c>
       <c r="E19" s="47">
         <f t="shared" si="5"/>
-        <v>0.160703125</v>
+        <v>0.28900000000000003</v>
       </c>
       <c r="F19" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G19" s="49">
         <f t="shared" si="2"/>
-        <v>0.32140625</v>
+        <v>0.57800000000000007</v>
       </c>
       <c r="I19" s="44">
         <v>7</v>
@@ -3550,14 +3554,14 @@
       </c>
       <c r="M19" s="47">
         <f>$M$6*K19</f>
-        <v>0.48210937499999995</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="N19" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O19" s="49">
         <f t="shared" si="0"/>
-        <v>0.9642187499999999</v>
+        <v>1.734</v>
       </c>
       <c r="Q19" s="44">
         <v>7</v>
@@ -3573,14 +3577,14 @@
       </c>
       <c r="U19" s="47">
         <f t="shared" si="6"/>
-        <v>0.160703125</v>
+        <v>0.28900000000000003</v>
       </c>
       <c r="V19" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W19" s="49">
         <f t="shared" si="4"/>
-        <v>0.53567708333333341</v>
+        <v>0.96333333333333349</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -3598,14 +3602,14 @@
       </c>
       <c r="E20" s="47">
         <f t="shared" si="5"/>
-        <v>0.160703125</v>
+        <v>0.28900000000000003</v>
       </c>
       <c r="F20" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="49">
         <f t="shared" si="2"/>
-        <v>0.53567708333333341</v>
+        <v>0.96333333333333349</v>
       </c>
       <c r="I20" s="44">
         <v>8</v>
@@ -3621,14 +3625,14 @@
       </c>
       <c r="M20" s="47">
         <f>$M$6*K20</f>
-        <v>0.160703125</v>
+        <v>0.28900000000000003</v>
       </c>
       <c r="N20" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="49">
         <f t="shared" si="0"/>
-        <v>0.53567708333333341</v>
+        <v>0.96333333333333349</v>
       </c>
       <c r="Q20" s="44">
         <v>8</v>
@@ -3637,21 +3641,21 @@
         <v>0.2</v>
       </c>
       <c r="S20" s="46">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="T20" s="38" t="s">
         <v>19</v>
       </c>
       <c r="U20" s="47">
-        <f t="shared" si="6"/>
-        <v>0.160703125</v>
+        <f>$I$6*S20</f>
+        <v>7.2250000000000009E-2</v>
       </c>
       <c r="V20" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="49">
         <f t="shared" si="4"/>
-        <v>0.80351562499999996</v>
+        <v>0.36125000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3669,14 +3673,14 @@
       </c>
       <c r="E21" s="47">
         <f>$I$6*C21</f>
-        <v>1.8906249999999999E-2</v>
+        <v>3.6125000000000004E-2</v>
       </c>
       <c r="F21" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="49">
         <f t="shared" si="2"/>
-        <v>9.4531249999999997E-2</v>
+        <v>0.18062500000000001</v>
       </c>
       <c r="I21" s="44">
         <v>9</v>
@@ -3692,14 +3696,14 @@
       </c>
       <c r="M21" s="47">
         <f>$I$6*K21</f>
-        <v>1.8906249999999999E-2</v>
+        <v>3.6125000000000004E-2</v>
       </c>
       <c r="N21" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="49">
         <f t="shared" si="0"/>
-        <v>9.4531249999999997E-2</v>
+        <v>0.18062500000000001</v>
       </c>
       <c r="Q21" s="44">
         <v>9</v>
@@ -3708,21 +3712,21 @@
         <v>2</v>
       </c>
       <c r="S21" s="46">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T21" s="38" t="s">
         <v>19</v>
       </c>
       <c r="U21" s="47">
         <f>$I$6*S21</f>
-        <v>9.4531249999999997E-2</v>
+        <v>0.14450000000000002</v>
       </c>
       <c r="V21" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="49">
         <f t="shared" si="4"/>
-        <v>4.7265624999999999E-2</v>
+        <v>7.2250000000000009E-2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" thickBot="1">
@@ -3740,14 +3744,14 @@
       </c>
       <c r="E22" s="55">
         <f>$I$6*C22</f>
-        <v>1.8906249999999999E-2</v>
+        <v>3.6125000000000004E-2</v>
       </c>
       <c r="F22" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="49">
         <f t="shared" si="2"/>
-        <v>0.18906249999999999</v>
+        <v>0.36125000000000002</v>
       </c>
       <c r="I22" s="51">
         <v>10</v>
@@ -3763,14 +3767,14 @@
       </c>
       <c r="M22" s="55">
         <f>$I$6*K22</f>
-        <v>1.8906249999999999E-2</v>
+        <v>3.6125000000000004E-2</v>
       </c>
       <c r="N22" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="49">
         <f t="shared" si="0"/>
-        <v>0.18906249999999999</v>
+        <v>0.36125000000000002</v>
       </c>
       <c r="Q22" s="51">
         <v>10</v>
@@ -3786,43 +3790,43 @@
       </c>
       <c r="U22" s="55">
         <f>$I$6*S22</f>
-        <v>7.5624999999999998E-2</v>
+        <v>0.14450000000000002</v>
       </c>
       <c r="V22" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="49">
         <f t="shared" si="4"/>
-        <v>3.7812499999999999E-2</v>
+        <v>7.2250000000000009E-2</v>
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="81"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="56">
         <f>SUM(G12:G22)</f>
-        <v>4.602621527777778</v>
+        <v>10.327736111111109</v>
       </c>
       <c r="K23" s="57"/>
-      <c r="M23" s="81" t="s">
+      <c r="M23" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="81"/>
+      <c r="N23" s="99"/>
       <c r="O23" s="56">
         <f>SUM(O12:O22)</f>
-        <v>4.8883159722222222</v>
+        <v>10.841513888888889</v>
       </c>
       <c r="Q23" s="57"/>
       <c r="R23" s="57"/>
-      <c r="U23" s="81" t="s">
+      <c r="U23" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="V23" s="81"/>
+      <c r="V23" s="99"/>
       <c r="W23" s="56">
         <f>SUM(W12:W22)</f>
-        <v>4.9240277777777779</v>
+        <v>9.8219861111111104</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3837,254 +3841,298 @@
       <c r="S25" s="59"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="I26" s="83" t="s">
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="I26" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="P26" s="83" t="s">
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="P26" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
       <c r="S26" s="59"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="B27" s="84" t="str">
+      <c r="B27" s="93" t="str">
         <f>SUBSTITUTE(D12 &amp; ";"&amp;ROUND(E12,3)* 1000&amp; ";"&amp;B12&amp; ";" &amp;A12&amp;";0;"&amp;F12,",",".")</f>
-        <v>H;132;0.1;1;0;100</v>
-      </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="I27" s="82" t="str">
+        <v>H;379;0.1;1;0;166</v>
+      </c>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="I27" s="97" t="str">
         <f t="shared" ref="I27:I37" si="7">SUBSTITUTE(L12 &amp; ";"&amp;ROUND(M12,3)* 1000&amp; ";"&amp;J12&amp; ";" &amp;I12&amp;";0;"&amp;N12,",",".")</f>
-        <v>H;132;0.1;1;0;100</v>
-      </c>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="P27" s="82" t="str">
+        <v>H;379;0.1;1;0;166</v>
+      </c>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="P27" s="97" t="str">
         <f t="shared" ref="P27:P37" si="8">SUBSTITUTE(T12 &amp; ";"&amp;ROUND(U12,3)* 1000&amp; ";"&amp;R12&amp; ";" &amp;Q12&amp;";0;"&amp;V12,",",".")</f>
-        <v>H;151;0.1;1;0;100</v>
-      </c>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
+        <v>H;434;0.1;1;0;166</v>
+      </c>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
       <c r="S27" s="59"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="B28" s="84" t="str">
+      <c r="B28" s="93" t="str">
         <f t="shared" ref="B28:B37" si="9">SUBSTITUTE(D13 &amp; ";"&amp;ROUND(E13,3)* 1000&amp; ";"&amp;B13&amp; ";" &amp;A13&amp;";0;"&amp;F13,",",".")</f>
-        <v>H;19;0.1;2;0;100</v>
-      </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="I28" s="82" t="str">
+        <v>H;54;0.1;2;0;0</v>
+      </c>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="I28" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>H;19;0.1;2;0;100</v>
-      </c>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="P28" s="82" t="str">
+        <v>H;54;0.1;2;0;0</v>
+      </c>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="P28" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>H;19;0.1;2;0;100</v>
-      </c>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
+        <v>H;54;0.1;2;0;0</v>
+      </c>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="B29" s="84" t="str">
+      <c r="B29" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>H;19;0.1;3;0;100</v>
-      </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-      <c r="I29" s="82" t="str">
+        <v>H;54;0.1;3;0;0</v>
+      </c>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="I29" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>H;19;0.1;3;0;100</v>
-      </c>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="P29" s="82" t="str">
+        <v>H;54;0.1;3;0;0</v>
+      </c>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="P29" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>H;19;0.1;3;0;100</v>
-      </c>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
+        <v>H;54;0.1;3;0;0</v>
+      </c>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="B30" s="84" t="str">
+      <c r="B30" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>H;19;0.1;4;0;100</v>
-      </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="I30" s="82" t="str">
+        <v>H;54;0.1;4;0;0</v>
+      </c>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
+      <c r="I30" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>H;19;0.1;4;0;100</v>
-      </c>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="P30" s="82" t="str">
+        <v>H;54;0.1;4;0;0</v>
+      </c>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="P30" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>P;0;120;4;0;100</v>
-      </c>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
+        <v>P;0;120;4;0;0</v>
+      </c>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="B31" s="84" t="str">
+      <c r="B31" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>P;0;120;4;0;100</v>
-      </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="I31" s="82" t="str">
+        <v>P;0;120;4;0;0</v>
+      </c>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="I31" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>P;0;120;4;0;100</v>
-      </c>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="P31" s="82" t="str">
+        <v>P;0;120;4;0;0</v>
+      </c>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="P31" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>B;19;0.5;4;0;100</v>
-      </c>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
+        <v>B;54;0.5;4;0;0</v>
+      </c>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="B32" s="84" t="str">
+      <c r="B32" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>B;161;0.5;5;0;100</v>
-      </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="I32" s="82" t="str">
+        <v>B;289;0.5;5;0;0</v>
+      </c>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="I32" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>B;161;0.5;5;0;100</v>
-      </c>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="P32" s="82" t="str">
+        <v>B;289;0.5;5;0;0</v>
+      </c>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="P32" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>B;1125;0.9;5;0;100</v>
-      </c>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
+        <v>B;2023;0.9;5;0;0</v>
+      </c>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="84" t="str">
+      <c r="B33" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>B;1125;0.9;6;0;100</v>
-      </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="I33" s="82" t="str">
+        <v>B;2023;0.9;6;0;0</v>
+      </c>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="I33" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>B;804;0.9;6;0;100</v>
-      </c>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="P33" s="82" t="str">
+        <v>B;1445;0.9;6;0;0</v>
+      </c>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="P33" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>B;161;0.5;6;0;100</v>
-      </c>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
+        <v>B;289;0.5;6;0;0</v>
+      </c>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="84" t="str">
+      <c r="B34" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>B;161;0.5;7;0;100</v>
-      </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="I34" s="82" t="str">
+        <v>B;289;0.5;7;0;0</v>
+      </c>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
+      <c r="I34" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>B;482;0.5;7;0;100</v>
-      </c>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="P34" s="82" t="str">
+        <v>B;867;0.5;7;0;0</v>
+      </c>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="P34" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>B;161;0.3;7;0;100</v>
-      </c>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
+        <v>B;289;0.3;7;0;0</v>
+      </c>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="84" t="str">
+      <c r="B35" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>B;161;0.3;8;0;100</v>
-      </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="I35" s="82" t="str">
+        <v>B;289;0.3;8;0;0</v>
+      </c>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="I35" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>B;161;0.3;8;0;100</v>
-      </c>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="P35" s="82" t="str">
+        <v>B;289;0.3;8;0;0</v>
+      </c>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="P35" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>T;161;0.2;8;0;100</v>
-      </c>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
+        <v>T;72;0.2;8;0;0</v>
+      </c>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="97"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="84" t="str">
+      <c r="B36" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>T;19;0.2;9;0;100</v>
-      </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
-      <c r="I36" s="82" t="str">
+        <v>T;36;0.2;9;0;0</v>
+      </c>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+      <c r="I36" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>T;19;0.2;9;0;100</v>
-      </c>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="P36" s="82" t="str">
+        <v>T;36;0.2;9;0;0</v>
+      </c>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="P36" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>T;95;2;9;0;100</v>
-      </c>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
+        <v>T;145;2;9;0;0</v>
+      </c>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="84" t="str">
+      <c r="B37" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>T;19;0.1;10;0;100</v>
-      </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
-      <c r="I37" s="82" t="str">
+        <v>T;36;0.1;10;0;0</v>
+      </c>
+      <c r="C37" s="94"/>
+      <c r="D37" s="95"/>
+      <c r="I37" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>T;19;0.1;10;0;100</v>
-      </c>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="P37" s="82" t="str">
+        <v>T;36;0.1;10;0;0</v>
+      </c>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="P37" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>T;76;2;10;0;100</v>
-      </c>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
+        <v>T;145;2;10;0;0</v>
+      </c>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A4:B5" name="Диапазон1"/>
   </protectedRanges>
   <mergeCells count="60">
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
@@ -4101,50 +4149,6 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="K10:L11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="P26:R26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tools/Расчет АС-3.xlsx
+++ b/tools/Расчет АС-3.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosoj/Documents/Arduino/Samovar/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33B0AD-D8CD-1848-9E8E-F3E2438358E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43153E3-E865-B64C-A2D3-17FBA355B1E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет базовый" sheetId="1" r:id="rId1"/>
     <sheet name="С разбивкой по емкостям и прогр" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>ВНИМАНИЕ!!!! Данная таблица не расчитывает точное количесвтво примесей в спирте-сырце, а лишь дает приближенное значение  содержания примесей для правильно собранной и правильно запущенной колонны, поэтому используя это пособие вы действуете ИСКЛЮЧИТЕЛЬНО на свой страх и риск. Для точного определения примесей в спирте сырце необходим лобарорный хим.анализ.</t>
   </si>
@@ -160,9 +161,6 @@
     </r>
   </si>
   <si>
-    <t>Время</t>
-  </si>
-  <si>
     <t>сек</t>
   </si>
 </sst>
@@ -173,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +239,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -670,7 +676,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -821,9 +827,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -842,9 +845,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -858,6 +858,23 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -969,10 +986,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1467,82 +1480,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="74"/>
     </row>
     <row r="2" spans="1:20" hidden="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="74"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="77"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" hidden="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="74"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="77"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="74"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="77"/>
       <c r="P4" s="31" t="s">
         <v>1</v>
       </c>
@@ -1552,21 +1565,21 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
       <c r="P5" s="30" t="s">
         <v>2</v>
       </c>
@@ -1576,21 +1589,21 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="77"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="80"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1620,31 +1633,31 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="17" thickBot="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="80"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="80"/>
+      <c r="L8" s="83"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="78" t="s">
+      <c r="N8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="80"/>
+      <c r="O8" s="83"/>
       <c r="P8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1681,18 +1694,18 @@
         <v>0.32000000000000006</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="61">
+      <c r="K9" s="64">
         <f>I9+F9</f>
         <v>1.28</v>
       </c>
-      <c r="L9" s="62"/>
+      <c r="L9" s="65"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="63">
+      <c r="N9" s="66">
         <f>C9-K9</f>
         <v>5.12</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="67">
+      <c r="O9" s="67"/>
+      <c r="P9" s="70">
         <f>A9-K9-N9</f>
         <v>9.6000000000000014</v>
       </c>
@@ -1715,9 +1728,9 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="71"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2766,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C5AEE6-2B79-C248-89D2-07DF9BE2110D}">
-  <dimension ref="A2:W38"/>
+  <dimension ref="A2:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2796,23 +2809,23 @@
     <col min="21" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="17" thickBot="1"/>
-    <row r="3" spans="1:23" ht="17" thickBot="1">
-      <c r="A3" s="81" t="s">
+    <row r="2" spans="1:24" ht="17" thickBot="1"/>
+    <row r="3" spans="1:24" ht="17" thickBot="1">
+      <c r="A3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="33"/>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="83"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="83"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="33"/>
       <c r="K3" s="34" t="s">
         <v>6</v>
@@ -2825,7 +2838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="29" thickBot="1">
+    <row r="4" spans="1:24" ht="29" thickBot="1">
       <c r="A4" s="29">
         <v>10.199999999999999</v>
       </c>
@@ -2867,14 +2880,14 @@
         <v>6.7319999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="99" t="s">
+    <row r="5" spans="1:24" ht="26" customHeight="1" thickBot="1">
+      <c r="A5" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-    </row>
-    <row r="6" spans="1:23" ht="29" thickBot="1">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+    </row>
+    <row r="6" spans="1:24" ht="29" thickBot="1">
       <c r="B6" s="28">
         <v>0.96</v>
       </c>
@@ -2903,8 +2916,8 @@
         <v>5.7661875</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="17" thickBot="1"/>
-    <row r="8" spans="1:23" ht="17" thickBot="1">
+    <row r="7" spans="1:24" ht="17" thickBot="1"/>
+    <row r="8" spans="1:24" ht="17" thickBot="1">
       <c r="B8" s="36" t="s">
         <v>27</v>
       </c>
@@ -2917,15 +2930,15 @@
       <c r="E8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="58">
         <v>120</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:23" ht="17" customHeight="1" thickBot="1">
+    <row r="9" spans="1:24" ht="17" customHeight="1" thickBot="1">
       <c r="B9" s="41" t="s">
         <v>36</v>
       </c>
@@ -2940,83 +2953,81 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:23" ht="17" customHeight="1">
-      <c r="A10" s="88" t="s">
+    <row r="10" spans="1:24" ht="17" customHeight="1">
+      <c r="A10" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="87"/>
+      <c r="E10" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="88" t="s">
+      <c r="G10" s="62"/>
+      <c r="I10" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="84"/>
-      <c r="M10" s="86" t="s">
+      <c r="L10" s="87"/>
+      <c r="M10" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="90" t="s">
+      <c r="N10" s="93" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="43"/>
-      <c r="Q10" s="88" t="s">
+      <c r="Q10" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="84" t="s">
+      <c r="R10" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="84" t="s">
+      <c r="S10" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="84"/>
-      <c r="U10" s="86" t="s">
+      <c r="T10" s="87"/>
+      <c r="U10" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="90" t="s">
+      <c r="V10" s="93" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="89"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="91"/>
+    <row r="11" spans="1:24">
+      <c r="A11" s="92"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="62"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="94"/>
       <c r="O11" s="43"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="91"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="Q11" s="92"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="94"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="44">
         <v>1</v>
       </c>
@@ -3036,7 +3047,7 @@
       <c r="F12" s="48">
         <v>166</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="63">
         <f>E12/B12</f>
         <v>3.7931249999999999</v>
       </c>
@@ -3059,7 +3070,7 @@
       <c r="N12" s="48">
         <v>166</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="63">
         <f t="shared" ref="O12:O22" si="0">M12/J12</f>
         <v>3.7931249999999999</v>
       </c>
@@ -3082,12 +3093,13 @@
       <c r="V12" s="48">
         <v>166</v>
       </c>
-      <c r="W12" s="49">
+      <c r="W12" s="63">
         <f>U12/R12</f>
         <v>4.335</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" s="59"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="44">
         <v>2</v>
       </c>
@@ -3107,7 +3119,7 @@
       <c r="F13" s="48">
         <v>0</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="63">
         <f t="shared" ref="G13:G22" si="2">E13/B13</f>
         <v>0.541875</v>
       </c>
@@ -3130,7 +3142,7 @@
       <c r="N13" s="48">
         <v>0</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="63">
         <f t="shared" si="0"/>
         <v>0.541875</v>
       </c>
@@ -3153,12 +3165,13 @@
       <c r="V13" s="48">
         <v>0</v>
       </c>
-      <c r="W13" s="49">
+      <c r="W13" s="63">
         <f t="shared" ref="W13:W22" si="4">U13/R13</f>
         <v>0.541875</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" s="59"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="44">
         <v>3</v>
       </c>
@@ -3178,7 +3191,7 @@
       <c r="F14" s="48">
         <v>0</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="63">
         <f t="shared" si="2"/>
         <v>0.541875</v>
       </c>
@@ -3201,7 +3214,7 @@
       <c r="N14" s="48">
         <v>0</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="63">
         <f t="shared" si="0"/>
         <v>0.541875</v>
       </c>
@@ -3224,12 +3237,13 @@
       <c r="V14" s="48">
         <v>0</v>
       </c>
-      <c r="W14" s="49">
+      <c r="W14" s="63">
         <f t="shared" si="4"/>
         <v>0.541875</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="59"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="44">
         <v>4</v>
       </c>
@@ -3249,7 +3263,7 @@
       <c r="F15" s="48">
         <v>0</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="63">
         <f t="shared" si="2"/>
         <v>0.541875</v>
       </c>
@@ -3272,7 +3286,7 @@
       <c r="N15" s="48">
         <v>0</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="63">
         <f t="shared" si="0"/>
         <v>0.541875</v>
       </c>
@@ -3296,12 +3310,13 @@
       <c r="V15" s="48">
         <v>0</v>
       </c>
-      <c r="W15" s="49">
+      <c r="W15" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="59"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="44">
         <v>4</v>
       </c>
@@ -3322,7 +3337,7 @@
       <c r="F16" s="48">
         <v>0</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3346,7 +3361,7 @@
       <c r="N16" s="48">
         <v>0</v>
       </c>
-      <c r="O16" s="49">
+      <c r="O16" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3369,16 +3384,17 @@
       <c r="V16" s="48">
         <v>0</v>
       </c>
-      <c r="W16" s="49">
+      <c r="W16" s="63">
         <f t="shared" si="4"/>
         <v>0.108375</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" s="59"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="44">
         <v>5</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="49">
         <v>0.5</v>
       </c>
       <c r="C17" s="46">
@@ -3394,14 +3410,14 @@
       <c r="F17" s="48">
         <v>0</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="63">
         <f t="shared" si="2"/>
         <v>0.57800000000000007</v>
       </c>
       <c r="I17" s="44">
         <v>5</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="49">
         <v>0.5</v>
       </c>
       <c r="K17" s="46">
@@ -3417,14 +3433,14 @@
       <c r="N17" s="48">
         <v>0</v>
       </c>
-      <c r="O17" s="49">
+      <c r="O17" s="63">
         <f t="shared" si="0"/>
         <v>0.57800000000000007</v>
       </c>
       <c r="Q17" s="44">
         <v>5</v>
       </c>
-      <c r="R17" s="50">
+      <c r="R17" s="49">
         <v>0.9</v>
       </c>
       <c r="S17" s="46">
@@ -3440,16 +3456,17 @@
       <c r="V17" s="48">
         <v>0</v>
       </c>
-      <c r="W17" s="49">
+      <c r="W17" s="63">
         <f t="shared" si="4"/>
         <v>2.2477777777777779</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" s="59"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="44">
         <v>6</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="49">
         <v>0.9</v>
       </c>
       <c r="C18" s="46">
@@ -3465,14 +3482,14 @@
       <c r="F18" s="48">
         <v>0</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="63">
         <f t="shared" si="2"/>
         <v>2.2477777777777779</v>
       </c>
       <c r="I18" s="44">
         <v>6</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="49">
         <v>0.9</v>
       </c>
       <c r="K18" s="46">
@@ -3488,14 +3505,14 @@
       <c r="N18" s="48">
         <v>0</v>
       </c>
-      <c r="O18" s="49">
+      <c r="O18" s="63">
         <f t="shared" si="0"/>
         <v>1.6055555555555556</v>
       </c>
       <c r="Q18" s="44">
         <v>6</v>
       </c>
-      <c r="R18" s="50">
+      <c r="R18" s="49">
         <v>0.5</v>
       </c>
       <c r="S18" s="46">
@@ -3511,16 +3528,17 @@
       <c r="V18" s="48">
         <v>0</v>
       </c>
-      <c r="W18" s="49">
+      <c r="W18" s="63">
         <f t="shared" si="4"/>
         <v>0.57800000000000007</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" s="59"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="44">
         <v>7</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="49">
         <v>0.5</v>
       </c>
       <c r="C19" s="46">
@@ -3536,14 +3554,14 @@
       <c r="F19" s="48">
         <v>0</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="63">
         <f t="shared" si="2"/>
         <v>0.57800000000000007</v>
       </c>
       <c r="I19" s="44">
         <v>7</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="49">
         <v>0.5</v>
       </c>
       <c r="K19" s="46">
@@ -3559,14 +3577,14 @@
       <c r="N19" s="48">
         <v>0</v>
       </c>
-      <c r="O19" s="49">
+      <c r="O19" s="63">
         <f t="shared" si="0"/>
         <v>1.734</v>
       </c>
       <c r="Q19" s="44">
         <v>7</v>
       </c>
-      <c r="R19" s="50">
+      <c r="R19" s="49">
         <v>0.3</v>
       </c>
       <c r="S19" s="46">
@@ -3582,16 +3600,17 @@
       <c r="V19" s="48">
         <v>0</v>
       </c>
-      <c r="W19" s="49">
+      <c r="W19" s="63">
         <f t="shared" si="4"/>
         <v>0.96333333333333349</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" s="59"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="44">
         <v>8</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="49">
         <v>0.3</v>
       </c>
       <c r="C20" s="46">
@@ -3607,14 +3626,14 @@
       <c r="F20" s="48">
         <v>0</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="63">
         <f t="shared" si="2"/>
         <v>0.96333333333333349</v>
       </c>
       <c r="I20" s="44">
         <v>8</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="49">
         <v>0.3</v>
       </c>
       <c r="K20" s="46">
@@ -3630,14 +3649,14 @@
       <c r="N20" s="48">
         <v>0</v>
       </c>
-      <c r="O20" s="49">
+      <c r="O20" s="63">
         <f t="shared" si="0"/>
         <v>0.96333333333333349</v>
       </c>
       <c r="Q20" s="44">
         <v>8</v>
       </c>
-      <c r="R20" s="50">
+      <c r="R20" s="49">
         <v>0.2</v>
       </c>
       <c r="S20" s="46">
@@ -3653,16 +3672,17 @@
       <c r="V20" s="48">
         <v>0</v>
       </c>
-      <c r="W20" s="49">
+      <c r="W20" s="63">
         <f t="shared" si="4"/>
         <v>0.36125000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" s="59"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="44">
         <v>9</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="49">
         <v>0.2</v>
       </c>
       <c r="C21" s="46">
@@ -3678,14 +3698,14 @@
       <c r="F21" s="48">
         <v>0</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="63">
         <f t="shared" si="2"/>
         <v>0.18062500000000001</v>
       </c>
       <c r="I21" s="44">
         <v>9</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="49">
         <v>0.2</v>
       </c>
       <c r="K21" s="46">
@@ -3701,14 +3721,14 @@
       <c r="N21" s="48">
         <v>0</v>
       </c>
-      <c r="O21" s="49">
+      <c r="O21" s="63">
         <f t="shared" si="0"/>
         <v>0.18062500000000001</v>
       </c>
       <c r="Q21" s="44">
         <v>9</v>
       </c>
-      <c r="R21" s="50">
+      <c r="R21" s="49">
         <v>2</v>
       </c>
       <c r="S21" s="46">
@@ -3724,371 +3744,385 @@
       <c r="V21" s="48">
         <v>0</v>
       </c>
-      <c r="W21" s="49">
+      <c r="W21" s="63">
         <f t="shared" si="4"/>
         <v>7.2250000000000009E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="17" thickBot="1">
-      <c r="A22" s="51">
+      <c r="X21" s="59"/>
+    </row>
+    <row r="22" spans="1:24" ht="17" thickBot="1">
+      <c r="A22" s="50">
         <v>10</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="51">
         <v>0.1</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="52">
         <v>0.1</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="54">
         <f>$I$6*C22</f>
         <v>3.6125000000000004E-2</v>
       </c>
       <c r="F22" s="48">
         <v>0</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="63">
         <f t="shared" si="2"/>
         <v>0.36125000000000002</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="50">
         <v>10</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="51">
         <v>0.1</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="52">
         <v>0.1</v>
       </c>
-      <c r="L22" s="54" t="s">
+      <c r="L22" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="55">
+      <c r="M22" s="54">
         <f>$I$6*K22</f>
         <v>3.6125000000000004E-2</v>
       </c>
       <c r="N22" s="48">
         <v>0</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="63">
         <f t="shared" si="0"/>
         <v>0.36125000000000002</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="50">
         <v>10</v>
       </c>
-      <c r="R22" s="52">
+      <c r="R22" s="51">
         <v>2</v>
       </c>
-      <c r="S22" s="53">
+      <c r="S22" s="52">
         <v>0.4</v>
       </c>
-      <c r="T22" s="54" t="s">
+      <c r="T22" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="U22" s="55">
+      <c r="U22" s="54">
         <f>$I$6*S22</f>
         <v>0.14450000000000002</v>
       </c>
       <c r="V22" s="48">
         <v>0</v>
       </c>
-      <c r="W22" s="49">
+      <c r="W22" s="63">
         <f t="shared" si="4"/>
         <v>7.2250000000000009E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="E23" s="99" t="s">
+      <c r="X22" s="59"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="E23" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="56">
+      <c r="F23" s="101"/>
+      <c r="G23" s="61" t="str">
+        <f>TRUNC(H23)&amp; ":"&amp;TRUNC((H23 - TRUNC(H23)) * 60)</f>
+        <v>10:19</v>
+      </c>
+      <c r="H23" s="60">
         <f>SUM(G12:G22)</f>
         <v>10.327736111111109</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="M23" s="99" t="s">
+      <c r="K23" s="55"/>
+      <c r="M23" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="99"/>
-      <c r="O23" s="56">
+      <c r="N23" s="101"/>
+      <c r="O23" s="61" t="str">
+        <f>TRUNC(P23)&amp; ":"&amp;TRUNC((P23 - TRUNC(P23)) * 60)</f>
+        <v>10:50</v>
+      </c>
+      <c r="P23" s="60">
         <f>SUM(O12:O22)</f>
         <v>10.841513888888889</v>
       </c>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="U23" s="99" t="s">
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="U23" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="V23" s="99"/>
-      <c r="W23" s="56">
+      <c r="V23" s="101"/>
+      <c r="W23" s="61" t="str">
+        <f>TRUNC(X23)&amp; ":"&amp;TRUNC((X23 - TRUNC(X23)) * 60)</f>
+        <v>9:49</v>
+      </c>
+      <c r="X23" s="60">
         <f>SUM(W12:W22)</f>
         <v>9.8219861111111104</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="E25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="S25" s="59"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="B26" s="98" t="s">
+    <row r="24" spans="1:24">
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="E25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="S25" s="57"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="B26" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="I26" s="98" t="s">
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="I26" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="P26" s="100" t="s">
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="P26" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="59"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="B27" s="93" t="str">
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="57"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="B27" s="95" t="str">
         <f>SUBSTITUTE(D12 &amp; ";"&amp;ROUND(E12,3)* 1000&amp; ";"&amp;B12&amp; ";" &amp;A12&amp;";0;"&amp;F12,",",".")</f>
         <v>H;379;0.1;1;0;166</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
-      <c r="I27" s="97" t="str">
+      <c r="C27" s="96"/>
+      <c r="D27" s="97"/>
+      <c r="I27" s="99" t="str">
         <f t="shared" ref="I27:I37" si="7">SUBSTITUTE(L12 &amp; ";"&amp;ROUND(M12,3)* 1000&amp; ";"&amp;J12&amp; ";" &amp;I12&amp;";0;"&amp;N12,",",".")</f>
         <v>H;379;0.1;1;0;166</v>
       </c>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="P27" s="97" t="str">
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="P27" s="99" t="str">
         <f t="shared" ref="P27:P37" si="8">SUBSTITUTE(T12 &amp; ";"&amp;ROUND(U12,3)* 1000&amp; ";"&amp;R12&amp; ";" &amp;Q12&amp;";0;"&amp;V12,",",".")</f>
         <v>H;434;0.1;1;0;166</v>
       </c>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="59"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="B28" s="93" t="str">
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="57"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="B28" s="95" t="str">
         <f t="shared" ref="B28:B37" si="9">SUBSTITUTE(D13 &amp; ";"&amp;ROUND(E13,3)* 1000&amp; ";"&amp;B13&amp; ";" &amp;A13&amp;";0;"&amp;F13,",",".")</f>
         <v>H;54;0.1;2;0;0</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="I28" s="97" t="str">
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="I28" s="99" t="str">
         <f t="shared" si="7"/>
         <v>H;54;0.1;2;0;0</v>
       </c>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="P28" s="97" t="str">
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="P28" s="99" t="str">
         <f t="shared" si="8"/>
         <v>H;54;0.1;2;0;0</v>
       </c>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="97"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="B29" s="93" t="str">
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="B29" s="95" t="str">
         <f t="shared" si="9"/>
         <v>H;54;0.1;3;0;0</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="I29" s="97" t="str">
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="I29" s="99" t="str">
         <f t="shared" si="7"/>
         <v>H;54;0.1;3;0;0</v>
       </c>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="P29" s="97" t="str">
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="P29" s="99" t="str">
         <f t="shared" si="8"/>
         <v>H;54;0.1;3;0;0</v>
       </c>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="B30" s="93" t="str">
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="B30" s="95" t="str">
         <f t="shared" si="9"/>
         <v>H;54;0.1;4;0;0</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="I30" s="97" t="str">
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="I30" s="99" t="str">
         <f t="shared" si="7"/>
         <v>H;54;0.1;4;0;0</v>
       </c>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="P30" s="97" t="str">
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="P30" s="99" t="str">
         <f t="shared" si="8"/>
         <v>P;0;120;4;0;0</v>
       </c>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="97"/>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="B31" s="93" t="str">
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="B31" s="95" t="str">
         <f t="shared" si="9"/>
         <v>P;0;120;4;0;0</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="I31" s="97" t="str">
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="I31" s="99" t="str">
         <f t="shared" si="7"/>
         <v>P;0;120;4;0;0</v>
       </c>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="P31" s="97" t="str">
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="P31" s="99" t="str">
         <f t="shared" si="8"/>
         <v>B;54;0.5;4;0;0</v>
       </c>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="97"/>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="B32" s="93" t="str">
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="B32" s="95" t="str">
         <f t="shared" si="9"/>
         <v>B;289;0.5;5;0;0</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="I32" s="97" t="str">
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="I32" s="99" t="str">
         <f t="shared" si="7"/>
         <v>B;289;0.5;5;0;0</v>
       </c>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="P32" s="97" t="str">
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="P32" s="99" t="str">
         <f t="shared" si="8"/>
         <v>B;2023;0.9;5;0;0</v>
       </c>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="97"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="93" t="str">
+      <c r="B33" s="95" t="str">
         <f t="shared" si="9"/>
         <v>B;2023;0.9;6;0;0</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="I33" s="97" t="str">
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
+      <c r="I33" s="99" t="str">
         <f t="shared" si="7"/>
         <v>B;1445;0.9;6;0;0</v>
       </c>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="P33" s="97" t="str">
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="P33" s="99" t="str">
         <f t="shared" si="8"/>
         <v>B;289;0.5;6;0;0</v>
       </c>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="97"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="93" t="str">
+      <c r="B34" s="95" t="str">
         <f t="shared" si="9"/>
         <v>B;289;0.5;7;0;0</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="I34" s="97" t="str">
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="I34" s="99" t="str">
         <f t="shared" si="7"/>
         <v>B;867;0.5;7;0;0</v>
       </c>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="P34" s="97" t="str">
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="P34" s="99" t="str">
         <f t="shared" si="8"/>
         <v>B;289;0.3;7;0;0</v>
       </c>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="93" t="str">
+      <c r="B35" s="95" t="str">
         <f t="shared" si="9"/>
         <v>B;289;0.3;8;0;0</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="I35" s="97" t="str">
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
+      <c r="I35" s="99" t="str">
         <f t="shared" si="7"/>
         <v>B;289;0.3;8;0;0</v>
       </c>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="P35" s="97" t="str">
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="P35" s="99" t="str">
         <f t="shared" si="8"/>
         <v>T;72;0.2;8;0;0</v>
       </c>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="97"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="93" t="str">
+      <c r="B36" s="95" t="str">
         <f t="shared" si="9"/>
         <v>T;36;0.2;9;0;0</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="I36" s="97" t="str">
+      <c r="C36" s="96"/>
+      <c r="D36" s="97"/>
+      <c r="I36" s="99" t="str">
         <f t="shared" si="7"/>
         <v>T;36;0.2;9;0;0</v>
       </c>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="P36" s="97" t="str">
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="P36" s="99" t="str">
         <f t="shared" si="8"/>
         <v>T;145;2;9;0;0</v>
       </c>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="93" t="str">
+      <c r="B37" s="95" t="str">
         <f t="shared" si="9"/>
         <v>T;36;0.1;10;0;0</v>
       </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="95"/>
-      <c r="I37" s="97" t="str">
+      <c r="C37" s="96"/>
+      <c r="D37" s="97"/>
+      <c r="I37" s="99" t="str">
         <f t="shared" si="7"/>
         <v>T;36;0.1;10;0;0</v>
       </c>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="P37" s="97" t="str">
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="P37" s="99" t="str">
         <f t="shared" si="8"/>
         <v>T;145;2;10;0;0</v>
       </c>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="97"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A4:B5" name="Диапазон1"/>
   </protectedRanges>
-  <mergeCells count="60">
+  <mergeCells count="59">
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="U23:V23"/>
@@ -4148,7 +4182,6 @@
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="K10:L11"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tools/Расчет АС-3.xlsx
+++ b/tools/Расчет АС-3.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosoj/Documents/Arduino/Samovar/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43153E3-E865-B64C-A2D3-17FBA355B1E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA02331-2FB7-D54E-911E-466FF6BD92B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет базовый" sheetId="1" r:id="rId1"/>
     <sheet name="С разбивкой по емкостям и прогр" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -944,6 +943,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -964,60 +1011,12 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -2782,7 +2781,7 @@
   <dimension ref="A2:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2811,21 +2810,21 @@
   <sheetData>
     <row r="2" spans="1:24" ht="17" thickBot="1"/>
     <row r="3" spans="1:24" ht="17" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="33"/>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="86"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="98"/>
       <c r="J3" s="33"/>
       <c r="K3" s="34" t="s">
         <v>6</v>
@@ -2881,39 +2880,39 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
     </row>
     <row r="6" spans="1:24" ht="29" thickBot="1">
       <c r="B6" s="28">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="C6" s="25">
         <f>C4/B6</f>
-        <v>3.6125000000000003</v>
+        <v>3.7290322580645161</v>
       </c>
       <c r="F6" s="25">
         <f>F4/B6</f>
-        <v>0.541875</v>
+        <v>0.55935483870967739</v>
       </c>
       <c r="I6" s="25">
         <f>I4/B6*2</f>
-        <v>0.36125000000000002</v>
+        <v>0.37290322580645158</v>
       </c>
       <c r="K6" s="25">
         <f>I6+F6</f>
-        <v>0.90312499999999996</v>
+        <v>0.93225806451612891</v>
       </c>
       <c r="M6" s="26">
         <f>M4/B6</f>
-        <v>2.89</v>
+        <v>2.9832258064516126</v>
       </c>
       <c r="Q6" s="27">
         <f>(A4-K6-M6) * 0.9</f>
-        <v>5.7661875</v>
+        <v>5.6560645161290326</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="17" thickBot="1"/>
@@ -2954,78 +2953,78 @@
       <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:24" ht="17" customHeight="1">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="89" t="s">
+      <c r="D10" s="99"/>
+      <c r="E10" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="92" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="62"/>
-      <c r="I10" s="91" t="s">
+      <c r="I10" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="87" t="s">
+      <c r="J10" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="87" t="s">
+      <c r="K10" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="87"/>
-      <c r="M10" s="89" t="s">
+      <c r="L10" s="99"/>
+      <c r="M10" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="93" t="s">
+      <c r="N10" s="92" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="43"/>
-      <c r="Q10" s="91" t="s">
+      <c r="Q10" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="87" t="s">
+      <c r="R10" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="87" t="s">
+      <c r="S10" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="87"/>
-      <c r="U10" s="89" t="s">
+      <c r="T10" s="99"/>
+      <c r="U10" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="93" t="s">
+      <c r="V10" s="92" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="92"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="94"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="62"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="94"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="93"/>
       <c r="O11" s="43"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="94"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="93"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="44">
@@ -3042,14 +3041,14 @@
       </c>
       <c r="E12" s="47">
         <f>$F$6*C12</f>
-        <v>0.3793125</v>
+        <v>0.39154838709677414</v>
       </c>
       <c r="F12" s="48">
         <v>166</v>
       </c>
       <c r="G12" s="63">
         <f>E12/B12</f>
-        <v>3.7931249999999999</v>
+        <v>3.9154838709677411</v>
       </c>
       <c r="I12" s="44">
         <v>1</v>
@@ -3065,14 +3064,14 @@
       </c>
       <c r="M12" s="47">
         <f>$F$6*K12</f>
-        <v>0.3793125</v>
+        <v>0.39154838709677414</v>
       </c>
       <c r="N12" s="48">
         <v>166</v>
       </c>
       <c r="O12" s="63">
         <f t="shared" ref="O12:O22" si="0">M12/J12</f>
-        <v>3.7931249999999999</v>
+        <v>3.9154838709677411</v>
       </c>
       <c r="Q12" s="44">
         <v>1</v>
@@ -3088,14 +3087,14 @@
       </c>
       <c r="U12" s="47">
         <f>$F$6*S12</f>
-        <v>0.4335</v>
+        <v>0.44748387096774195</v>
       </c>
       <c r="V12" s="48">
         <v>166</v>
       </c>
       <c r="W12" s="63">
         <f>U12/R12</f>
-        <v>4.335</v>
+        <v>4.4748387096774191</v>
       </c>
       <c r="X12" s="59"/>
     </row>
@@ -3114,14 +3113,14 @@
       </c>
       <c r="E13" s="47">
         <f t="shared" ref="E13:E16" si="1">$F$6*C13</f>
-        <v>5.41875E-2</v>
+        <v>5.5935483870967743E-2</v>
       </c>
       <c r="F13" s="48">
         <v>0</v>
       </c>
       <c r="G13" s="63">
         <f t="shared" ref="G13:G22" si="2">E13/B13</f>
-        <v>0.541875</v>
+        <v>0.55935483870967739</v>
       </c>
       <c r="I13" s="44">
         <v>2</v>
@@ -3137,14 +3136,14 @@
       </c>
       <c r="M13" s="47">
         <f>$F$6*K13</f>
-        <v>5.41875E-2</v>
+        <v>5.5935483870967743E-2</v>
       </c>
       <c r="N13" s="48">
         <v>0</v>
       </c>
       <c r="O13" s="63">
         <f t="shared" si="0"/>
-        <v>0.541875</v>
+        <v>0.55935483870967739</v>
       </c>
       <c r="Q13" s="44">
         <v>2</v>
@@ -3160,14 +3159,14 @@
       </c>
       <c r="U13" s="47">
         <f t="shared" ref="U13:U15" si="3">$F$6*S13</f>
-        <v>5.41875E-2</v>
+        <v>5.5935483870967743E-2</v>
       </c>
       <c r="V13" s="48">
         <v>0</v>
       </c>
       <c r="W13" s="63">
         <f t="shared" ref="W13:W22" si="4">U13/R13</f>
-        <v>0.541875</v>
+        <v>0.55935483870967739</v>
       </c>
       <c r="X13" s="59"/>
     </row>
@@ -3186,14 +3185,14 @@
       </c>
       <c r="E14" s="47">
         <f t="shared" si="1"/>
-        <v>5.41875E-2</v>
+        <v>5.5935483870967743E-2</v>
       </c>
       <c r="F14" s="48">
         <v>0</v>
       </c>
       <c r="G14" s="63">
         <f t="shared" si="2"/>
-        <v>0.541875</v>
+        <v>0.55935483870967739</v>
       </c>
       <c r="I14" s="44">
         <v>3</v>
@@ -3209,14 +3208,14 @@
       </c>
       <c r="M14" s="47">
         <f>$F$6*K14</f>
-        <v>5.41875E-2</v>
+        <v>5.5935483870967743E-2</v>
       </c>
       <c r="N14" s="48">
         <v>0</v>
       </c>
       <c r="O14" s="63">
         <f t="shared" si="0"/>
-        <v>0.541875</v>
+        <v>0.55935483870967739</v>
       </c>
       <c r="Q14" s="44">
         <v>3</v>
@@ -3232,14 +3231,14 @@
       </c>
       <c r="U14" s="47">
         <f t="shared" si="3"/>
-        <v>5.41875E-2</v>
+        <v>5.5935483870967743E-2</v>
       </c>
       <c r="V14" s="48">
         <v>0</v>
       </c>
       <c r="W14" s="63">
         <f t="shared" si="4"/>
-        <v>0.541875</v>
+        <v>0.55935483870967739</v>
       </c>
       <c r="X14" s="59"/>
     </row>
@@ -3258,14 +3257,14 @@
       </c>
       <c r="E15" s="47">
         <f t="shared" si="1"/>
-        <v>5.41875E-2</v>
+        <v>5.5935483870967743E-2</v>
       </c>
       <c r="F15" s="48">
         <v>0</v>
       </c>
       <c r="G15" s="63">
         <f t="shared" si="2"/>
-        <v>0.541875</v>
+        <v>0.55935483870967739</v>
       </c>
       <c r="I15" s="44">
         <v>4</v>
@@ -3281,14 +3280,14 @@
       </c>
       <c r="M15" s="47">
         <f>$F$6*K15</f>
-        <v>5.41875E-2</v>
+        <v>5.5935483870967743E-2</v>
       </c>
       <c r="N15" s="48">
         <v>0</v>
       </c>
       <c r="O15" s="63">
         <f t="shared" si="0"/>
-        <v>0.541875</v>
+        <v>0.55935483870967739</v>
       </c>
       <c r="Q15" s="44">
         <v>4</v>
@@ -3379,14 +3378,14 @@
       </c>
       <c r="U16" s="47">
         <f>$F$6*S16</f>
-        <v>5.41875E-2</v>
+        <v>5.5935483870967743E-2</v>
       </c>
       <c r="V16" s="48">
         <v>0</v>
       </c>
       <c r="W16" s="63">
         <f t="shared" si="4"/>
-        <v>0.108375</v>
+        <v>0.11187096774193549</v>
       </c>
       <c r="X16" s="59"/>
     </row>
@@ -3405,14 +3404,14 @@
       </c>
       <c r="E17" s="47">
         <f>$M$6*C17</f>
-        <v>0.28900000000000003</v>
+        <v>0.29832258064516126</v>
       </c>
       <c r="F17" s="48">
         <v>0</v>
       </c>
       <c r="G17" s="63">
         <f t="shared" si="2"/>
-        <v>0.57800000000000007</v>
+        <v>0.59664516129032252</v>
       </c>
       <c r="I17" s="44">
         <v>5</v>
@@ -3428,14 +3427,14 @@
       </c>
       <c r="M17" s="47">
         <f>$M$6*K17</f>
-        <v>0.28900000000000003</v>
+        <v>0.29832258064516126</v>
       </c>
       <c r="N17" s="48">
         <v>0</v>
       </c>
       <c r="O17" s="63">
         <f t="shared" si="0"/>
-        <v>0.57800000000000007</v>
+        <v>0.59664516129032252</v>
       </c>
       <c r="Q17" s="44">
         <v>5</v>
@@ -3451,14 +3450,14 @@
       </c>
       <c r="U17" s="47">
         <f>$M$6*S17</f>
-        <v>2.0230000000000001</v>
+        <v>2.0882580645161286</v>
       </c>
       <c r="V17" s="48">
         <v>0</v>
       </c>
       <c r="W17" s="63">
         <f t="shared" si="4"/>
-        <v>2.2477777777777779</v>
+        <v>2.3202867383512538</v>
       </c>
       <c r="X17" s="59"/>
     </row>
@@ -3477,14 +3476,14 @@
       </c>
       <c r="E18" s="47">
         <f t="shared" ref="E18:E20" si="5">$M$6*C18</f>
-        <v>2.0230000000000001</v>
+        <v>2.0882580645161286</v>
       </c>
       <c r="F18" s="48">
         <v>0</v>
       </c>
       <c r="G18" s="63">
         <f t="shared" si="2"/>
-        <v>2.2477777777777779</v>
+        <v>2.3202867383512538</v>
       </c>
       <c r="I18" s="44">
         <v>6</v>
@@ -3500,14 +3499,14 @@
       </c>
       <c r="M18" s="47">
         <f>$M$6*K18</f>
-        <v>1.4450000000000001</v>
+        <v>1.4916129032258063</v>
       </c>
       <c r="N18" s="48">
         <v>0</v>
       </c>
       <c r="O18" s="63">
         <f t="shared" si="0"/>
-        <v>1.6055555555555556</v>
+        <v>1.6573476702508958</v>
       </c>
       <c r="Q18" s="44">
         <v>6</v>
@@ -3523,14 +3522,14 @@
       </c>
       <c r="U18" s="47">
         <f t="shared" ref="U18:U19" si="6">$M$6*S18</f>
-        <v>0.28900000000000003</v>
+        <v>0.29832258064516126</v>
       </c>
       <c r="V18" s="48">
         <v>0</v>
       </c>
       <c r="W18" s="63">
         <f t="shared" si="4"/>
-        <v>0.57800000000000007</v>
+        <v>0.59664516129032252</v>
       </c>
       <c r="X18" s="59"/>
     </row>
@@ -3549,14 +3548,14 @@
       </c>
       <c r="E19" s="47">
         <f t="shared" si="5"/>
-        <v>0.28900000000000003</v>
+        <v>0.29832258064516126</v>
       </c>
       <c r="F19" s="48">
         <v>0</v>
       </c>
       <c r="G19" s="63">
         <f t="shared" si="2"/>
-        <v>0.57800000000000007</v>
+        <v>0.59664516129032252</v>
       </c>
       <c r="I19" s="44">
         <v>7</v>
@@ -3572,14 +3571,14 @@
       </c>
       <c r="M19" s="47">
         <f>$M$6*K19</f>
-        <v>0.86699999999999999</v>
+        <v>0.89496774193548378</v>
       </c>
       <c r="N19" s="48">
         <v>0</v>
       </c>
       <c r="O19" s="63">
         <f t="shared" si="0"/>
-        <v>1.734</v>
+        <v>1.7899354838709676</v>
       </c>
       <c r="Q19" s="44">
         <v>7</v>
@@ -3595,14 +3594,14 @@
       </c>
       <c r="U19" s="47">
         <f t="shared" si="6"/>
-        <v>0.28900000000000003</v>
+        <v>0.29832258064516126</v>
       </c>
       <c r="V19" s="48">
         <v>0</v>
       </c>
       <c r="W19" s="63">
         <f t="shared" si="4"/>
-        <v>0.96333333333333349</v>
+        <v>0.99440860215053761</v>
       </c>
       <c r="X19" s="59"/>
     </row>
@@ -3621,14 +3620,14 @@
       </c>
       <c r="E20" s="47">
         <f t="shared" si="5"/>
-        <v>0.28900000000000003</v>
+        <v>0.29832258064516126</v>
       </c>
       <c r="F20" s="48">
         <v>0</v>
       </c>
       <c r="G20" s="63">
         <f t="shared" si="2"/>
-        <v>0.96333333333333349</v>
+        <v>0.99440860215053761</v>
       </c>
       <c r="I20" s="44">
         <v>8</v>
@@ -3644,14 +3643,14 @@
       </c>
       <c r="M20" s="47">
         <f>$M$6*K20</f>
-        <v>0.28900000000000003</v>
+        <v>0.29832258064516126</v>
       </c>
       <c r="N20" s="48">
         <v>0</v>
       </c>
       <c r="O20" s="63">
         <f t="shared" si="0"/>
-        <v>0.96333333333333349</v>
+        <v>0.99440860215053761</v>
       </c>
       <c r="Q20" s="44">
         <v>8</v>
@@ -3667,14 +3666,14 @@
       </c>
       <c r="U20" s="47">
         <f>$I$6*S20</f>
-        <v>7.2250000000000009E-2</v>
+        <v>7.4580645161290315E-2</v>
       </c>
       <c r="V20" s="48">
         <v>0</v>
       </c>
       <c r="W20" s="63">
         <f t="shared" si="4"/>
-        <v>0.36125000000000002</v>
+        <v>0.37290322580645158</v>
       </c>
       <c r="X20" s="59"/>
     </row>
@@ -3693,14 +3692,14 @@
       </c>
       <c r="E21" s="47">
         <f>$I$6*C21</f>
-        <v>3.6125000000000004E-2</v>
+        <v>3.7290322580645158E-2</v>
       </c>
       <c r="F21" s="48">
         <v>0</v>
       </c>
       <c r="G21" s="63">
         <f t="shared" si="2"/>
-        <v>0.18062500000000001</v>
+        <v>0.18645161290322579</v>
       </c>
       <c r="I21" s="44">
         <v>9</v>
@@ -3716,14 +3715,14 @@
       </c>
       <c r="M21" s="47">
         <f>$I$6*K21</f>
-        <v>3.6125000000000004E-2</v>
+        <v>3.7290322580645158E-2</v>
       </c>
       <c r="N21" s="48">
         <v>0</v>
       </c>
       <c r="O21" s="63">
         <f t="shared" si="0"/>
-        <v>0.18062500000000001</v>
+        <v>0.18645161290322579</v>
       </c>
       <c r="Q21" s="44">
         <v>9</v>
@@ -3739,14 +3738,14 @@
       </c>
       <c r="U21" s="47">
         <f>$I$6*S21</f>
-        <v>0.14450000000000002</v>
+        <v>0.14916129032258063</v>
       </c>
       <c r="V21" s="48">
         <v>0</v>
       </c>
       <c r="W21" s="63">
         <f t="shared" si="4"/>
-        <v>7.2250000000000009E-2</v>
+        <v>7.4580645161290315E-2</v>
       </c>
       <c r="X21" s="59"/>
     </row>
@@ -3765,14 +3764,14 @@
       </c>
       <c r="E22" s="54">
         <f>$I$6*C22</f>
-        <v>3.6125000000000004E-2</v>
+        <v>3.7290322580645158E-2</v>
       </c>
       <c r="F22" s="48">
         <v>0</v>
       </c>
       <c r="G22" s="63">
         <f t="shared" si="2"/>
-        <v>0.36125000000000002</v>
+        <v>0.37290322580645158</v>
       </c>
       <c r="I22" s="50">
         <v>10</v>
@@ -3788,14 +3787,14 @@
       </c>
       <c r="M22" s="54">
         <f>$I$6*K22</f>
-        <v>3.6125000000000004E-2</v>
+        <v>3.7290322580645158E-2</v>
       </c>
       <c r="N22" s="48">
         <v>0</v>
       </c>
       <c r="O22" s="63">
         <f t="shared" si="0"/>
-        <v>0.36125000000000002</v>
+        <v>0.37290322580645158</v>
       </c>
       <c r="Q22" s="50">
         <v>10</v>
@@ -3811,56 +3810,56 @@
       </c>
       <c r="U22" s="54">
         <f>$I$6*S22</f>
-        <v>0.14450000000000002</v>
+        <v>0.14916129032258063</v>
       </c>
       <c r="V22" s="48">
         <v>0</v>
       </c>
       <c r="W22" s="63">
         <f t="shared" si="4"/>
-        <v>7.2250000000000009E-2</v>
+        <v>7.4580645161290315E-2</v>
       </c>
       <c r="X22" s="59"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="E23" s="101" t="s">
+      <c r="E23" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="101"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="61" t="str">
         <f>TRUNC(H23)&amp; ":"&amp;TRUNC((H23 - TRUNC(H23)) * 60)</f>
-        <v>10:19</v>
+        <v>10:39</v>
       </c>
       <c r="H23" s="60">
         <f>SUM(G12:G22)</f>
-        <v>10.327736111111109</v>
+        <v>10.660888888888886</v>
       </c>
       <c r="K23" s="55"/>
-      <c r="M23" s="101" t="s">
+      <c r="M23" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="101"/>
+      <c r="N23" s="84"/>
       <c r="O23" s="61" t="str">
         <f>TRUNC(P23)&amp; ":"&amp;TRUNC((P23 - TRUNC(P23)) * 60)</f>
-        <v>10:50</v>
+        <v>11:11</v>
       </c>
       <c r="P23" s="60">
         <f>SUM(O12:O22)</f>
-        <v>10.841513888888889</v>
+        <v>11.191240143369175</v>
       </c>
       <c r="Q23" s="55"/>
       <c r="R23" s="55"/>
-      <c r="U23" s="101" t="s">
+      <c r="U23" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="V23" s="101"/>
+      <c r="V23" s="84"/>
       <c r="W23" s="61" t="str">
         <f>TRUNC(X23)&amp; ":"&amp;TRUNC((X23 - TRUNC(X23)) * 60)</f>
-        <v>9:49</v>
+        <v>10:8</v>
       </c>
       <c r="X23" s="60">
         <f>SUM(W12:W22)</f>
-        <v>9.8219861111111104</v>
+        <v>10.138824372759856</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -3875,266 +3874,285 @@
       <c r="S25" s="57"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="I26" s="100" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="I26" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="P26" s="102" t="s">
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="P26" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
       <c r="S26" s="57"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="B27" s="95" t="str">
+      <c r="B27" s="88" t="str">
         <f>SUBSTITUTE(D12 &amp; ";"&amp;ROUND(E12,3)* 1000&amp; ";"&amp;B12&amp; ";" &amp;A12&amp;";0;"&amp;F12,",",".")</f>
-        <v>H;379;0.1;1;0;166</v>
-      </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="97"/>
-      <c r="I27" s="99" t="str">
+        <v>H;392;0.1;1;0;166</v>
+      </c>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="I27" s="85" t="str">
         <f t="shared" ref="I27:I37" si="7">SUBSTITUTE(L12 &amp; ";"&amp;ROUND(M12,3)* 1000&amp; ";"&amp;J12&amp; ";" &amp;I12&amp;";0;"&amp;N12,",",".")</f>
-        <v>H;379;0.1;1;0;166</v>
-      </c>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="P27" s="99" t="str">
+        <v>H;392;0.1;1;0;166</v>
+      </c>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="P27" s="85" t="str">
         <f t="shared" ref="P27:P37" si="8">SUBSTITUTE(T12 &amp; ";"&amp;ROUND(U12,3)* 1000&amp; ";"&amp;R12&amp; ";" &amp;Q12&amp;";0;"&amp;V12,",",".")</f>
-        <v>H;434;0.1;1;0;166</v>
-      </c>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
+        <v>H;447;0.1;1;0;166</v>
+      </c>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
       <c r="S27" s="57"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="B28" s="95" t="str">
+      <c r="B28" s="88" t="str">
         <f t="shared" ref="B28:B37" si="9">SUBSTITUTE(D13 &amp; ";"&amp;ROUND(E13,3)* 1000&amp; ";"&amp;B13&amp; ";" &amp;A13&amp;";0;"&amp;F13,",",".")</f>
-        <v>H;54;0.1;2;0;0</v>
-      </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97"/>
-      <c r="I28" s="99" t="str">
+        <v>H;56;0.1;2;0;0</v>
+      </c>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="I28" s="85" t="str">
         <f t="shared" si="7"/>
-        <v>H;54;0.1;2;0;0</v>
-      </c>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="P28" s="99" t="str">
+        <v>H;56;0.1;2;0;0</v>
+      </c>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="P28" s="85" t="str">
         <f t="shared" si="8"/>
-        <v>H;54;0.1;2;0;0</v>
-      </c>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
+        <v>H;56;0.1;2;0;0</v>
+      </c>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="B29" s="95" t="str">
+      <c r="B29" s="88" t="str">
         <f t="shared" si="9"/>
-        <v>H;54;0.1;3;0;0</v>
-      </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="I29" s="99" t="str">
+        <v>H;56;0.1;3;0;0</v>
+      </c>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
+      <c r="I29" s="85" t="str">
         <f t="shared" si="7"/>
-        <v>H;54;0.1;3;0;0</v>
-      </c>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="P29" s="99" t="str">
+        <v>H;56;0.1;3;0;0</v>
+      </c>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="P29" s="85" t="str">
         <f t="shared" si="8"/>
-        <v>H;54;0.1;3;0;0</v>
-      </c>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
+        <v>H;56;0.1;3;0;0</v>
+      </c>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="B30" s="95" t="str">
+      <c r="B30" s="88" t="str">
         <f t="shared" si="9"/>
-        <v>H;54;0.1;4;0;0</v>
-      </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="97"/>
-      <c r="I30" s="99" t="str">
+        <v>H;56;0.1;4;0;0</v>
+      </c>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="I30" s="85" t="str">
         <f t="shared" si="7"/>
-        <v>H;54;0.1;4;0;0</v>
-      </c>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="P30" s="99" t="str">
+        <v>H;56;0.1;4;0;0</v>
+      </c>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="P30" s="85" t="str">
         <f t="shared" si="8"/>
         <v>P;0;120;4;0;0</v>
       </c>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="B31" s="95" t="str">
+      <c r="B31" s="88" t="str">
         <f t="shared" si="9"/>
         <v>P;0;120;4;0;0</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="I31" s="99" t="str">
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="I31" s="85" t="str">
         <f t="shared" si="7"/>
         <v>P;0;120;4;0;0</v>
       </c>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="P31" s="99" t="str">
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="P31" s="85" t="str">
         <f t="shared" si="8"/>
-        <v>B;54;0.5;4;0;0</v>
-      </c>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
+        <v>B;56;0.5;4;0;0</v>
+      </c>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="B32" s="95" t="str">
+      <c r="B32" s="88" t="str">
         <f t="shared" si="9"/>
-        <v>B;289;0.5;5;0;0</v>
-      </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="I32" s="99" t="str">
+        <v>B;298;0.5;5;0;0</v>
+      </c>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="I32" s="85" t="str">
         <f t="shared" si="7"/>
-        <v>B;289;0.5;5;0;0</v>
-      </c>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="P32" s="99" t="str">
+        <v>B;298;0.5;5;0;0</v>
+      </c>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="P32" s="85" t="str">
         <f t="shared" si="8"/>
-        <v>B;2023;0.9;5;0;0</v>
-      </c>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
+        <v>B;2088;0.9;5;0;0</v>
+      </c>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="95" t="str">
+      <c r="B33" s="88" t="str">
         <f t="shared" si="9"/>
-        <v>B;2023;0.9;6;0;0</v>
-      </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
-      <c r="I33" s="99" t="str">
+        <v>B;2088;0.9;6;0;0</v>
+      </c>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
+      <c r="I33" s="85" t="str">
         <f t="shared" si="7"/>
-        <v>B;1445;0.9;6;0;0</v>
-      </c>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="P33" s="99" t="str">
+        <v>B;1492;0.9;6;0;0</v>
+      </c>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="P33" s="85" t="str">
         <f t="shared" si="8"/>
-        <v>B;289;0.5;6;0;0</v>
-      </c>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
+        <v>B;298;0.5;6;0;0</v>
+      </c>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="95" t="str">
+      <c r="B34" s="88" t="str">
         <f t="shared" si="9"/>
-        <v>B;289;0.5;7;0;0</v>
-      </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="97"/>
-      <c r="I34" s="99" t="str">
+        <v>B;298;0.5;7;0;0</v>
+      </c>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="I34" s="85" t="str">
         <f t="shared" si="7"/>
-        <v>B;867;0.5;7;0;0</v>
-      </c>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="P34" s="99" t="str">
+        <v>B;895;0.5;7;0;0</v>
+      </c>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="P34" s="85" t="str">
         <f t="shared" si="8"/>
-        <v>B;289;0.3;7;0;0</v>
-      </c>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
+        <v>B;298;0.3;7;0;0</v>
+      </c>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="95" t="str">
+      <c r="B35" s="88" t="str">
         <f t="shared" si="9"/>
-        <v>B;289;0.3;8;0;0</v>
-      </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="97"/>
-      <c r="I35" s="99" t="str">
+        <v>B;298;0.3;8;0;0</v>
+      </c>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90"/>
+      <c r="I35" s="85" t="str">
         <f t="shared" si="7"/>
-        <v>B;289;0.3;8;0;0</v>
-      </c>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="P35" s="99" t="str">
+        <v>B;298;0.3;8;0;0</v>
+      </c>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="P35" s="85" t="str">
         <f t="shared" si="8"/>
-        <v>T;72;0.2;8;0;0</v>
-      </c>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
+        <v>T;75;0.2;8;0;0</v>
+      </c>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="95" t="str">
+      <c r="B36" s="88" t="str">
         <f t="shared" si="9"/>
-        <v>T;36;0.2;9;0;0</v>
-      </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="97"/>
-      <c r="I36" s="99" t="str">
+        <v>T;37;0.2;9;0;0</v>
+      </c>
+      <c r="C36" s="89"/>
+      <c r="D36" s="90"/>
+      <c r="I36" s="85" t="str">
         <f t="shared" si="7"/>
-        <v>T;36;0.2;9;0;0</v>
-      </c>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="P36" s="99" t="str">
+        <v>T;37;0.2;9;0;0</v>
+      </c>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="P36" s="85" t="str">
         <f t="shared" si="8"/>
-        <v>T;145;2;9;0;0</v>
-      </c>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="99"/>
+        <v>T;149;2;9;0;0</v>
+      </c>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="95" t="str">
+      <c r="B37" s="88" t="str">
         <f t="shared" si="9"/>
-        <v>T;36;0.1;10;0;0</v>
-      </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="97"/>
-      <c r="I37" s="99" t="str">
+        <v>T;37;0.1;10;0;0</v>
+      </c>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
+      <c r="I37" s="85" t="str">
         <f t="shared" si="7"/>
-        <v>T;36;0.1;10;0;0</v>
-      </c>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="P37" s="99" t="str">
+        <v>T;37;0.1;10;0;0</v>
+      </c>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="P37" s="85" t="str">
         <f t="shared" si="8"/>
-        <v>T;145;2;10;0;0</v>
-      </c>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
+        <v>T;149;2;10;0;0</v>
+      </c>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A4:B5" name="Диапазон1"/>
   </protectedRanges>
   <mergeCells count="59">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="P35:R35"/>
     <mergeCell ref="P36:R36"/>
     <mergeCell ref="P37:R37"/>
@@ -4151,37 +4169,18 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="P26:R26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tools/Расчет АС-3.xlsx
+++ b/tools/Расчет АС-3.xlsx
@@ -1,32 +1,261 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosoj/Documents/Arduino/Samovar/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA02331-2FB7-D54E-911E-466FF6BD92B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9968E6C8-2ADF-1D4F-9893-CEE7EFFB5A64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет базовый" sheetId="1" r:id="rId1"/>
     <sheet name="С разбивкой по емкостям и прогр" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь Microsoft Office</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{F838495A-8A49-5B49-B0BA-C6E95B76FE21}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">1. Колонна максимальной высоты, плотно набитая насадка
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">2. Отбор - в режиме максимального разделения (предзахлеб)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">3. Головы - 10%-15%, хвосты - 5%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">4. Выход спирта - 96%-97%
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{636F025E-1591-7844-BD4C-8596C0ED9EC5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">1. Колонна метр, разреженная насадка
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">2. Начало отбора в пленочном режиме
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">3. После отбора голов увеличить разделение, но не доводить до предзахлеба
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>4. Головы - 10%, хвосты - 5%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">5. Выход спирта - 94%
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V10" authorId="0" shapeId="0" xr:uid="{52E7AC25-0B58-9547-842F-062CEF0A82D6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">1. Колонна метр, разреженная насадка
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">2. Начало отбора в пленочном режиме
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">3. После отбора голов увеличить разделение, но не доводить до предзахлеба
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>4. Головы 6%-10%, хвосты - 5%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>-7%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>5. Выход спирта - 94%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q23" authorId="0" shapeId="0" xr:uid="{E7A2CEB7-90DD-444E-A138-527E8B8C092B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Отбор ЖК для зерновых
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>ВНИМАНИЕ!!!! Данная таблица не расчитывает точное количесвтво примесей в спирте-сырце, а лишь дает приближенное значение  содержания примесей для правильно собранной и правильно запущенной колонны, поэтому используя это пособие вы действуете ИСКЛЮЧИТЕЛЬНО на свой страх и риск. Для точного определения примесей в спирте сырце необходим лобарорный хим.анализ.</t>
   </si>
@@ -118,9 +347,6 @@
     <t>T - хвосты</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>P - пауза</t>
   </si>
   <si>
@@ -162,6 +388,21 @@
   <si>
     <t>сек</t>
   </si>
+  <si>
+    <t>Головы (H)</t>
+  </si>
+  <si>
+    <t>Хвосты (T)</t>
+  </si>
+  <si>
+    <t>Тело спирта (B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кубовой остаток</t>
+  </si>
+  <si>
+    <t>На листе присутствуют заметки, подсказывающие по работе с колонной</t>
+  </si>
 </sst>
 </file>
 
@@ -170,7 +411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,6 +492,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -314,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -669,13 +917,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -776,14 +1050,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -858,9 +1124,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -872,9 +1135,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -943,80 +1203,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1036,6 +1349,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1479,82 +1796,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="1:20" hidden="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="77"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" hidden="1">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="73"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="77"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="73"/>
       <c r="P4" s="31" t="s">
         <v>1</v>
       </c>
@@ -1564,21 +1881,21 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="77"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="30" t="s">
         <v>2</v>
       </c>
@@ -1588,21 +1905,21 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="80"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1632,31 +1949,31 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="17" thickBot="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="83"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="83"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="L8" s="79"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="81" t="s">
+      <c r="N8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="83"/>
+      <c r="O8" s="79"/>
       <c r="P8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1693,18 +2010,18 @@
         <v>0.32000000000000006</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="64">
+      <c r="K9" s="60">
         <f>I9+F9</f>
         <v>1.28</v>
       </c>
-      <c r="L9" s="65"/>
+      <c r="L9" s="61"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="66">
+      <c r="N9" s="62">
         <f>C9-K9</f>
         <v>5.12</v>
       </c>
-      <c r="O9" s="67"/>
-      <c r="P9" s="70">
+      <c r="O9" s="63"/>
+      <c r="P9" s="66">
         <f>A9-K9-N9</f>
         <v>9.6000000000000014</v>
       </c>
@@ -1727,9 +2044,9 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="71"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="67"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2777,11 +3094,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C5AEE6-2B79-C248-89D2-07DF9BE2110D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C5AEE6-2B79-C248-89D2-07DF9BE2110D}">
   <dimension ref="A2:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2798,63 +3115,70 @@
     <col min="10" max="10" width="12.1640625" style="32" customWidth="1"/>
     <col min="11" max="11" width="13.1640625" style="32" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" style="32" customWidth="1"/>
-    <col min="13" max="14" width="12" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="32" customWidth="1"/>
+    <col min="14" max="14" width="12" style="32" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.6640625" style="32" customWidth="1"/>
     <col min="16" max="16" width="4.1640625" style="32" customWidth="1"/>
-    <col min="17" max="17" width="15" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="32" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" style="32" customWidth="1"/>
     <col min="19" max="19" width="7.1640625" style="32" customWidth="1"/>
-    <col min="20" max="20" width="12" style="32" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="32"/>
+    <col min="20" max="20" width="13" style="32" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="32"/>
+    <col min="22" max="22" width="11.1640625" style="32" customWidth="1"/>
+    <col min="23" max="23" width="7.1640625" style="32" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="17" thickBot="1"/>
     <row r="3" spans="1:24" ht="17" thickBot="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="97"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>8</v>
+      <c r="L3" s="98"/>
+      <c r="M3" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="100" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="29" thickBot="1">
       <c r="A4" s="29">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="B4" s="28">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="C4" s="25">
         <f>A4*B4</f>
-        <v>3.468</v>
+        <v>4.5</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="28">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="25">
         <f>C4*E4</f>
-        <v>0.5202</v>
+        <v>0.45</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="28">
@@ -2862,1290 +3186,1440 @@
       </c>
       <c r="I4" s="25">
         <f>C4*H4</f>
-        <v>0.1734</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="25">
         <f>I4+F4</f>
-        <v>0.69359999999999999</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="26">
         <f>C4-K4</f>
-        <v>2.7744</v>
-      </c>
-      <c r="Q4" s="27">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="Q4" s="94">
         <f>(A4-K4-M4)</f>
-        <v>6.7319999999999993</v>
+        <v>5.4999999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
     </row>
     <row r="6" spans="1:24" ht="29" thickBot="1">
       <c r="B6" s="28">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="C6" s="25">
         <f>C4/B6</f>
-        <v>3.7290322580645161</v>
+        <v>4.7872340425531918</v>
       </c>
       <c r="F6" s="25">
         <f>F4/B6</f>
-        <v>0.55935483870967739</v>
+        <v>0.47872340425531917</v>
       </c>
       <c r="I6" s="25">
         <f>I4/B6*2</f>
-        <v>0.37290322580645158</v>
+        <v>0.47872340425531917</v>
       </c>
       <c r="K6" s="25">
         <f>I6+F6</f>
-        <v>0.93225806451612891</v>
+        <v>0.95744680851063835</v>
       </c>
       <c r="M6" s="26">
         <f>M4/B6</f>
-        <v>2.9832258064516126</v>
+        <v>4.0691489361702136</v>
       </c>
       <c r="Q6" s="27">
         <f>(A4-K6-M6) * 0.9</f>
-        <v>5.6560645161290326</v>
+        <v>4.4760638297872326</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="17" thickBot="1"/>
     <row r="8" spans="1:24" ht="17" thickBot="1">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="56">
+        <v>120</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="38"/>
+    </row>
+    <row r="9" spans="1:24" ht="17" customHeight="1" thickBot="1">
+      <c r="B9" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="1:24" ht="17" customHeight="1">
+      <c r="A10" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="59"/>
+      <c r="I10" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="84"/>
+      <c r="M10" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="41"/>
+      <c r="Q10" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="84"/>
+      <c r="U10" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" s="90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="89"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="59"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="41"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="91"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="42">
+        <v>1</v>
+      </c>
+      <c r="B12" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="45">
+        <f>$F$6*C12</f>
+        <v>0.19148936170212769</v>
+      </c>
+      <c r="F12" s="46">
+        <v>166</v>
+      </c>
+      <c r="G12" s="58" t="str">
+        <f t="shared" ref="G12:G21" si="0">TRUNC(H12)&amp; ":"&amp;TRUNC((H12 - TRUNC(H12)) * 60)</f>
+        <v>2:44</v>
+      </c>
+      <c r="H12" s="101">
+        <f>E12/B12</f>
+        <v>2.7355623100303954</v>
+      </c>
+      <c r="I12" s="42">
+        <v>1</v>
+      </c>
+      <c r="J12" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="45">
+        <f>$F$6*K12</f>
+        <v>0.11968085106382979</v>
+      </c>
+      <c r="N12" s="46">
+        <v>85</v>
+      </c>
+      <c r="O12" s="58" t="str">
+        <f t="shared" ref="O12:O21" si="1">TRUNC(P12)&amp; ":"&amp;TRUNC((P12 - TRUNC(P12)) * 60)</f>
+        <v>1:42</v>
+      </c>
+      <c r="P12" s="101">
+        <f>M12/J12</f>
+        <v>1.709726443768997</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>0</v>
+      </c>
+      <c r="R12" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S12" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="45">
+        <f>$F$6*S12</f>
+        <v>0.14361702127659576</v>
+      </c>
+      <c r="V12" s="46">
+        <v>85</v>
+      </c>
+      <c r="W12" s="58" t="str">
+        <f t="shared" ref="W12:W22" si="2">TRUNC(X12)&amp; ":"&amp;TRUNC((X12 - TRUNC(X12)) * 60)</f>
+        <v>2:3</v>
+      </c>
+      <c r="X12" s="101">
+        <f>U12/R12</f>
+        <v>2.0516717325227964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="42">
+        <v>1</v>
+      </c>
+      <c r="B13" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" ref="E13:E16" si="3">$F$6*C13</f>
+        <v>9.5744680851063843E-2</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0</v>
+      </c>
+      <c r="G13" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>0:57</v>
+      </c>
+      <c r="H13" s="101">
+        <f>E13/B13</f>
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="I13" s="42">
+        <v>1</v>
+      </c>
+      <c r="J13" s="43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="45">
+        <f t="shared" ref="M13" si="4">$F$6*K13</f>
+        <v>7.1808510638297879E-2</v>
+      </c>
+      <c r="N13" s="46">
+        <v>0</v>
+      </c>
+      <c r="O13" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>0:30</v>
+      </c>
+      <c r="P13" s="101">
+        <f>M13/J13</f>
+        <v>0.51291793313069911</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>0</v>
+      </c>
+      <c r="R13" s="43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S13" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="T13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" s="45">
+        <f t="shared" ref="U13" si="5">$F$6*S13</f>
+        <v>9.5744680851063843E-2</v>
+      </c>
+      <c r="V13" s="46">
+        <v>0</v>
+      </c>
+      <c r="W13" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>0:41</v>
+      </c>
+      <c r="X13" s="101">
+        <f>U13/R13</f>
+        <v>0.68389057750759885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="42">
+        <v>2</v>
+      </c>
+      <c r="B14" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="3"/>
+        <v>9.5744680851063843E-2</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0</v>
+      </c>
+      <c r="G14" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>0:28</v>
+      </c>
+      <c r="H14" s="101">
+        <f>E14/B14</f>
+        <v>0.47872340425531917</v>
+      </c>
+      <c r="I14" s="42">
+        <v>2</v>
+      </c>
+      <c r="J14" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="45">
+        <f>$F$6*K14</f>
+        <v>9.5744680851063843E-2</v>
+      </c>
+      <c r="N14" s="46">
+        <v>0</v>
+      </c>
+      <c r="O14" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>0:19</v>
+      </c>
+      <c r="P14" s="101">
+        <f>M14/J14</f>
+        <v>0.31914893617021284</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>1</v>
+      </c>
+      <c r="R14" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="S14" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="T14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" s="45">
+        <f t="shared" ref="U14:U16" si="6">$F$6*S14</f>
+        <v>9.5744680851063843E-2</v>
+      </c>
+      <c r="V14" s="46">
+        <v>0</v>
+      </c>
+      <c r="W14" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>0:28</v>
+      </c>
+      <c r="X14" s="101">
+        <f>U14/R14</f>
+        <v>0.47872340425531917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="42">
+        <v>3</v>
+      </c>
+      <c r="B15" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="45">
+        <f t="shared" si="3"/>
+        <v>4.7872340425531922E-2</v>
+      </c>
+      <c r="F15" s="46">
+        <v>0</v>
+      </c>
+      <c r="G15" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>0:9</v>
+      </c>
+      <c r="H15" s="101">
+        <f>E15/B15</f>
+        <v>0.15957446808510642</v>
+      </c>
+      <c r="I15" s="42">
+        <v>3</v>
+      </c>
+      <c r="J15" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="45">
+        <f>$F$6*K15</f>
+        <v>9.5744680851063843E-2</v>
+      </c>
+      <c r="N15" s="46">
+        <v>0</v>
+      </c>
+      <c r="O15" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>0:14</v>
+      </c>
+      <c r="P15" s="101">
+        <f>M15/J15</f>
+        <v>0.23936170212765959</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>2</v>
+      </c>
+      <c r="R15" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="S15" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="45">
+        <f t="shared" si="6"/>
+        <v>9.5744680851063843E-2</v>
+      </c>
+      <c r="V15" s="46">
+        <v>0</v>
+      </c>
+      <c r="W15" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>0:19</v>
+      </c>
+      <c r="X15" s="101">
+        <f>U15/R15</f>
+        <v>0.31914893617021284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="42">
+        <v>4</v>
+      </c>
+      <c r="B16" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="C16" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="45">
+        <f t="shared" si="3"/>
+        <v>4.7872340425531922E-2</v>
+      </c>
+      <c r="F16" s="46">
+        <v>0</v>
+      </c>
+      <c r="G16" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>0:7</v>
+      </c>
+      <c r="H16" s="101">
+        <f>E16/B16</f>
+        <v>0.11968085106382979</v>
+      </c>
+      <c r="I16" s="42">
+        <v>4</v>
+      </c>
+      <c r="J16" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="K16" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="45">
+        <f>$F$6*K16</f>
+        <v>9.5744680851063843E-2</v>
+      </c>
+      <c r="N16" s="46">
+        <v>100</v>
+      </c>
+      <c r="O16" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>0:14</v>
+      </c>
+      <c r="P16" s="101">
+        <f>M16/J16</f>
+        <v>0.23936170212765959</v>
+      </c>
+      <c r="Q16" s="42">
+        <v>3</v>
+      </c>
+      <c r="R16" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="S16" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" s="45">
+        <f t="shared" si="6"/>
+        <v>4.7872340425531922E-2</v>
+      </c>
+      <c r="V16" s="46">
+        <v>100</v>
+      </c>
+      <c r="W16" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>0:7</v>
+      </c>
+      <c r="X16" s="101">
+        <f>U16/R16</f>
+        <v>0.11968085106382979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="42">
+        <v>5</v>
+      </c>
+      <c r="B17" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="45">
+        <f>$M$6*C17</f>
+        <v>0.40691489361702138</v>
+      </c>
+      <c r="F17" s="46">
+        <v>0</v>
+      </c>
+      <c r="G17" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>0:48</v>
+      </c>
+      <c r="H17" s="101">
+        <f>E17/B17</f>
+        <v>0.81382978723404276</v>
+      </c>
+      <c r="I17" s="42">
+        <v>5</v>
+      </c>
+      <c r="J17" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="K17" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="45">
+        <f>$M$6*K17</f>
+        <v>1.6276595744680855</v>
+      </c>
+      <c r="N17" s="46">
+        <v>130</v>
+      </c>
+      <c r="O17" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>2:2</v>
+      </c>
+      <c r="P17" s="101">
+        <f>M17/J17</f>
+        <v>2.0345744680851068</v>
+      </c>
+      <c r="Q17" s="42">
+        <v>4</v>
+      </c>
+      <c r="R17" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="S17" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="T17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="45">
+        <f>$M$6*S17</f>
+        <v>0.40691489361702138</v>
+      </c>
+      <c r="V17" s="46">
+        <v>120</v>
+      </c>
+      <c r="W17" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>0:40</v>
+      </c>
+      <c r="X17" s="101">
+        <f>U17/R17</f>
+        <v>0.67819148936170237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="42">
+        <v>6</v>
+      </c>
+      <c r="B18" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="C18" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="45">
+        <f t="shared" ref="E18:E20" si="7">$M$6*C18</f>
+        <v>2.8484042553191493</v>
+      </c>
+      <c r="F18" s="46">
+        <v>0</v>
+      </c>
+      <c r="G18" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>3:9</v>
+      </c>
+      <c r="H18" s="101">
+        <f>E18/B18</f>
+        <v>3.1648936170212769</v>
+      </c>
+      <c r="I18" s="42">
+        <v>6</v>
+      </c>
+      <c r="J18" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="K18" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="45">
+        <f>$M$6*K18</f>
+        <v>1.6276595744680855</v>
+      </c>
+      <c r="N18" s="46">
+        <v>155</v>
+      </c>
+      <c r="O18" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>2:42</v>
+      </c>
+      <c r="P18" s="101">
+        <f>M18/J18</f>
+        <v>2.7127659574468095</v>
+      </c>
+      <c r="Q18" s="42">
+        <v>5</v>
+      </c>
+      <c r="R18" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="S18" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18" s="45">
+        <f t="shared" ref="U18:U19" si="8">$M$6*S18</f>
+        <v>1.6276595744680855</v>
+      </c>
+      <c r="V18" s="46">
+        <v>130</v>
+      </c>
+      <c r="W18" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>2:2</v>
+      </c>
+      <c r="X18" s="101">
+        <f>U18/R18</f>
+        <v>2.0345744680851068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="42">
+        <v>7</v>
+      </c>
+      <c r="B19" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="45">
+        <f t="shared" si="7"/>
+        <v>0.40691489361702138</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0</v>
+      </c>
+      <c r="G19" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>0:48</v>
+      </c>
+      <c r="H19" s="101">
+        <f>E19/B19</f>
+        <v>0.81382978723404276</v>
+      </c>
+      <c r="I19" s="42">
+        <v>7</v>
+      </c>
+      <c r="J19" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="K19" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="45">
+        <f>$M$6*K19</f>
+        <v>0.40691489361702138</v>
+      </c>
+      <c r="N19" s="46">
+        <v>0</v>
+      </c>
+      <c r="O19" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>1:1</v>
+      </c>
+      <c r="P19" s="101">
+        <f>M19/J19</f>
+        <v>1.0172872340425534</v>
+      </c>
+      <c r="Q19" s="42">
+        <v>6</v>
+      </c>
+      <c r="R19" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="S19" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="T19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="45">
+        <f t="shared" si="8"/>
+        <v>2.0345744680851068</v>
+      </c>
+      <c r="V19" s="46">
+        <v>155</v>
+      </c>
+      <c r="W19" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>3:23</v>
+      </c>
+      <c r="X19" s="101">
+        <f>U19/R19</f>
+        <v>3.3909574468085113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="42">
+        <v>8</v>
+      </c>
+      <c r="B20" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="C20" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="45">
+        <f t="shared" si="7"/>
+        <v>0.40691489361702138</v>
+      </c>
+      <c r="F20" s="46">
+        <v>0</v>
+      </c>
+      <c r="G20" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>1:1</v>
+      </c>
+      <c r="H20" s="101">
+        <f>E20/B20</f>
+        <v>1.0172872340425534</v>
+      </c>
+      <c r="I20" s="42">
+        <v>8</v>
+      </c>
+      <c r="J20" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="K20" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="45">
+        <f>$M$6*K20</f>
+        <v>0.40691489361702138</v>
+      </c>
+      <c r="N20" s="46">
+        <v>0</v>
+      </c>
+      <c r="O20" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>1:21</v>
+      </c>
+      <c r="P20" s="101">
+        <f>M20/J20</f>
+        <v>1.3563829787234047</v>
+      </c>
+      <c r="Q20" s="42">
+        <v>7</v>
+      </c>
+      <c r="R20" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="S20" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="T20" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="45">
+        <f>$I$6*S20</f>
+        <v>9.5744680851063843E-2</v>
+      </c>
+      <c r="V20" s="46">
+        <v>120</v>
+      </c>
+      <c r="W20" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>0:14</v>
+      </c>
+      <c r="X20" s="101">
+        <f>U20/R20</f>
+        <v>0.23936170212765959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="42">
+        <v>9</v>
+      </c>
+      <c r="B21" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="C21" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="45">
+        <f>$I$6*C21</f>
+        <v>4.7872340425531922E-2</v>
+      </c>
+      <c r="F21" s="46">
+        <v>0</v>
+      </c>
+      <c r="G21" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>0:9</v>
+      </c>
+      <c r="H21" s="101">
+        <f>E21/B21</f>
+        <v>0.15957446808510642</v>
+      </c>
+      <c r="I21" s="42">
+        <v>9</v>
+      </c>
+      <c r="J21" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="45">
+        <f>$I$6*K21</f>
+        <v>4.7872340425531922E-2</v>
+      </c>
+      <c r="N21" s="46">
+        <v>0</v>
+      </c>
+      <c r="O21" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>0:14</v>
+      </c>
+      <c r="P21" s="101">
+        <f>M21/J21</f>
+        <v>0.23936170212765959</v>
+      </c>
+      <c r="Q21" s="42">
+        <v>8</v>
+      </c>
+      <c r="R21" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="S21" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="T21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="45">
+        <f>$I$6*S21</f>
+        <v>0.23936170212765959</v>
+      </c>
+      <c r="V21" s="46">
+        <v>0</v>
+      </c>
+      <c r="W21" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>0:35</v>
+      </c>
+      <c r="X21" s="101">
+        <f>U21/R21</f>
+        <v>0.59840425531914898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="17" thickBot="1">
+      <c r="A22" s="48">
+        <v>10</v>
+      </c>
+      <c r="B22" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="52">
+        <f>$I$6*C22</f>
+        <v>4.7872340425531922E-2</v>
+      </c>
+      <c r="F22" s="46">
+        <v>0</v>
+      </c>
+      <c r="G22" s="58" t="str">
+        <f>TRUNC(H22)&amp; ":"&amp;TRUNC((H22 - TRUNC(H22)) * 60)</f>
+        <v>0:14</v>
+      </c>
+      <c r="H22" s="101">
+        <f>E22/B22</f>
+        <v>0.23936170212765959</v>
+      </c>
+      <c r="I22" s="48">
+        <v>10</v>
+      </c>
+      <c r="J22" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="52">
+        <f>$I$6*K22</f>
+        <v>4.7872340425531922E-2</v>
+      </c>
+      <c r="N22" s="46">
+        <v>0</v>
+      </c>
+      <c r="O22" s="58" t="str">
+        <f>TRUNC(P22)&amp; ":"&amp;TRUNC((P22 - TRUNC(P22)) * 60)</f>
+        <v>0:28</v>
+      </c>
+      <c r="P22" s="101">
+        <f>M22/J22</f>
+        <v>0.47872340425531917</v>
+      </c>
+      <c r="Q22" s="42">
+        <v>9</v>
+      </c>
+      <c r="R22" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="S22" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="T22" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="45">
+        <f>$I$6*S22</f>
+        <v>0.14361702127659576</v>
+      </c>
+      <c r="V22" s="46">
+        <v>0</v>
+      </c>
+      <c r="W22" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>0:21</v>
+      </c>
+      <c r="X22" s="101">
+        <f>U22/R22</f>
+        <v>0.35904255319148937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="17" thickBot="1">
+      <c r="E23" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="58">
-        <v>120</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="40"/>
-    </row>
-    <row r="9" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="B9" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="40"/>
-    </row>
-    <row r="10" spans="1:24" ht="17" customHeight="1">
-      <c r="A10" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="62"/>
-      <c r="I10" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="99"/>
-      <c r="M10" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="43"/>
-      <c r="Q10" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="T10" s="99"/>
-      <c r="U10" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="V10" s="92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="102"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="62"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="43"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="93"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="44">
-        <v>1</v>
-      </c>
-      <c r="B12" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="46">
-        <v>0.7</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="47">
-        <f>$F$6*C12</f>
-        <v>0.39154838709677414</v>
-      </c>
-      <c r="F12" s="48">
-        <v>166</v>
-      </c>
-      <c r="G12" s="63">
-        <f>E12/B12</f>
-        <v>3.9154838709677411</v>
-      </c>
-      <c r="I12" s="44">
-        <v>1</v>
-      </c>
-      <c r="J12" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="46">
-        <v>0.7</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="47">
-        <f>$F$6*K12</f>
-        <v>0.39154838709677414</v>
-      </c>
-      <c r="N12" s="48">
-        <v>166</v>
-      </c>
-      <c r="O12" s="63">
-        <f t="shared" ref="O12:O22" si="0">M12/J12</f>
-        <v>3.9154838709677411</v>
-      </c>
-      <c r="Q12" s="44">
-        <v>1</v>
-      </c>
-      <c r="R12" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="S12" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="T12" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="U12" s="47">
-        <f>$F$6*S12</f>
-        <v>0.44748387096774195</v>
-      </c>
-      <c r="V12" s="48">
-        <v>166</v>
-      </c>
-      <c r="W12" s="63">
-        <f>U12/R12</f>
-        <v>4.4748387096774191</v>
-      </c>
-      <c r="X12" s="59"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="44">
-        <v>2</v>
-      </c>
-      <c r="B13" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="47">
-        <f t="shared" ref="E13:E16" si="1">$F$6*C13</f>
-        <v>5.5935483870967743E-2</v>
-      </c>
-      <c r="F13" s="48">
-        <v>0</v>
-      </c>
-      <c r="G13" s="63">
-        <f t="shared" ref="G13:G22" si="2">E13/B13</f>
-        <v>0.55935483870967739</v>
-      </c>
-      <c r="I13" s="44">
-        <v>2</v>
-      </c>
-      <c r="J13" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="K13" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="47">
-        <f>$F$6*K13</f>
-        <v>5.5935483870967743E-2</v>
-      </c>
-      <c r="N13" s="48">
-        <v>0</v>
-      </c>
-      <c r="O13" s="63">
-        <f t="shared" si="0"/>
-        <v>0.55935483870967739</v>
-      </c>
-      <c r="Q13" s="44">
-        <v>2</v>
-      </c>
-      <c r="R13" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="S13" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="T13" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="U13" s="47">
-        <f t="shared" ref="U13:U15" si="3">$F$6*S13</f>
-        <v>5.5935483870967743E-2</v>
-      </c>
-      <c r="V13" s="48">
-        <v>0</v>
-      </c>
-      <c r="W13" s="63">
-        <f t="shared" ref="W13:W22" si="4">U13/R13</f>
-        <v>0.55935483870967739</v>
-      </c>
-      <c r="X13" s="59"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="44">
-        <v>3</v>
-      </c>
-      <c r="B14" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="47">
-        <f t="shared" si="1"/>
-        <v>5.5935483870967743E-2</v>
-      </c>
-      <c r="F14" s="48">
-        <v>0</v>
-      </c>
-      <c r="G14" s="63">
-        <f t="shared" si="2"/>
-        <v>0.55935483870967739</v>
-      </c>
-      <c r="I14" s="44">
-        <v>3</v>
-      </c>
-      <c r="J14" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="K14" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="47">
-        <f>$F$6*K14</f>
-        <v>5.5935483870967743E-2</v>
-      </c>
-      <c r="N14" s="48">
-        <v>0</v>
-      </c>
-      <c r="O14" s="63">
-        <f t="shared" si="0"/>
-        <v>0.55935483870967739</v>
-      </c>
-      <c r="Q14" s="44">
-        <v>3</v>
-      </c>
-      <c r="R14" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="S14" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="T14" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="U14" s="47">
-        <f t="shared" si="3"/>
-        <v>5.5935483870967743E-2</v>
-      </c>
-      <c r="V14" s="48">
-        <v>0</v>
-      </c>
-      <c r="W14" s="63">
-        <f t="shared" si="4"/>
-        <v>0.55935483870967739</v>
-      </c>
-      <c r="X14" s="59"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="44">
-        <v>4</v>
-      </c>
-      <c r="B15" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="47">
-        <f t="shared" si="1"/>
-        <v>5.5935483870967743E-2</v>
-      </c>
-      <c r="F15" s="48">
-        <v>0</v>
-      </c>
-      <c r="G15" s="63">
-        <f t="shared" si="2"/>
-        <v>0.55935483870967739</v>
-      </c>
-      <c r="I15" s="44">
-        <v>4</v>
-      </c>
-      <c r="J15" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="K15" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="47">
-        <f>$F$6*K15</f>
-        <v>5.5935483870967743E-2</v>
-      </c>
-      <c r="N15" s="48">
-        <v>0</v>
-      </c>
-      <c r="O15" s="63">
-        <f t="shared" si="0"/>
-        <v>0.55935483870967739</v>
-      </c>
-      <c r="Q15" s="44">
-        <v>4</v>
-      </c>
-      <c r="R15" s="45">
-        <f>F8</f>
-        <v>120</v>
-      </c>
-      <c r="S15" s="46">
-        <v>0</v>
-      </c>
-      <c r="T15" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="48">
-        <v>0</v>
-      </c>
-      <c r="W15" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="59"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="44">
-        <v>4</v>
-      </c>
-      <c r="B16" s="45">
-        <f>F8</f>
-        <v>120</v>
-      </c>
-      <c r="C16" s="46">
-        <v>0</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="48">
-        <v>0</v>
-      </c>
-      <c r="G16" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="44">
-        <v>4</v>
-      </c>
-      <c r="J16" s="45">
-        <f>F8</f>
-        <v>120</v>
-      </c>
-      <c r="K16" s="46">
-        <v>0</v>
-      </c>
-      <c r="L16" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="47">
-        <f>$F$6*K16</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="48">
-        <v>0</v>
-      </c>
-      <c r="O16" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="44">
-        <v>4</v>
-      </c>
-      <c r="R16" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="S16" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="T16" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="U16" s="47">
-        <f>$F$6*S16</f>
-        <v>5.5935483870967743E-2</v>
-      </c>
-      <c r="V16" s="48">
-        <v>0</v>
-      </c>
-      <c r="W16" s="63">
-        <f t="shared" si="4"/>
-        <v>0.11187096774193549</v>
-      </c>
-      <c r="X16" s="59"/>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="44">
-        <v>5</v>
-      </c>
-      <c r="B17" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="47">
-        <f>$M$6*C17</f>
-        <v>0.29832258064516126</v>
-      </c>
-      <c r="F17" s="48">
-        <v>0</v>
-      </c>
-      <c r="G17" s="63">
-        <f t="shared" si="2"/>
-        <v>0.59664516129032252</v>
-      </c>
-      <c r="I17" s="44">
-        <v>5</v>
-      </c>
-      <c r="J17" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="47">
-        <f>$M$6*K17</f>
-        <v>0.29832258064516126</v>
-      </c>
-      <c r="N17" s="48">
-        <v>0</v>
-      </c>
-      <c r="O17" s="63">
-        <f t="shared" si="0"/>
-        <v>0.59664516129032252</v>
-      </c>
-      <c r="Q17" s="44">
-        <v>5</v>
-      </c>
-      <c r="R17" s="49">
-        <v>0.9</v>
-      </c>
-      <c r="S17" s="46">
-        <v>0.7</v>
-      </c>
-      <c r="T17" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="U17" s="47">
-        <f>$M$6*S17</f>
-        <v>2.0882580645161286</v>
-      </c>
-      <c r="V17" s="48">
-        <v>0</v>
-      </c>
-      <c r="W17" s="63">
-        <f t="shared" si="4"/>
-        <v>2.3202867383512538</v>
-      </c>
-      <c r="X17" s="59"/>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="44">
-        <v>6</v>
-      </c>
-      <c r="B18" s="49">
-        <v>0.9</v>
-      </c>
-      <c r="C18" s="46">
-        <v>0.7</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="47">
-        <f t="shared" ref="E18:E20" si="5">$M$6*C18</f>
-        <v>2.0882580645161286</v>
-      </c>
-      <c r="F18" s="48">
-        <v>0</v>
-      </c>
-      <c r="G18" s="63">
-        <f t="shared" si="2"/>
-        <v>2.3202867383512538</v>
-      </c>
-      <c r="I18" s="44">
-        <v>6</v>
-      </c>
-      <c r="J18" s="49">
-        <v>0.9</v>
-      </c>
-      <c r="K18" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="47">
-        <f>$M$6*K18</f>
-        <v>1.4916129032258063</v>
-      </c>
-      <c r="N18" s="48">
-        <v>0</v>
-      </c>
-      <c r="O18" s="63">
-        <f t="shared" si="0"/>
-        <v>1.6573476702508958</v>
-      </c>
-      <c r="Q18" s="44">
-        <v>6</v>
-      </c>
-      <c r="R18" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="S18" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="T18" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="U18" s="47">
-        <f t="shared" ref="U18:U19" si="6">$M$6*S18</f>
-        <v>0.29832258064516126</v>
-      </c>
-      <c r="V18" s="48">
-        <v>0</v>
-      </c>
-      <c r="W18" s="63">
-        <f t="shared" si="4"/>
-        <v>0.59664516129032252</v>
-      </c>
-      <c r="X18" s="59"/>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="44">
-        <v>7</v>
-      </c>
-      <c r="B19" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="47">
-        <f t="shared" si="5"/>
-        <v>0.29832258064516126</v>
-      </c>
-      <c r="F19" s="48">
-        <v>0</v>
-      </c>
-      <c r="G19" s="63">
-        <f t="shared" si="2"/>
-        <v>0.59664516129032252</v>
-      </c>
-      <c r="I19" s="44">
-        <v>7</v>
-      </c>
-      <c r="J19" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="46">
-        <v>0.3</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="47">
-        <f>$M$6*K19</f>
-        <v>0.89496774193548378</v>
-      </c>
-      <c r="N19" s="48">
-        <v>0</v>
-      </c>
-      <c r="O19" s="63">
-        <f t="shared" si="0"/>
-        <v>1.7899354838709676</v>
-      </c>
-      <c r="Q19" s="44">
-        <v>7</v>
-      </c>
-      <c r="R19" s="49">
-        <v>0.3</v>
-      </c>
-      <c r="S19" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="T19" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="U19" s="47">
-        <f t="shared" si="6"/>
-        <v>0.29832258064516126</v>
-      </c>
-      <c r="V19" s="48">
-        <v>0</v>
-      </c>
-      <c r="W19" s="63">
-        <f t="shared" si="4"/>
-        <v>0.99440860215053761</v>
-      </c>
-      <c r="X19" s="59"/>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="44">
-        <v>8</v>
-      </c>
-      <c r="B20" s="49">
-        <v>0.3</v>
-      </c>
-      <c r="C20" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="47">
-        <f t="shared" si="5"/>
-        <v>0.29832258064516126</v>
-      </c>
-      <c r="F20" s="48">
-        <v>0</v>
-      </c>
-      <c r="G20" s="63">
-        <f t="shared" si="2"/>
-        <v>0.99440860215053761</v>
-      </c>
-      <c r="I20" s="44">
-        <v>8</v>
-      </c>
-      <c r="J20" s="49">
-        <v>0.3</v>
-      </c>
-      <c r="K20" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="47">
-        <f>$M$6*K20</f>
-        <v>0.29832258064516126</v>
-      </c>
-      <c r="N20" s="48">
-        <v>0</v>
-      </c>
-      <c r="O20" s="63">
-        <f t="shared" si="0"/>
-        <v>0.99440860215053761</v>
-      </c>
-      <c r="Q20" s="44">
-        <v>8</v>
-      </c>
-      <c r="R20" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="S20" s="46">
-        <v>0.2</v>
-      </c>
-      <c r="T20" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="U20" s="47">
-        <f>$I$6*S20</f>
-        <v>7.4580645161290315E-2</v>
-      </c>
-      <c r="V20" s="48">
-        <v>0</v>
-      </c>
-      <c r="W20" s="63">
-        <f t="shared" si="4"/>
-        <v>0.37290322580645158</v>
-      </c>
-      <c r="X20" s="59"/>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="44">
-        <v>9</v>
-      </c>
-      <c r="B21" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="47">
-        <f>$I$6*C21</f>
-        <v>3.7290322580645158E-2</v>
-      </c>
-      <c r="F21" s="48">
-        <v>0</v>
-      </c>
-      <c r="G21" s="63">
-        <f t="shared" si="2"/>
-        <v>0.18645161290322579</v>
-      </c>
-      <c r="I21" s="44">
-        <v>9</v>
-      </c>
-      <c r="J21" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="K21" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="47">
-        <f>$I$6*K21</f>
-        <v>3.7290322580645158E-2</v>
-      </c>
-      <c r="N21" s="48">
-        <v>0</v>
-      </c>
-      <c r="O21" s="63">
-        <f t="shared" si="0"/>
-        <v>0.18645161290322579</v>
-      </c>
-      <c r="Q21" s="44">
-        <v>9</v>
-      </c>
-      <c r="R21" s="49">
-        <v>2</v>
-      </c>
-      <c r="S21" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="T21" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" s="47">
-        <f>$I$6*S21</f>
-        <v>0.14916129032258063</v>
-      </c>
-      <c r="V21" s="48">
-        <v>0</v>
-      </c>
-      <c r="W21" s="63">
-        <f t="shared" si="4"/>
-        <v>7.4580645161290315E-2</v>
-      </c>
-      <c r="X21" s="59"/>
-    </row>
-    <row r="22" spans="1:24" ht="17" thickBot="1">
-      <c r="A22" s="50">
-        <v>10</v>
-      </c>
-      <c r="B22" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="54">
-        <f>$I$6*C22</f>
-        <v>3.7290322580645158E-2</v>
-      </c>
-      <c r="F22" s="48">
-        <v>0</v>
-      </c>
-      <c r="G22" s="63">
-        <f t="shared" si="2"/>
-        <v>0.37290322580645158</v>
-      </c>
-      <c r="I22" s="50">
-        <v>10</v>
-      </c>
-      <c r="J22" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="L22" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="54">
-        <f>$I$6*K22</f>
-        <v>3.7290322580645158E-2</v>
-      </c>
-      <c r="N22" s="48">
-        <v>0</v>
-      </c>
-      <c r="O22" s="63">
-        <f t="shared" si="0"/>
-        <v>0.37290322580645158</v>
-      </c>
-      <c r="Q22" s="50">
-        <v>10</v>
-      </c>
-      <c r="R22" s="51">
-        <v>2</v>
-      </c>
-      <c r="S22" s="52">
-        <v>0.4</v>
-      </c>
-      <c r="T22" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="U22" s="54">
-        <f>$I$6*S22</f>
-        <v>0.14916129032258063</v>
-      </c>
-      <c r="V22" s="48">
-        <v>0</v>
-      </c>
-      <c r="W22" s="63">
-        <f t="shared" si="4"/>
-        <v>7.4580645161290315E-2</v>
-      </c>
-      <c r="X22" s="59"/>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="E23" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="84"/>
-      <c r="G23" s="61" t="str">
+      <c r="F23" s="93"/>
+      <c r="G23" s="58" t="str">
         <f>TRUNC(H23)&amp; ":"&amp;TRUNC((H23 - TRUNC(H23)) * 60)</f>
         <v>10:39</v>
       </c>
-      <c r="H23" s="60">
-        <f>SUM(G12:G22)</f>
-        <v>10.660888888888886</v>
-      </c>
-      <c r="K23" s="55"/>
-      <c r="M23" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="84"/>
-      <c r="O23" s="61" t="str">
+      <c r="H23" s="57">
+        <f>SUM(H12:H22)</f>
+        <v>10.659764437689972</v>
+      </c>
+      <c r="K23" s="53"/>
+      <c r="M23" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="93"/>
+      <c r="O23" s="58" t="str">
         <f>TRUNC(P23)&amp; ":"&amp;TRUNC((P23 - TRUNC(P23)) * 60)</f>
-        <v>11:11</v>
-      </c>
-      <c r="P23" s="60">
-        <f>SUM(O12:O22)</f>
-        <v>11.191240143369175</v>
-      </c>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="U23" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="V23" s="84"/>
-      <c r="W23" s="61" t="str">
+        <v>10:51</v>
+      </c>
+      <c r="P23" s="57">
+        <f>SUM(P12:P22)</f>
+        <v>10.859612462006082</v>
+      </c>
+      <c r="Q23" s="109">
+        <v>10</v>
+      </c>
+      <c r="R23" s="110">
+        <v>2</v>
+      </c>
+      <c r="S23" s="111">
+        <v>0.5</v>
+      </c>
+      <c r="T23" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="113">
+        <f>$I$6*S23</f>
+        <v>0.23936170212765959</v>
+      </c>
+      <c r="V23" s="46">
+        <v>0</v>
+      </c>
+      <c r="W23" s="58" t="str">
         <f>TRUNC(X23)&amp; ":"&amp;TRUNC((X23 - TRUNC(X23)) * 60)</f>
-        <v>10:8</v>
-      </c>
-      <c r="X23" s="60">
-        <f>SUM(W12:W22)</f>
-        <v>10.138824372759856</v>
+        <v>0:7</v>
+      </c>
+      <c r="X23" s="101">
+        <f>U23/R23</f>
+        <v>0.11968085106382979</v>
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="U24" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="93"/>
+      <c r="W24" s="58" t="str">
+        <f>TRUNC(X25)&amp; ":"&amp;TRUNC((X25 - TRUNC(X25)) * 60)</f>
+        <v>11:4</v>
+      </c>
+      <c r="X24" s="102"/>
     </row>
     <row r="25" spans="1:24">
-      <c r="E25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="S25" s="57"/>
+      <c r="E25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="X25" s="57">
+        <f>SUM(X12:X23)</f>
+        <v>11.073328267477205</v>
+      </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="I26" s="86" t="s">
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="I26" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="P26" s="87" t="s">
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="S26" s="55"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="B27" s="80" t="str">
+        <f>SUBSTITUTE(D12 &amp; ";"&amp;ROUND(E12,3)* 1000&amp; ";"&amp;B12&amp; ";" &amp;A12&amp;";0;"&amp;F12,",",".")</f>
+        <v>H;191;0.07;1;0;166</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="I27" s="83" t="str">
+        <f>SUBSTITUTE(L12 &amp; ";"&amp;ROUND(M12,3)* 1000&amp; ";"&amp;J12&amp; ";" &amp;I12&amp;";0;"&amp;N12,",",".")</f>
+        <v>H;120;0.07;1;0;85</v>
+      </c>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="Q27" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="57"/>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="B27" s="88" t="str">
-        <f>SUBSTITUTE(D12 &amp; ";"&amp;ROUND(E12,3)* 1000&amp; ";"&amp;B12&amp; ";" &amp;A12&amp;";0;"&amp;F12,",",".")</f>
-        <v>H;392;0.1;1;0;166</v>
-      </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="I27" s="85" t="str">
-        <f t="shared" ref="I27:I37" si="7">SUBSTITUTE(L12 &amp; ";"&amp;ROUND(M12,3)* 1000&amp; ";"&amp;J12&amp; ";" &amp;I12&amp;";0;"&amp;N12,",",".")</f>
-        <v>H;392;0.1;1;0;166</v>
-      </c>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="P27" s="85" t="str">
-        <f t="shared" ref="P27:P37" si="8">SUBSTITUTE(T12 &amp; ";"&amp;ROUND(U12,3)* 1000&amp; ";"&amp;R12&amp; ";" &amp;Q12&amp;";0;"&amp;V12,",",".")</f>
-        <v>H;447;0.1;1;0;166</v>
-      </c>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="57"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="105"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="B28" s="88" t="str">
+      <c r="B28" s="80" t="str">
         <f t="shared" ref="B28:B37" si="9">SUBSTITUTE(D13 &amp; ";"&amp;ROUND(E13,3)* 1000&amp; ";"&amp;B13&amp; ";" &amp;A13&amp;";0;"&amp;F13,",",".")</f>
-        <v>H;56;0.1;2;0;0</v>
-      </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="I28" s="85" t="str">
-        <f t="shared" si="7"/>
-        <v>H;56;0.1;2;0;0</v>
-      </c>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="P28" s="85" t="str">
-        <f t="shared" si="8"/>
-        <v>H;56;0.1;2;0;0</v>
-      </c>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
+        <v>H;96;0.1;1;0;0</v>
+      </c>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="I28" s="83" t="str">
+        <f t="shared" ref="I28:I37" si="10">SUBSTITUTE(L13 &amp; ";"&amp;ROUND(M13,3)* 1000&amp; ";"&amp;J13&amp; ";" &amp;I13&amp;";0;"&amp;N13,",",".")</f>
+        <v>H;72;0.14;1;0;0</v>
+      </c>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="Q28" s="106" t="str">
+        <f>SUBSTITUTE(T12 &amp; ";"&amp;ROUND(U12,3)* 1000&amp; ";"&amp;R12&amp; ";" &amp;Q12&amp;";0;"&amp;V12,",",".")</f>
+        <v>H;144;0.07;0;0;85</v>
+      </c>
+      <c r="R28" s="107"/>
+      <c r="S28" s="108"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="B29" s="88" t="str">
+      <c r="B29" s="80" t="str">
         <f t="shared" si="9"/>
-        <v>H;56;0.1;3;0;0</v>
-      </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
-      <c r="I29" s="85" t="str">
-        <f t="shared" si="7"/>
-        <v>H;56;0.1;3;0;0</v>
-      </c>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="P29" s="85" t="str">
-        <f t="shared" si="8"/>
-        <v>H;56;0.1;3;0;0</v>
-      </c>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
+        <v>H;96;0.2;2;0;0</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="I29" s="83" t="str">
+        <f t="shared" si="10"/>
+        <v>H;96;0.3;2;0;0</v>
+      </c>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="Q29" s="106" t="str">
+        <f>SUBSTITUTE(T13 &amp; ";"&amp;ROUND(U13,3)* 1000&amp; ";"&amp;R13&amp; ";" &amp;Q13&amp;";0;"&amp;V13,",",".")</f>
+        <v>H;96;0.14;0;0;0</v>
+      </c>
+      <c r="R29" s="107"/>
+      <c r="S29" s="108"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="B30" s="88" t="str">
+      <c r="B30" s="80" t="str">
         <f t="shared" si="9"/>
-        <v>H;56;0.1;4;0;0</v>
-      </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="I30" s="85" t="str">
-        <f t="shared" si="7"/>
-        <v>H;56;0.1;4;0;0</v>
-      </c>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="P30" s="85" t="str">
-        <f t="shared" si="8"/>
-        <v>P;0;120;4;0;0</v>
-      </c>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
+        <v>H;48;0.3;3;0;0</v>
+      </c>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="I30" s="83" t="str">
+        <f t="shared" si="10"/>
+        <v>H;96;0.4;3;0;0</v>
+      </c>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="Q30" s="106" t="str">
+        <f>SUBSTITUTE(T14 &amp; ";"&amp;ROUND(U14,3)* 1000&amp; ";"&amp;R14&amp; ";" &amp;Q14&amp;";0;"&amp;V14,",",".")</f>
+        <v>H;96;0.2;1;0;0</v>
+      </c>
+      <c r="R30" s="107"/>
+      <c r="S30" s="108"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="B31" s="88" t="str">
+      <c r="B31" s="80" t="str">
         <f t="shared" si="9"/>
-        <v>P;0;120;4;0;0</v>
-      </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
-      <c r="I31" s="85" t="str">
-        <f t="shared" si="7"/>
-        <v>P;0;120;4;0;0</v>
-      </c>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="P31" s="85" t="str">
-        <f t="shared" si="8"/>
-        <v>B;56;0.5;4;0;0</v>
-      </c>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
+        <v>H;48;0.4;4;0;0</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="I31" s="83" t="str">
+        <f t="shared" si="10"/>
+        <v>H;96;0.4;4;0;100</v>
+      </c>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="Q31" s="106" t="str">
+        <f>SUBSTITUTE(T15 &amp; ";"&amp;ROUND(U15,3)* 1000&amp; ";"&amp;R15&amp; ";" &amp;Q15&amp;";0;"&amp;V15,",",".")</f>
+        <v>H;96;0.3;2;0;0</v>
+      </c>
+      <c r="R31" s="107"/>
+      <c r="S31" s="108"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="B32" s="88" t="str">
+      <c r="B32" s="80" t="str">
         <f t="shared" si="9"/>
-        <v>B;298;0.5;5;0;0</v>
-      </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="I32" s="85" t="str">
-        <f t="shared" si="7"/>
-        <v>B;298;0.5;5;0;0</v>
-      </c>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="P32" s="85" t="str">
-        <f t="shared" si="8"/>
-        <v>B;2088;0.9;5;0;0</v>
-      </c>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-    </row>
-    <row r="33" spans="2:18">
-      <c r="B33" s="88" t="str">
+        <v>B;407;0.5;5;0;0</v>
+      </c>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="I32" s="83" t="str">
+        <f t="shared" si="10"/>
+        <v>B;1628;0.8;5;0;130</v>
+      </c>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="Q32" s="106" t="str">
+        <f>SUBSTITUTE(T16 &amp; ";"&amp;ROUND(U16,3)* 1000&amp; ";"&amp;R16&amp; ";" &amp;Q16&amp;";0;"&amp;V16,",",".")</f>
+        <v>H;48;0.4;3;0;100</v>
+      </c>
+      <c r="R32" s="107"/>
+      <c r="S32" s="108"/>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="80" t="str">
         <f t="shared" si="9"/>
-        <v>B;2088;0.9;6;0;0</v>
-      </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
-      <c r="I33" s="85" t="str">
-        <f t="shared" si="7"/>
-        <v>B;1492;0.9;6;0;0</v>
-      </c>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="P33" s="85" t="str">
-        <f t="shared" si="8"/>
-        <v>B;298;0.5;6;0;0</v>
-      </c>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-    </row>
-    <row r="34" spans="2:18">
-      <c r="B34" s="88" t="str">
+        <v>B;2848;0.9;6;0;0</v>
+      </c>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="I33" s="83" t="str">
+        <f t="shared" si="10"/>
+        <v>B;1628;0.6;6;0;155</v>
+      </c>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="Q33" s="106" t="str">
+        <f>SUBSTITUTE(T17 &amp; ";"&amp;ROUND(U17,3)* 1000&amp; ";"&amp;R17&amp; ";" &amp;Q17&amp;";0;"&amp;V17,",",".")</f>
+        <v>B;407;0.6;4;0;120</v>
+      </c>
+      <c r="R33" s="107"/>
+      <c r="S33" s="108"/>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="80" t="str">
         <f t="shared" si="9"/>
-        <v>B;298;0.5;7;0;0</v>
-      </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="I34" s="85" t="str">
-        <f t="shared" si="7"/>
-        <v>B;895;0.5;7;0;0</v>
-      </c>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="P34" s="85" t="str">
-        <f t="shared" si="8"/>
-        <v>B;298;0.3;7;0;0</v>
-      </c>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-    </row>
-    <row r="35" spans="2:18">
-      <c r="B35" s="88" t="str">
+        <v>B;407;0.5;7;0;0</v>
+      </c>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="I34" s="83" t="str">
+        <f t="shared" si="10"/>
+        <v>B;407;0.4;7;0;0</v>
+      </c>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="Q34" s="106" t="str">
+        <f>SUBSTITUTE(T18 &amp; ";"&amp;ROUND(U18,3)* 1000&amp; ";"&amp;R18&amp; ";" &amp;Q18&amp;";0;"&amp;V18,",",".")</f>
+        <v>B;1628;0.8;5;0;130</v>
+      </c>
+      <c r="R34" s="107"/>
+      <c r="S34" s="108"/>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35" s="80" t="str">
         <f t="shared" si="9"/>
-        <v>B;298;0.3;8;0;0</v>
-      </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="90"/>
-      <c r="I35" s="85" t="str">
-        <f t="shared" si="7"/>
-        <v>B;298;0.3;8;0;0</v>
-      </c>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="P35" s="85" t="str">
-        <f t="shared" si="8"/>
-        <v>T;75;0.2;8;0;0</v>
-      </c>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-    </row>
-    <row r="36" spans="2:18">
-      <c r="B36" s="88" t="str">
+        <v>B;407;0.4;8;0;0</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="I35" s="83" t="str">
+        <f t="shared" si="10"/>
+        <v>B;407;0.3;8;0;0</v>
+      </c>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="Q35" s="106" t="str">
+        <f>SUBSTITUTE(T19 &amp; ";"&amp;ROUND(U19,3)* 1000&amp; ";"&amp;R19&amp; ";" &amp;Q19&amp;";0;"&amp;V19,",",".")</f>
+        <v>B;2035;0.6;6;0;155</v>
+      </c>
+      <c r="R35" s="107"/>
+      <c r="S35" s="108"/>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="B36" s="80" t="str">
         <f t="shared" si="9"/>
-        <v>T;37;0.2;9;0;0</v>
-      </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90"/>
-      <c r="I36" s="85" t="str">
-        <f t="shared" si="7"/>
-        <v>T;37;0.2;9;0;0</v>
-      </c>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="P36" s="85" t="str">
-        <f t="shared" si="8"/>
-        <v>T;149;2;9;0;0</v>
-      </c>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-    </row>
-    <row r="37" spans="2:18">
-      <c r="B37" s="88" t="str">
+        <v>T;48;0.3;9;0;0</v>
+      </c>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="I36" s="83" t="str">
+        <f t="shared" si="10"/>
+        <v>T;48;0.2;9;0;0</v>
+      </c>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="Q36" s="106" t="str">
+        <f>SUBSTITUTE(T20 &amp; ";"&amp;ROUND(U20,3)* 1000&amp; ";"&amp;R20&amp; ";" &amp;Q20&amp;";0;"&amp;V20,",",".")</f>
+        <v>T;96;0.4;7;0;120</v>
+      </c>
+      <c r="R36" s="107"/>
+      <c r="S36" s="108"/>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37" s="80" t="str">
         <f t="shared" si="9"/>
-        <v>T;37;0.1;10;0;0</v>
-      </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
-      <c r="I37" s="85" t="str">
-        <f t="shared" si="7"/>
-        <v>T;37;0.1;10;0;0</v>
-      </c>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="P37" s="85" t="str">
-        <f t="shared" si="8"/>
-        <v>T;149;2;10;0;0</v>
-      </c>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="85"/>
-    </row>
-    <row r="38" spans="2:18">
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
+        <v>T;48;0.2;10;0;0</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
+      <c r="I37" s="83" t="str">
+        <f t="shared" si="10"/>
+        <v>T;48;0.1;10;0;0</v>
+      </c>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="Q37" s="106" t="str">
+        <f>SUBSTITUTE(T21 &amp; ";"&amp;ROUND(U21,3)* 1000&amp; ";"&amp;R21&amp; ";" &amp;Q21&amp;";0;"&amp;V21,",",".")</f>
+        <v>T;239;0.4;8;0;0</v>
+      </c>
+      <c r="R37" s="107"/>
+      <c r="S37" s="108"/>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="Q38" s="106" t="str">
+        <f>SUBSTITUTE(T23 &amp; ";"&amp;ROUND(U23,3)* 1000&amp; ";"&amp;R23&amp; ";" &amp;Q23&amp;";0;"&amp;V23,",",".")</f>
+        <v>T;239;2;10;0;0</v>
+      </c>
+      <c r="R38" s="107"/>
+      <c r="S38" s="108"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A4:B5" name="Диапазон1"/>
   </protectedRanges>
-  <mergeCells count="59">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
+  <mergeCells count="58">
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
     <mergeCell ref="V10:V11"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
@@ -4153,35 +4627,29 @@
     <mergeCell ref="U10:U11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="P26:R26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tools/Расчет АС-3.xlsx
+++ b/tools/Расчет АС-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosoj/Documents/Arduino/Samovar/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9968E6C8-2ADF-1D4F-9893-CEE7EFFB5A64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481D8A9A-E5D6-A643-AAAC-443BE518D896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет базовый" sheetId="1" r:id="rId1"/>
@@ -1135,6 +1135,43 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1203,6 +1240,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
@@ -1215,8 +1276,28 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1227,72 +1308,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1315,21 +1330,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1349,10 +1349,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1796,82 +1792,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
     </row>
     <row r="2" spans="1:20" hidden="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" hidden="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="84"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84"/>
       <c r="P4" s="31" t="s">
         <v>1</v>
       </c>
@@ -1881,21 +1877,21 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="73"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="30" t="s">
         <v>2</v>
       </c>
@@ -1905,21 +1901,21 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="76"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1949,31 +1945,31 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="17" thickBot="1">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="79"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="79"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="79"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="77" t="s">
+      <c r="N8" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="79"/>
+      <c r="O8" s="90"/>
       <c r="P8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2010,18 +2006,18 @@
         <v>0.32000000000000006</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="60">
+      <c r="K9" s="71">
         <f>I9+F9</f>
         <v>1.28</v>
       </c>
-      <c r="L9" s="61"/>
+      <c r="L9" s="72"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="62">
+      <c r="N9" s="73">
         <f>C9-K9</f>
         <v>5.12</v>
       </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="66">
+      <c r="O9" s="74"/>
+      <c r="P9" s="77">
         <f>A9-K9-N9</f>
         <v>9.6000000000000014</v>
       </c>
@@ -2044,9 +2040,9 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="67"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="78"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -3097,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C5AEE6-2B79-C248-89D2-07DF9BE2110D}">
   <dimension ref="A2:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3131,33 +3127,33 @@
   <sheetData>
     <row r="2" spans="1:24" ht="17" thickBot="1"/>
     <row r="3" spans="1:24" ht="17" thickBot="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="95" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="95" t="s">
+      <c r="F3" s="94"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99" t="s">
+      <c r="I3" s="94"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="100" t="s">
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="63" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3198,17 +3194,17 @@
         <f>C4-K4</f>
         <v>3.8250000000000002</v>
       </c>
-      <c r="Q4" s="94">
+      <c r="Q4" s="60">
         <f>(A4-K4-M4)</f>
         <v>5.4999999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
     </row>
     <row r="6" spans="1:24" ht="29" thickBot="1">
       <c r="B6" s="28">
@@ -3280,78 +3276,78 @@
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:24" ht="17" customHeight="1">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="106"/>
+      <c r="E10" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="100" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="59"/>
-      <c r="I10" s="88" t="s">
+      <c r="I10" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="84"/>
-      <c r="M10" s="86" t="s">
+      <c r="L10" s="106"/>
+      <c r="M10" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="90" t="s">
+      <c r="N10" s="100" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="41"/>
-      <c r="Q10" s="88" t="s">
+      <c r="Q10" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="84" t="s">
+      <c r="R10" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="84" t="s">
+      <c r="S10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="84"/>
-      <c r="U10" s="86" t="s">
+      <c r="T10" s="106"/>
+      <c r="U10" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="90" t="s">
+      <c r="V10" s="100" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="89"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="91"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="59"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="91"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="101"/>
       <c r="O11" s="41"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="91"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="101"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="42">
@@ -3377,8 +3373,8 @@
         <f t="shared" ref="G12:G21" si="0">TRUNC(H12)&amp; ":"&amp;TRUNC((H12 - TRUNC(H12)) * 60)</f>
         <v>2:44</v>
       </c>
-      <c r="H12" s="101">
-        <f>E12/B12</f>
+      <c r="H12" s="64">
+        <f t="shared" ref="H12:H22" si="1">E12/B12</f>
         <v>2.7355623100303954</v>
       </c>
       <c r="I12" s="42">
@@ -3398,14 +3394,14 @@
         <v>0.11968085106382979</v>
       </c>
       <c r="N12" s="46">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O12" s="58" t="str">
-        <f t="shared" ref="O12:O21" si="1">TRUNC(P12)&amp; ":"&amp;TRUNC((P12 - TRUNC(P12)) * 60)</f>
+        <f t="shared" ref="O12:O21" si="2">TRUNC(P12)&amp; ":"&amp;TRUNC((P12 - TRUNC(P12)) * 60)</f>
         <v>1:42</v>
       </c>
-      <c r="P12" s="101">
-        <f>M12/J12</f>
+      <c r="P12" s="64">
+        <f t="shared" ref="P12:P22" si="3">M12/J12</f>
         <v>1.709726443768997</v>
       </c>
       <c r="Q12" s="42">
@@ -3425,14 +3421,14 @@
         <v>0.14361702127659576</v>
       </c>
       <c r="V12" s="46">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="W12" s="58" t="str">
-        <f t="shared" ref="W12:W22" si="2">TRUNC(X12)&amp; ":"&amp;TRUNC((X12 - TRUNC(X12)) * 60)</f>
+        <f t="shared" ref="W12:W22" si="4">TRUNC(X12)&amp; ":"&amp;TRUNC((X12 - TRUNC(X12)) * 60)</f>
         <v>2:3</v>
       </c>
-      <c r="X12" s="101">
-        <f>U12/R12</f>
+      <c r="X12" s="64">
+        <f t="shared" ref="X12:X23" si="5">U12/R12</f>
         <v>2.0516717325227964</v>
       </c>
     </row>
@@ -3450,7 +3446,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="45">
-        <f t="shared" ref="E13:E16" si="3">$F$6*C13</f>
+        <f t="shared" ref="E13:E16" si="6">$F$6*C13</f>
         <v>9.5744680851063843E-2</v>
       </c>
       <c r="F13" s="46">
@@ -3460,8 +3456,8 @@
         <f t="shared" si="0"/>
         <v>0:57</v>
       </c>
-      <c r="H13" s="101">
-        <f>E13/B13</f>
+      <c r="H13" s="64">
+        <f t="shared" si="1"/>
         <v>0.95744680851063835</v>
       </c>
       <c r="I13" s="42">
@@ -3477,18 +3473,18 @@
         <v>17</v>
       </c>
       <c r="M13" s="45">
-        <f t="shared" ref="M13" si="4">$F$6*K13</f>
+        <f t="shared" ref="M13" si="7">$F$6*K13</f>
         <v>7.1808510638297879E-2</v>
       </c>
       <c r="N13" s="46">
         <v>0</v>
       </c>
       <c r="O13" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0:30</v>
       </c>
-      <c r="P13" s="101">
-        <f>M13/J13</f>
+      <c r="P13" s="64">
+        <f t="shared" si="3"/>
         <v>0.51291793313069911</v>
       </c>
       <c r="Q13" s="42">
@@ -3504,18 +3500,18 @@
         <v>17</v>
       </c>
       <c r="U13" s="45">
-        <f t="shared" ref="U13" si="5">$F$6*S13</f>
+        <f t="shared" ref="U13" si="8">$F$6*S13</f>
         <v>9.5744680851063843E-2</v>
       </c>
       <c r="V13" s="46">
         <v>0</v>
       </c>
       <c r="W13" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0:41</v>
       </c>
-      <c r="X13" s="101">
-        <f>U13/R13</f>
+      <c r="X13" s="64">
+        <f t="shared" si="5"/>
         <v>0.68389057750759885</v>
       </c>
     </row>
@@ -3533,7 +3529,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.5744680851063843E-2</v>
       </c>
       <c r="F14" s="46">
@@ -3543,8 +3539,8 @@
         <f t="shared" si="0"/>
         <v>0:28</v>
       </c>
-      <c r="H14" s="101">
-        <f>E14/B14</f>
+      <c r="H14" s="64">
+        <f t="shared" si="1"/>
         <v>0.47872340425531917</v>
       </c>
       <c r="I14" s="42">
@@ -3567,11 +3563,11 @@
         <v>0</v>
       </c>
       <c r="O14" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0:19</v>
       </c>
-      <c r="P14" s="101">
-        <f>M14/J14</f>
+      <c r="P14" s="64">
+        <f t="shared" si="3"/>
         <v>0.31914893617021284</v>
       </c>
       <c r="Q14" s="42">
@@ -3587,18 +3583,18 @@
         <v>17</v>
       </c>
       <c r="U14" s="45">
-        <f t="shared" ref="U14:U16" si="6">$F$6*S14</f>
+        <f t="shared" ref="U14:U16" si="9">$F$6*S14</f>
         <v>9.5744680851063843E-2</v>
       </c>
       <c r="V14" s="46">
         <v>0</v>
       </c>
       <c r="W14" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0:28</v>
       </c>
-      <c r="X14" s="101">
-        <f>U14/R14</f>
+      <c r="X14" s="64">
+        <f t="shared" si="5"/>
         <v>0.47872340425531917</v>
       </c>
     </row>
@@ -3616,7 +3612,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.7872340425531922E-2</v>
       </c>
       <c r="F15" s="46">
@@ -3626,8 +3622,8 @@
         <f t="shared" si="0"/>
         <v>0:9</v>
       </c>
-      <c r="H15" s="101">
-        <f>E15/B15</f>
+      <c r="H15" s="64">
+        <f t="shared" si="1"/>
         <v>0.15957446808510642</v>
       </c>
       <c r="I15" s="42">
@@ -3650,11 +3646,11 @@
         <v>0</v>
       </c>
       <c r="O15" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0:14</v>
       </c>
-      <c r="P15" s="101">
-        <f>M15/J15</f>
+      <c r="P15" s="64">
+        <f t="shared" si="3"/>
         <v>0.23936170212765959</v>
       </c>
       <c r="Q15" s="42">
@@ -3670,18 +3666,18 @@
         <v>17</v>
       </c>
       <c r="U15" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.5744680851063843E-2</v>
       </c>
       <c r="V15" s="46">
         <v>0</v>
       </c>
       <c r="W15" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0:19</v>
       </c>
-      <c r="X15" s="101">
-        <f>U15/R15</f>
+      <c r="X15" s="64">
+        <f t="shared" si="5"/>
         <v>0.31914893617021284</v>
       </c>
     </row>
@@ -3699,7 +3695,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.7872340425531922E-2</v>
       </c>
       <c r="F16" s="46">
@@ -3709,8 +3705,8 @@
         <f t="shared" si="0"/>
         <v>0:7</v>
       </c>
-      <c r="H16" s="101">
-        <f>E16/B16</f>
+      <c r="H16" s="64">
+        <f t="shared" si="1"/>
         <v>0.11968085106382979</v>
       </c>
       <c r="I16" s="42">
@@ -3733,11 +3729,11 @@
         <v>100</v>
       </c>
       <c r="O16" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0:14</v>
       </c>
-      <c r="P16" s="101">
-        <f>M16/J16</f>
+      <c r="P16" s="64">
+        <f t="shared" si="3"/>
         <v>0.23936170212765959</v>
       </c>
       <c r="Q16" s="42">
@@ -3753,18 +3749,18 @@
         <v>17</v>
       </c>
       <c r="U16" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.7872340425531922E-2</v>
       </c>
       <c r="V16" s="46">
         <v>100</v>
       </c>
       <c r="W16" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0:7</v>
       </c>
-      <c r="X16" s="101">
-        <f>U16/R16</f>
+      <c r="X16" s="64">
+        <f t="shared" si="5"/>
         <v>0.11968085106382979</v>
       </c>
     </row>
@@ -3792,8 +3788,8 @@
         <f t="shared" si="0"/>
         <v>0:48</v>
       </c>
-      <c r="H17" s="101">
-        <f>E17/B17</f>
+      <c r="H17" s="64">
+        <f t="shared" si="1"/>
         <v>0.81382978723404276</v>
       </c>
       <c r="I17" s="42">
@@ -3813,14 +3809,14 @@
         <v>1.6276595744680855</v>
       </c>
       <c r="N17" s="46">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="O17" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2:2</v>
       </c>
-      <c r="P17" s="101">
-        <f>M17/J17</f>
+      <c r="P17" s="64">
+        <f t="shared" si="3"/>
         <v>2.0345744680851068</v>
       </c>
       <c r="Q17" s="42">
@@ -3843,11 +3839,11 @@
         <v>120</v>
       </c>
       <c r="W17" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0:40</v>
       </c>
-      <c r="X17" s="101">
-        <f>U17/R17</f>
+      <c r="X17" s="64">
+        <f t="shared" si="5"/>
         <v>0.67819148936170237</v>
       </c>
     </row>
@@ -3865,7 +3861,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="45">
-        <f t="shared" ref="E18:E20" si="7">$M$6*C18</f>
+        <f t="shared" ref="E18:E20" si="10">$M$6*C18</f>
         <v>2.8484042553191493</v>
       </c>
       <c r="F18" s="46">
@@ -3875,8 +3871,8 @@
         <f t="shared" si="0"/>
         <v>3:9</v>
       </c>
-      <c r="H18" s="101">
-        <f>E18/B18</f>
+      <c r="H18" s="64">
+        <f t="shared" si="1"/>
         <v>3.1648936170212769</v>
       </c>
       <c r="I18" s="42">
@@ -3896,14 +3892,14 @@
         <v>1.6276595744680855</v>
       </c>
       <c r="N18" s="46">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O18" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2:42</v>
       </c>
-      <c r="P18" s="101">
-        <f>M18/J18</f>
+      <c r="P18" s="64">
+        <f t="shared" si="3"/>
         <v>2.7127659574468095</v>
       </c>
       <c r="Q18" s="42">
@@ -3919,18 +3915,18 @@
         <v>18</v>
       </c>
       <c r="U18" s="45">
-        <f t="shared" ref="U18:U19" si="8">$M$6*S18</f>
+        <f t="shared" ref="U18:U19" si="11">$M$6*S18</f>
         <v>1.6276595744680855</v>
       </c>
       <c r="V18" s="46">
         <v>130</v>
       </c>
       <c r="W18" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2:2</v>
       </c>
-      <c r="X18" s="101">
-        <f>U18/R18</f>
+      <c r="X18" s="64">
+        <f t="shared" si="5"/>
         <v>2.0345744680851068</v>
       </c>
     </row>
@@ -3948,7 +3944,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.40691489361702138</v>
       </c>
       <c r="F19" s="46">
@@ -3958,8 +3954,8 @@
         <f t="shared" si="0"/>
         <v>0:48</v>
       </c>
-      <c r="H19" s="101">
-        <f>E19/B19</f>
+      <c r="H19" s="64">
+        <f t="shared" si="1"/>
         <v>0.81382978723404276</v>
       </c>
       <c r="I19" s="42">
@@ -3982,11 +3978,11 @@
         <v>0</v>
       </c>
       <c r="O19" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1:1</v>
       </c>
-      <c r="P19" s="101">
-        <f>M19/J19</f>
+      <c r="P19" s="64">
+        <f t="shared" si="3"/>
         <v>1.0172872340425534</v>
       </c>
       <c r="Q19" s="42">
@@ -4002,18 +3998,18 @@
         <v>18</v>
       </c>
       <c r="U19" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.0345744680851068</v>
       </c>
       <c r="V19" s="46">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="W19" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3:23</v>
       </c>
-      <c r="X19" s="101">
-        <f>U19/R19</f>
+      <c r="X19" s="64">
+        <f t="shared" si="5"/>
         <v>3.3909574468085113</v>
       </c>
     </row>
@@ -4031,7 +4027,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.40691489361702138</v>
       </c>
       <c r="F20" s="46">
@@ -4041,8 +4037,8 @@
         <f t="shared" si="0"/>
         <v>1:1</v>
       </c>
-      <c r="H20" s="101">
-        <f>E20/B20</f>
+      <c r="H20" s="64">
+        <f t="shared" si="1"/>
         <v>1.0172872340425534</v>
       </c>
       <c r="I20" s="42">
@@ -4065,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1:21</v>
       </c>
-      <c r="P20" s="101">
-        <f>M20/J20</f>
+      <c r="P20" s="64">
+        <f t="shared" si="3"/>
         <v>1.3563829787234047</v>
       </c>
       <c r="Q20" s="42">
@@ -4092,11 +4088,11 @@
         <v>120</v>
       </c>
       <c r="W20" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0:14</v>
       </c>
-      <c r="X20" s="101">
-        <f>U20/R20</f>
+      <c r="X20" s="64">
+        <f t="shared" si="5"/>
         <v>0.23936170212765959</v>
       </c>
     </row>
@@ -4124,8 +4120,8 @@
         <f t="shared" si="0"/>
         <v>0:9</v>
       </c>
-      <c r="H21" s="101">
-        <f>E21/B21</f>
+      <c r="H21" s="64">
+        <f t="shared" si="1"/>
         <v>0.15957446808510642</v>
       </c>
       <c r="I21" s="42">
@@ -4148,11 +4144,11 @@
         <v>0</v>
       </c>
       <c r="O21" s="58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0:14</v>
       </c>
-      <c r="P21" s="101">
-        <f>M21/J21</f>
+      <c r="P21" s="64">
+        <f t="shared" si="3"/>
         <v>0.23936170212765959</v>
       </c>
       <c r="Q21" s="42">
@@ -4175,11 +4171,11 @@
         <v>0</v>
       </c>
       <c r="W21" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0:35</v>
       </c>
-      <c r="X21" s="101">
-        <f>U21/R21</f>
+      <c r="X21" s="64">
+        <f t="shared" si="5"/>
         <v>0.59840425531914898</v>
       </c>
     </row>
@@ -4207,8 +4203,8 @@
         <f>TRUNC(H22)&amp; ":"&amp;TRUNC((H22 - TRUNC(H22)) * 60)</f>
         <v>0:14</v>
       </c>
-      <c r="H22" s="101">
-        <f>E22/B22</f>
+      <c r="H22" s="64">
+        <f t="shared" si="1"/>
         <v>0.23936170212765959</v>
       </c>
       <c r="I22" s="48">
@@ -4234,8 +4230,8 @@
         <f>TRUNC(P22)&amp; ":"&amp;TRUNC((P22 - TRUNC(P22)) * 60)</f>
         <v>0:28</v>
       </c>
-      <c r="P22" s="101">
-        <f>M22/J22</f>
+      <c r="P22" s="64">
+        <f t="shared" si="3"/>
         <v>0.47872340425531917</v>
       </c>
       <c r="Q22" s="42">
@@ -4258,19 +4254,19 @@
         <v>0</v>
       </c>
       <c r="W22" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0:21</v>
       </c>
-      <c r="X22" s="101">
-        <f>U22/R22</f>
+      <c r="X22" s="64">
+        <f t="shared" si="5"/>
         <v>0.35904255319148937</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="17" thickBot="1">
-      <c r="E23" s="93" t="s">
+      <c r="E23" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="93"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="58" t="str">
         <f>TRUNC(H23)&amp; ":"&amp;TRUNC((H23 - TRUNC(H23)) * 60)</f>
         <v>10:39</v>
@@ -4280,10 +4276,10 @@
         <v>10.659764437689972</v>
       </c>
       <c r="K23" s="53"/>
-      <c r="M23" s="93" t="s">
+      <c r="M23" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="93"/>
+      <c r="N23" s="105"/>
       <c r="O23" s="58" t="str">
         <f>TRUNC(P23)&amp; ":"&amp;TRUNC((P23 - TRUNC(P23)) * 60)</f>
         <v>10:51</v>
@@ -4292,19 +4288,19 @@
         <f>SUM(P12:P22)</f>
         <v>10.859612462006082</v>
       </c>
-      <c r="Q23" s="109">
+      <c r="Q23" s="66">
         <v>10</v>
       </c>
-      <c r="R23" s="110">
+      <c r="R23" s="67">
         <v>2</v>
       </c>
-      <c r="S23" s="111">
+      <c r="S23" s="68">
         <v>0.5</v>
       </c>
-      <c r="T23" s="112" t="s">
+      <c r="T23" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="U23" s="113">
+      <c r="U23" s="70">
         <f>$I$6*S23</f>
         <v>0.23936170212765959</v>
       </c>
@@ -4315,8 +4311,8 @@
         <f>TRUNC(X23)&amp; ":"&amp;TRUNC((X23 - TRUNC(X23)) * 60)</f>
         <v>0:7</v>
       </c>
-      <c r="X23" s="101">
-        <f>U23/R23</f>
+      <c r="X23" s="64">
+        <f t="shared" si="5"/>
         <v>0.11968085106382979</v>
       </c>
     </row>
@@ -4325,15 +4321,15 @@
       <c r="F24" s="54"/>
       <c r="Q24" s="53"/>
       <c r="R24" s="53"/>
-      <c r="U24" s="93" t="s">
+      <c r="U24" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="93"/>
+      <c r="V24" s="105"/>
       <c r="W24" s="58" t="str">
         <f>TRUNC(X25)&amp; ":"&amp;TRUNC((X25 - TRUNC(X25)) * 60)</f>
         <v>11:4</v>
       </c>
-      <c r="X24" s="102"/>
+      <c r="X24" s="65"/>
     </row>
     <row r="25" spans="1:24">
       <c r="E25" s="53"/>
@@ -4346,244 +4342,244 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="I26" s="92" t="s">
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="I26" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
       <c r="S26" s="55"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="B27" s="80" t="str">
+      <c r="B27" s="97" t="str">
         <f>SUBSTITUTE(D12 &amp; ";"&amp;ROUND(E12,3)* 1000&amp; ";"&amp;B12&amp; ";" &amp;A12&amp;";0;"&amp;F12,",",".")</f>
         <v>H;191;0.07;1;0;166</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="I27" s="83" t="str">
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="I27" s="91" t="str">
         <f>SUBSTITUTE(L12 &amp; ";"&amp;ROUND(M12,3)* 1000&amp; ";"&amp;J12&amp; ";" &amp;I12&amp;";0;"&amp;N12,",",".")</f>
-        <v>H;120;0.07;1;0;85</v>
-      </c>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="Q27" s="103" t="s">
+        <v>H;120;0.07;1;0;90</v>
+      </c>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="Q27" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="R27" s="104"/>
-      <c r="S27" s="105"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="110"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="B28" s="80" t="str">
-        <f t="shared" ref="B28:B37" si="9">SUBSTITUTE(D13 &amp; ";"&amp;ROUND(E13,3)* 1000&amp; ";"&amp;B13&amp; ";" &amp;A13&amp;";0;"&amp;F13,",",".")</f>
+      <c r="B28" s="97" t="str">
+        <f t="shared" ref="B28:B37" si="12">SUBSTITUTE(D13 &amp; ";"&amp;ROUND(E13,3)* 1000&amp; ";"&amp;B13&amp; ";" &amp;A13&amp;";0;"&amp;F13,",",".")</f>
         <v>H;96;0.1;1;0;0</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
-      <c r="I28" s="83" t="str">
-        <f t="shared" ref="I28:I37" si="10">SUBSTITUTE(L13 &amp; ";"&amp;ROUND(M13,3)* 1000&amp; ";"&amp;J13&amp; ";" &amp;I13&amp;";0;"&amp;N13,",",".")</f>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="I28" s="91" t="str">
+        <f t="shared" ref="I28:I37" si="13">SUBSTITUTE(L13 &amp; ";"&amp;ROUND(M13,3)* 1000&amp; ";"&amp;J13&amp; ";" &amp;I13&amp;";0;"&amp;N13,",",".")</f>
         <v>H;72;0.14;1;0;0</v>
       </c>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="Q28" s="106" t="str">
-        <f>SUBSTITUTE(T12 &amp; ";"&amp;ROUND(U12,3)* 1000&amp; ";"&amp;R12&amp; ";" &amp;Q12&amp;";0;"&amp;V12,",",".")</f>
-        <v>H;144;0.07;0;0;85</v>
-      </c>
-      <c r="R28" s="107"/>
-      <c r="S28" s="108"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="Q28" s="111" t="str">
+        <f t="shared" ref="Q28:Q37" si="14">SUBSTITUTE(T12 &amp; ";"&amp;ROUND(U12,3)* 1000&amp; ";"&amp;R12&amp; ";" &amp;Q12&amp;";0;"&amp;V12,",",".")</f>
+        <v>H;144;0.07;0;0;90</v>
+      </c>
+      <c r="R28" s="112"/>
+      <c r="S28" s="113"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="B29" s="80" t="str">
-        <f t="shared" si="9"/>
+      <c r="B29" s="97" t="str">
+        <f t="shared" si="12"/>
         <v>H;96;0.2;2;0;0</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="I29" s="83" t="str">
-        <f t="shared" si="10"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="99"/>
+      <c r="I29" s="91" t="str">
+        <f t="shared" si="13"/>
         <v>H;96;0.3;2;0;0</v>
       </c>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="Q29" s="106" t="str">
-        <f>SUBSTITUTE(T13 &amp; ";"&amp;ROUND(U13,3)* 1000&amp; ";"&amp;R13&amp; ";" &amp;Q13&amp;";0;"&amp;V13,",",".")</f>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="Q29" s="111" t="str">
+        <f t="shared" si="14"/>
         <v>H;96;0.14;0;0;0</v>
       </c>
-      <c r="R29" s="107"/>
-      <c r="S29" s="108"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="113"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="B30" s="80" t="str">
-        <f t="shared" si="9"/>
+      <c r="B30" s="97" t="str">
+        <f t="shared" si="12"/>
         <v>H;48;0.3;3;0;0</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="I30" s="83" t="str">
-        <f t="shared" si="10"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="99"/>
+      <c r="I30" s="91" t="str">
+        <f t="shared" si="13"/>
         <v>H;96;0.4;3;0;0</v>
       </c>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="Q30" s="106" t="str">
-        <f>SUBSTITUTE(T14 &amp; ";"&amp;ROUND(U14,3)* 1000&amp; ";"&amp;R14&amp; ";" &amp;Q14&amp;";0;"&amp;V14,",",".")</f>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="Q30" s="111" t="str">
+        <f t="shared" si="14"/>
         <v>H;96;0.2;1;0;0</v>
       </c>
-      <c r="R30" s="107"/>
-      <c r="S30" s="108"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="113"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="B31" s="80" t="str">
-        <f t="shared" si="9"/>
+      <c r="B31" s="97" t="str">
+        <f t="shared" si="12"/>
         <v>H;48;0.4;4;0;0</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
-      <c r="I31" s="83" t="str">
-        <f t="shared" si="10"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99"/>
+      <c r="I31" s="91" t="str">
+        <f t="shared" si="13"/>
         <v>H;96;0.4;4;0;100</v>
       </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="Q31" s="106" t="str">
-        <f>SUBSTITUTE(T15 &amp; ";"&amp;ROUND(U15,3)* 1000&amp; ";"&amp;R15&amp; ";" &amp;Q15&amp;";0;"&amp;V15,",",".")</f>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="Q31" s="111" t="str">
+        <f t="shared" si="14"/>
         <v>H;96;0.3;2;0;0</v>
       </c>
-      <c r="R31" s="107"/>
-      <c r="S31" s="108"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="113"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="B32" s="80" t="str">
-        <f t="shared" si="9"/>
+      <c r="B32" s="97" t="str">
+        <f t="shared" si="12"/>
         <v>B;407;0.5;5;0;0</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="I32" s="83" t="str">
-        <f t="shared" si="10"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="I32" s="91" t="str">
+        <f t="shared" si="13"/>
+        <v>B;1628;0.8;5;0;120</v>
+      </c>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="Q32" s="111" t="str">
+        <f t="shared" si="14"/>
+        <v>H;48;0.4;3;0;100</v>
+      </c>
+      <c r="R32" s="112"/>
+      <c r="S32" s="113"/>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="97" t="str">
+        <f t="shared" si="12"/>
+        <v>B;2848;0.9;6;0;0</v>
+      </c>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99"/>
+      <c r="I33" s="91" t="str">
+        <f t="shared" si="13"/>
+        <v>B;1628;0.6;6;0;150</v>
+      </c>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="Q33" s="111" t="str">
+        <f t="shared" si="14"/>
+        <v>B;407;0.6;4;0;120</v>
+      </c>
+      <c r="R33" s="112"/>
+      <c r="S33" s="113"/>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="97" t="str">
+        <f t="shared" si="12"/>
+        <v>B;407;0.5;7;0;0</v>
+      </c>
+      <c r="C34" s="98"/>
+      <c r="D34" s="99"/>
+      <c r="I34" s="91" t="str">
+        <f t="shared" si="13"/>
+        <v>B;407;0.4;7;0;0</v>
+      </c>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="Q34" s="111" t="str">
+        <f t="shared" si="14"/>
         <v>B;1628;0.8;5;0;130</v>
       </c>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="Q32" s="106" t="str">
-        <f>SUBSTITUTE(T16 &amp; ";"&amp;ROUND(U16,3)* 1000&amp; ";"&amp;R16&amp; ";" &amp;Q16&amp;";0;"&amp;V16,",",".")</f>
-        <v>H;48;0.4;3;0;100</v>
-      </c>
-      <c r="R32" s="107"/>
-      <c r="S32" s="108"/>
-    </row>
-    <row r="33" spans="2:19">
-      <c r="B33" s="80" t="str">
-        <f t="shared" si="9"/>
-        <v>B;2848;0.9;6;0;0</v>
-      </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
-      <c r="I33" s="83" t="str">
-        <f t="shared" si="10"/>
-        <v>B;1628;0.6;6;0;155</v>
-      </c>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="Q33" s="106" t="str">
-        <f>SUBSTITUTE(T17 &amp; ";"&amp;ROUND(U17,3)* 1000&amp; ";"&amp;R17&amp; ";" &amp;Q17&amp;";0;"&amp;V17,",",".")</f>
-        <v>B;407;0.6;4;0;120</v>
-      </c>
-      <c r="R33" s="107"/>
-      <c r="S33" s="108"/>
-    </row>
-    <row r="34" spans="2:19">
-      <c r="B34" s="80" t="str">
-        <f t="shared" si="9"/>
-        <v>B;407;0.5;7;0;0</v>
-      </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="82"/>
-      <c r="I34" s="83" t="str">
-        <f t="shared" si="10"/>
-        <v>B;407;0.4;7;0;0</v>
-      </c>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="Q34" s="106" t="str">
-        <f>SUBSTITUTE(T18 &amp; ";"&amp;ROUND(U18,3)* 1000&amp; ";"&amp;R18&amp; ";" &amp;Q18&amp;";0;"&amp;V18,",",".")</f>
-        <v>B;1628;0.8;5;0;130</v>
-      </c>
-      <c r="R34" s="107"/>
-      <c r="S34" s="108"/>
+      <c r="R34" s="112"/>
+      <c r="S34" s="113"/>
     </row>
     <row r="35" spans="2:19">
-      <c r="B35" s="80" t="str">
-        <f t="shared" si="9"/>
+      <c r="B35" s="97" t="str">
+        <f t="shared" si="12"/>
         <v>B;407;0.4;8;0;0</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="I35" s="83" t="str">
-        <f t="shared" si="10"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="I35" s="91" t="str">
+        <f t="shared" si="13"/>
         <v>B;407;0.3;8;0;0</v>
       </c>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="Q35" s="106" t="str">
-        <f>SUBSTITUTE(T19 &amp; ";"&amp;ROUND(U19,3)* 1000&amp; ";"&amp;R19&amp; ";" &amp;Q19&amp;";0;"&amp;V19,",",".")</f>
-        <v>B;2035;0.6;6;0;155</v>
-      </c>
-      <c r="R35" s="107"/>
-      <c r="S35" s="108"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="Q35" s="111" t="str">
+        <f t="shared" si="14"/>
+        <v>B;2035;0.6;6;0;150</v>
+      </c>
+      <c r="R35" s="112"/>
+      <c r="S35" s="113"/>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="80" t="str">
-        <f t="shared" si="9"/>
+      <c r="B36" s="97" t="str">
+        <f t="shared" si="12"/>
         <v>T;48;0.3;9;0;0</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-      <c r="I36" s="83" t="str">
-        <f t="shared" si="10"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="99"/>
+      <c r="I36" s="91" t="str">
+        <f t="shared" si="13"/>
         <v>T;48;0.2;9;0;0</v>
       </c>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="Q36" s="106" t="str">
-        <f>SUBSTITUTE(T20 &amp; ";"&amp;ROUND(U20,3)* 1000&amp; ";"&amp;R20&amp; ";" &amp;Q20&amp;";0;"&amp;V20,",",".")</f>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="Q36" s="111" t="str">
+        <f t="shared" si="14"/>
         <v>T;96;0.4;7;0;120</v>
       </c>
-      <c r="R36" s="107"/>
-      <c r="S36" s="108"/>
+      <c r="R36" s="112"/>
+      <c r="S36" s="113"/>
     </row>
     <row r="37" spans="2:19">
-      <c r="B37" s="80" t="str">
-        <f t="shared" si="9"/>
+      <c r="B37" s="97" t="str">
+        <f t="shared" si="12"/>
         <v>T;48;0.2;10;0;0</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82"/>
-      <c r="I37" s="83" t="str">
-        <f t="shared" si="10"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="99"/>
+      <c r="I37" s="91" t="str">
+        <f t="shared" si="13"/>
         <v>T;48;0.1;10;0;0</v>
       </c>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="Q37" s="106" t="str">
-        <f>SUBSTITUTE(T21 &amp; ";"&amp;ROUND(U21,3)* 1000&amp; ";"&amp;R21&amp; ";" &amp;Q21&amp;";0;"&amp;V21,",",".")</f>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="Q37" s="111" t="str">
+        <f t="shared" si="14"/>
         <v>T;239;0.4;8;0;0</v>
       </c>
-      <c r="R37" s="107"/>
-      <c r="S37" s="108"/>
+      <c r="R37" s="112"/>
+      <c r="S37" s="113"/>
     </row>
     <row r="38" spans="2:19">
-      <c r="Q38" s="106" t="str">
+      <c r="Q38" s="111" t="str">
         <f>SUBSTITUTE(T23 &amp; ";"&amp;ROUND(U23,3)* 1000&amp; ";"&amp;R23&amp; ";" &amp;Q23&amp;";0;"&amp;V23,",",".")</f>
         <v>T;239;2;10;0;0</v>
       </c>
-      <c r="R38" s="107"/>
-      <c r="S38" s="108"/>
+      <c r="R38" s="112"/>
+      <c r="S38" s="113"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4599,22 +4595,23 @@
     <mergeCell ref="Q32:S32"/>
     <mergeCell ref="Q33:S33"/>
     <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I34:K34"/>
     <mergeCell ref="Q27:S27"/>
     <mergeCell ref="Q28:S28"/>
     <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
     <mergeCell ref="V10:V11"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
@@ -4629,16 +4626,8 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="S10:T11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="I37:K37"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -4648,6 +4637,13 @@
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B31:D31"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/tools/Расчет АС-3.xlsx
+++ b/tools/Расчет АС-3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosoj/Documents/Arduino/Samovar/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481D8A9A-E5D6-A643-AAAC-443BE518D896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84F4A72-3BE7-734C-9399-8BA38D69E47F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{C9282AA8-605C-344B-8032-FA2B417AED2C}"/>
   </bookViews>
@@ -48,7 +48,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">1. Колонна максимальной высоты, плотно набитая насадка
 </t>
@@ -59,9 +58,8 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">2. Отбор - в режиме максимального разделения (предзахлеб)
+          <t xml:space="preserve">2. Отбор - головы в пленочном режиме, тело в режиме максимального разделения (предзахлеб)
 </t>
         </r>
         <r>
@@ -70,7 +68,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">3. Головы - 10%-15%, хвосты - 5%
 </t>
@@ -81,7 +78,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">4. Выход спирта - 96%-97%
 </t>
@@ -96,7 +92,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">1. Колонна метр, разреженная насадка
 </t>
@@ -107,7 +102,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">2. Начало отбора в пленочном режиме
 </t>
@@ -118,7 +112,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">3. После отбора голов увеличить разделение, но не доводить до предзахлеба
 </t>
@@ -129,19 +122,8 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>4. Головы - 10%, хвосты - 5%</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">4. Головы - 10%, хвосты - 5%
 </t>
         </r>
         <r>
@@ -150,7 +132,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">5. Выход спирта - 94%
 </t>
@@ -243,7 +224,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Отбор ЖК для зерновых
 </t>
@@ -411,7 +391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,6 +478,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -3093,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C5AEE6-2B79-C248-89D2-07DF9BE2110D}">
   <dimension ref="A2:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3159,14 +3145,14 @@
     </row>
     <row r="4" spans="1:24" ht="29" thickBot="1">
       <c r="A4" s="29">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="B4" s="28">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="C4" s="25">
         <f>A4*B4</f>
-        <v>4.5</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="28">
@@ -3174,7 +3160,7 @@
       </c>
       <c r="F4" s="25">
         <f>C4*E4</f>
-        <v>0.45</v>
+        <v>0.24750000000000003</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="28">
@@ -3182,21 +3168,21 @@
       </c>
       <c r="I4" s="25">
         <f>C4*H4</f>
-        <v>0.22500000000000001</v>
+        <v>0.12375000000000001</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="25">
         <f>I4+F4</f>
-        <v>0.67500000000000004</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="26">
         <f>C4-K4</f>
-        <v>3.8250000000000002</v>
+        <v>2.1037500000000002</v>
       </c>
       <c r="Q4" s="60">
         <f>(A4-K4-M4)</f>
-        <v>5.4999999999999991</v>
+        <v>7.4250000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="26" customHeight="1" thickBot="1">
@@ -3212,27 +3198,27 @@
       </c>
       <c r="C6" s="25">
         <f>C4/B6</f>
-        <v>4.7872340425531918</v>
+        <v>2.6329787234042556</v>
       </c>
       <c r="F6" s="25">
         <f>F4/B6</f>
-        <v>0.47872340425531917</v>
+        <v>0.26329787234042556</v>
       </c>
       <c r="I6" s="25">
         <f>I4/B6*2</f>
-        <v>0.47872340425531917</v>
+        <v>0.26329787234042556</v>
       </c>
       <c r="K6" s="25">
         <f>I6+F6</f>
-        <v>0.95744680851063835</v>
+        <v>0.52659574468085113</v>
       </c>
       <c r="M6" s="26">
         <f>M4/B6</f>
-        <v>4.0691489361702136</v>
+        <v>2.2380319148936172</v>
       </c>
       <c r="Q6" s="27">
         <f>(A4-K6-M6) * 0.9</f>
-        <v>4.4760638297872326</v>
+        <v>6.4218351063829795</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="17" thickBot="1"/>
@@ -3364,18 +3350,18 @@
       </c>
       <c r="E12" s="45">
         <f>$F$6*C12</f>
-        <v>0.19148936170212769</v>
+        <v>0.10531914893617023</v>
       </c>
       <c r="F12" s="46">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="G12" s="58" t="str">
         <f t="shared" ref="G12:G21" si="0">TRUNC(H12)&amp; ":"&amp;TRUNC((H12 - TRUNC(H12)) * 60)</f>
-        <v>2:44</v>
+        <v>1:30</v>
       </c>
       <c r="H12" s="64">
         <f t="shared" ref="H12:H22" si="1">E12/B12</f>
-        <v>2.7355623100303954</v>
+        <v>1.5045592705167175</v>
       </c>
       <c r="I12" s="42">
         <v>1</v>
@@ -3391,18 +3377,18 @@
       </c>
       <c r="M12" s="45">
         <f>$F$6*K12</f>
-        <v>0.11968085106382979</v>
+        <v>6.5824468085106391E-2</v>
       </c>
       <c r="N12" s="46">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O12" s="58" t="str">
         <f t="shared" ref="O12:O21" si="2">TRUNC(P12)&amp; ":"&amp;TRUNC((P12 - TRUNC(P12)) * 60)</f>
-        <v>1:42</v>
+        <v>0:56</v>
       </c>
       <c r="P12" s="64">
         <f t="shared" ref="P12:P22" si="3">M12/J12</f>
-        <v>1.709726443768997</v>
+        <v>0.94034954407294835</v>
       </c>
       <c r="Q12" s="42">
         <v>0</v>
@@ -3418,18 +3404,18 @@
       </c>
       <c r="U12" s="45">
         <f>$F$6*S12</f>
-        <v>0.14361702127659576</v>
+        <v>7.8989361702127669E-2</v>
       </c>
       <c r="V12" s="46">
         <v>90</v>
       </c>
       <c r="W12" s="58" t="str">
         <f t="shared" ref="W12:W22" si="4">TRUNC(X12)&amp; ":"&amp;TRUNC((X12 - TRUNC(X12)) * 60)</f>
-        <v>2:3</v>
+        <v>1:7</v>
       </c>
       <c r="X12" s="64">
         <f t="shared" ref="X12:X23" si="5">U12/R12</f>
-        <v>2.0516717325227964</v>
+        <v>1.128419452887538</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -3447,18 +3433,18 @@
       </c>
       <c r="E13" s="45">
         <f t="shared" ref="E13:E16" si="6">$F$6*C13</f>
-        <v>9.5744680851063843E-2</v>
+        <v>5.2659574468085113E-2</v>
       </c>
       <c r="F13" s="46">
         <v>0</v>
       </c>
       <c r="G13" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0:57</v>
+        <v>0:31</v>
       </c>
       <c r="H13" s="64">
         <f t="shared" si="1"/>
-        <v>0.95744680851063835</v>
+        <v>0.52659574468085113</v>
       </c>
       <c r="I13" s="42">
         <v>1</v>
@@ -3474,18 +3460,18 @@
       </c>
       <c r="M13" s="45">
         <f t="shared" ref="M13" si="7">$F$6*K13</f>
-        <v>7.1808510638297879E-2</v>
+        <v>3.9494680851063835E-2</v>
       </c>
       <c r="N13" s="46">
         <v>0</v>
       </c>
       <c r="O13" s="58" t="str">
         <f t="shared" si="2"/>
-        <v>0:30</v>
+        <v>0:16</v>
       </c>
       <c r="P13" s="64">
         <f t="shared" si="3"/>
-        <v>0.51291793313069911</v>
+        <v>0.28210486322188449</v>
       </c>
       <c r="Q13" s="42">
         <v>0</v>
@@ -3501,18 +3487,18 @@
       </c>
       <c r="U13" s="45">
         <f t="shared" ref="U13" si="8">$F$6*S13</f>
-        <v>9.5744680851063843E-2</v>
+        <v>5.2659574468085113E-2</v>
       </c>
       <c r="V13" s="46">
         <v>0</v>
       </c>
       <c r="W13" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>0:41</v>
+        <v>0:22</v>
       </c>
       <c r="X13" s="64">
         <f t="shared" si="5"/>
-        <v>0.68389057750759885</v>
+        <v>0.37613981762917936</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -3530,18 +3516,18 @@
       </c>
       <c r="E14" s="45">
         <f t="shared" si="6"/>
-        <v>9.5744680851063843E-2</v>
+        <v>5.2659574468085113E-2</v>
       </c>
       <c r="F14" s="46">
         <v>0</v>
       </c>
       <c r="G14" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0:28</v>
+        <v>0:15</v>
       </c>
       <c r="H14" s="64">
         <f t="shared" si="1"/>
-        <v>0.47872340425531917</v>
+        <v>0.26329787234042556</v>
       </c>
       <c r="I14" s="42">
         <v>2</v>
@@ -3557,18 +3543,18 @@
       </c>
       <c r="M14" s="45">
         <f>$F$6*K14</f>
-        <v>9.5744680851063843E-2</v>
+        <v>5.2659574468085113E-2</v>
       </c>
       <c r="N14" s="46">
         <v>0</v>
       </c>
       <c r="O14" s="58" t="str">
         <f t="shared" si="2"/>
-        <v>0:19</v>
+        <v>0:10</v>
       </c>
       <c r="P14" s="64">
         <f t="shared" si="3"/>
-        <v>0.31914893617021284</v>
+        <v>0.17553191489361705</v>
       </c>
       <c r="Q14" s="42">
         <v>1</v>
@@ -3584,18 +3570,18 @@
       </c>
       <c r="U14" s="45">
         <f t="shared" ref="U14:U16" si="9">$F$6*S14</f>
-        <v>9.5744680851063843E-2</v>
+        <v>5.2659574468085113E-2</v>
       </c>
       <c r="V14" s="46">
         <v>0</v>
       </c>
       <c r="W14" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>0:28</v>
+        <v>0:15</v>
       </c>
       <c r="X14" s="64">
         <f t="shared" si="5"/>
-        <v>0.47872340425531917</v>
+        <v>0.26329787234042556</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -3613,18 +3599,18 @@
       </c>
       <c r="E15" s="45">
         <f t="shared" si="6"/>
-        <v>4.7872340425531922E-2</v>
+        <v>2.6329787234042556E-2</v>
       </c>
       <c r="F15" s="46">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="G15" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0:9</v>
+        <v>0:5</v>
       </c>
       <c r="H15" s="64">
         <f t="shared" si="1"/>
-        <v>0.15957446808510642</v>
+        <v>8.7765957446808526E-2</v>
       </c>
       <c r="I15" s="42">
         <v>3</v>
@@ -3640,18 +3626,18 @@
       </c>
       <c r="M15" s="45">
         <f>$F$6*K15</f>
-        <v>9.5744680851063843E-2</v>
+        <v>5.2659574468085113E-2</v>
       </c>
       <c r="N15" s="46">
         <v>0</v>
       </c>
       <c r="O15" s="58" t="str">
         <f t="shared" si="2"/>
-        <v>0:14</v>
+        <v>0:7</v>
       </c>
       <c r="P15" s="64">
         <f t="shared" si="3"/>
-        <v>0.23936170212765959</v>
+        <v>0.13164893617021278</v>
       </c>
       <c r="Q15" s="42">
         <v>2</v>
@@ -3667,18 +3653,18 @@
       </c>
       <c r="U15" s="45">
         <f t="shared" si="9"/>
-        <v>9.5744680851063843E-2</v>
+        <v>5.2659574468085113E-2</v>
       </c>
       <c r="V15" s="46">
         <v>0</v>
       </c>
       <c r="W15" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>0:19</v>
+        <v>0:10</v>
       </c>
       <c r="X15" s="64">
         <f t="shared" si="5"/>
-        <v>0.31914893617021284</v>
+        <v>0.17553191489361705</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3696,18 +3682,18 @@
       </c>
       <c r="E16" s="45">
         <f t="shared" si="6"/>
-        <v>4.7872340425531922E-2</v>
+        <v>2.6329787234042556E-2</v>
       </c>
       <c r="F16" s="46">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G16" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0:7</v>
+        <v>0:3</v>
       </c>
       <c r="H16" s="64">
         <f t="shared" si="1"/>
-        <v>0.11968085106382979</v>
+        <v>6.5824468085106391E-2</v>
       </c>
       <c r="I16" s="42">
         <v>4</v>
@@ -3723,18 +3709,18 @@
       </c>
       <c r="M16" s="45">
         <f>$F$6*K16</f>
-        <v>9.5744680851063843E-2</v>
+        <v>5.2659574468085113E-2</v>
       </c>
       <c r="N16" s="46">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="O16" s="58" t="str">
         <f t="shared" si="2"/>
-        <v>0:14</v>
+        <v>0:7</v>
       </c>
       <c r="P16" s="64">
         <f t="shared" si="3"/>
-        <v>0.23936170212765959</v>
+        <v>0.13164893617021278</v>
       </c>
       <c r="Q16" s="42">
         <v>3</v>
@@ -3750,18 +3736,18 @@
       </c>
       <c r="U16" s="45">
         <f t="shared" si="9"/>
-        <v>4.7872340425531922E-2</v>
+        <v>2.6329787234042556E-2</v>
       </c>
       <c r="V16" s="46">
         <v>100</v>
       </c>
       <c r="W16" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>0:7</v>
+        <v>0:3</v>
       </c>
       <c r="X16" s="64">
         <f t="shared" si="5"/>
-        <v>0.11968085106382979</v>
+        <v>6.5824468085106391E-2</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -3779,18 +3765,18 @@
       </c>
       <c r="E17" s="45">
         <f>$M$6*C17</f>
-        <v>0.40691489361702138</v>
+        <v>0.22380319148936173</v>
       </c>
       <c r="F17" s="46">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="G17" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0:48</v>
+        <v>0:26</v>
       </c>
       <c r="H17" s="64">
         <f t="shared" si="1"/>
-        <v>0.81382978723404276</v>
+        <v>0.44760638297872346</v>
       </c>
       <c r="I17" s="42">
         <v>5</v>
@@ -3806,18 +3792,18 @@
       </c>
       <c r="M17" s="45">
         <f>$M$6*K17</f>
-        <v>1.6276595744680855</v>
+        <v>0.89521276595744692</v>
       </c>
       <c r="N17" s="46">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="O17" s="58" t="str">
         <f t="shared" si="2"/>
-        <v>2:2</v>
+        <v>1:7</v>
       </c>
       <c r="P17" s="64">
         <f t="shared" si="3"/>
-        <v>2.0345744680851068</v>
+        <v>1.1190159574468086</v>
       </c>
       <c r="Q17" s="42">
         <v>4</v>
@@ -3833,18 +3819,18 @@
       </c>
       <c r="U17" s="45">
         <f>$M$6*S17</f>
-        <v>0.40691489361702138</v>
+        <v>0.22380319148936173</v>
       </c>
       <c r="V17" s="46">
         <v>120</v>
       </c>
       <c r="W17" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>0:40</v>
+        <v>0:22</v>
       </c>
       <c r="X17" s="64">
         <f t="shared" si="5"/>
-        <v>0.67819148936170237</v>
+        <v>0.37300531914893625</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -3862,18 +3848,18 @@
       </c>
       <c r="E18" s="45">
         <f t="shared" ref="E18:E20" si="10">$M$6*C18</f>
-        <v>2.8484042553191493</v>
+        <v>1.5666223404255319</v>
       </c>
       <c r="F18" s="46">
         <v>0</v>
       </c>
       <c r="G18" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>3:9</v>
+        <v>1:44</v>
       </c>
       <c r="H18" s="64">
         <f t="shared" si="1"/>
-        <v>3.1648936170212769</v>
+        <v>1.740691489361702</v>
       </c>
       <c r="I18" s="42">
         <v>6</v>
@@ -3889,18 +3875,18 @@
       </c>
       <c r="M18" s="45">
         <f>$M$6*K18</f>
-        <v>1.6276595744680855</v>
+        <v>0.89521276595744692</v>
       </c>
       <c r="N18" s="46">
         <v>150</v>
       </c>
       <c r="O18" s="58" t="str">
         <f t="shared" si="2"/>
-        <v>2:42</v>
+        <v>1:29</v>
       </c>
       <c r="P18" s="64">
         <f t="shared" si="3"/>
-        <v>2.7127659574468095</v>
+        <v>1.492021276595745</v>
       </c>
       <c r="Q18" s="42">
         <v>5</v>
@@ -3916,18 +3902,18 @@
       </c>
       <c r="U18" s="45">
         <f t="shared" ref="U18:U19" si="11">$M$6*S18</f>
-        <v>1.6276595744680855</v>
+        <v>0.89521276595744692</v>
       </c>
       <c r="V18" s="46">
         <v>130</v>
       </c>
       <c r="W18" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>2:2</v>
+        <v>1:7</v>
       </c>
       <c r="X18" s="64">
         <f t="shared" si="5"/>
-        <v>2.0345744680851068</v>
+        <v>1.1190159574468086</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -3945,18 +3931,18 @@
       </c>
       <c r="E19" s="45">
         <f t="shared" si="10"/>
-        <v>0.40691489361702138</v>
+        <v>0.22380319148936173</v>
       </c>
       <c r="F19" s="46">
         <v>0</v>
       </c>
       <c r="G19" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0:48</v>
+        <v>0:26</v>
       </c>
       <c r="H19" s="64">
         <f t="shared" si="1"/>
-        <v>0.81382978723404276</v>
+        <v>0.44760638297872346</v>
       </c>
       <c r="I19" s="42">
         <v>7</v>
@@ -3972,18 +3958,18 @@
       </c>
       <c r="M19" s="45">
         <f>$M$6*K19</f>
-        <v>0.40691489361702138</v>
+        <v>0.22380319148936173</v>
       </c>
       <c r="N19" s="46">
         <v>0</v>
       </c>
       <c r="O19" s="58" t="str">
         <f t="shared" si="2"/>
-        <v>1:1</v>
+        <v>0:33</v>
       </c>
       <c r="P19" s="64">
         <f t="shared" si="3"/>
-        <v>1.0172872340425534</v>
+        <v>0.5595079787234043</v>
       </c>
       <c r="Q19" s="42">
         <v>6</v>
@@ -3999,18 +3985,18 @@
       </c>
       <c r="U19" s="45">
         <f t="shared" si="11"/>
-        <v>2.0345744680851068</v>
+        <v>1.1190159574468086</v>
       </c>
       <c r="V19" s="46">
         <v>150</v>
       </c>
       <c r="W19" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>3:23</v>
+        <v>1:51</v>
       </c>
       <c r="X19" s="64">
         <f t="shared" si="5"/>
-        <v>3.3909574468085113</v>
+        <v>1.865026595744681</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -4028,18 +4014,18 @@
       </c>
       <c r="E20" s="45">
         <f t="shared" si="10"/>
-        <v>0.40691489361702138</v>
+        <v>0.22380319148936173</v>
       </c>
       <c r="F20" s="46">
         <v>0</v>
       </c>
       <c r="G20" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>1:1</v>
+        <v>0:33</v>
       </c>
       <c r="H20" s="64">
         <f t="shared" si="1"/>
-        <v>1.0172872340425534</v>
+        <v>0.5595079787234043</v>
       </c>
       <c r="I20" s="42">
         <v>8</v>
@@ -4055,18 +4041,18 @@
       </c>
       <c r="M20" s="45">
         <f>$M$6*K20</f>
-        <v>0.40691489361702138</v>
+        <v>0.22380319148936173</v>
       </c>
       <c r="N20" s="46">
         <v>0</v>
       </c>
       <c r="O20" s="58" t="str">
         <f t="shared" si="2"/>
-        <v>1:21</v>
+        <v>0:44</v>
       </c>
       <c r="P20" s="64">
         <f t="shared" si="3"/>
-        <v>1.3563829787234047</v>
+        <v>0.74601063829787251</v>
       </c>
       <c r="Q20" s="42">
         <v>7</v>
@@ -4082,18 +4068,18 @@
       </c>
       <c r="U20" s="45">
         <f>$I$6*S20</f>
-        <v>9.5744680851063843E-2</v>
+        <v>5.2659574468085113E-2</v>
       </c>
       <c r="V20" s="46">
         <v>120</v>
       </c>
       <c r="W20" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>0:14</v>
+        <v>0:7</v>
       </c>
       <c r="X20" s="64">
         <f t="shared" si="5"/>
-        <v>0.23936170212765959</v>
+        <v>0.13164893617021278</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -4111,18 +4097,18 @@
       </c>
       <c r="E21" s="45">
         <f>$I$6*C21</f>
-        <v>4.7872340425531922E-2</v>
+        <v>2.6329787234042556E-2</v>
       </c>
       <c r="F21" s="46">
         <v>0</v>
       </c>
       <c r="G21" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0:9</v>
+        <v>0:5</v>
       </c>
       <c r="H21" s="64">
         <f t="shared" si="1"/>
-        <v>0.15957446808510642</v>
+        <v>8.7765957446808526E-2</v>
       </c>
       <c r="I21" s="42">
         <v>9</v>
@@ -4138,18 +4124,18 @@
       </c>
       <c r="M21" s="45">
         <f>$I$6*K21</f>
-        <v>4.7872340425531922E-2</v>
+        <v>2.6329787234042556E-2</v>
       </c>
       <c r="N21" s="46">
         <v>0</v>
       </c>
       <c r="O21" s="58" t="str">
         <f t="shared" si="2"/>
-        <v>0:14</v>
+        <v>0:7</v>
       </c>
       <c r="P21" s="64">
         <f t="shared" si="3"/>
-        <v>0.23936170212765959</v>
+        <v>0.13164893617021278</v>
       </c>
       <c r="Q21" s="42">
         <v>8</v>
@@ -4165,18 +4151,18 @@
       </c>
       <c r="U21" s="45">
         <f>$I$6*S21</f>
-        <v>0.23936170212765959</v>
+        <v>0.13164893617021278</v>
       </c>
       <c r="V21" s="46">
         <v>0</v>
       </c>
       <c r="W21" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>0:35</v>
+        <v>0:19</v>
       </c>
       <c r="X21" s="64">
         <f t="shared" si="5"/>
-        <v>0.59840425531914898</v>
+        <v>0.32912234042553196</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="17" thickBot="1">
@@ -4194,18 +4180,18 @@
       </c>
       <c r="E22" s="52">
         <f>$I$6*C22</f>
-        <v>4.7872340425531922E-2</v>
+        <v>2.6329787234042556E-2</v>
       </c>
       <c r="F22" s="46">
         <v>0</v>
       </c>
       <c r="G22" s="58" t="str">
         <f>TRUNC(H22)&amp; ":"&amp;TRUNC((H22 - TRUNC(H22)) * 60)</f>
-        <v>0:14</v>
+        <v>0:7</v>
       </c>
       <c r="H22" s="64">
         <f t="shared" si="1"/>
-        <v>0.23936170212765959</v>
+        <v>0.13164893617021278</v>
       </c>
       <c r="I22" s="48">
         <v>10</v>
@@ -4221,18 +4207,18 @@
       </c>
       <c r="M22" s="52">
         <f>$I$6*K22</f>
-        <v>4.7872340425531922E-2</v>
+        <v>2.6329787234042556E-2</v>
       </c>
       <c r="N22" s="46">
         <v>0</v>
       </c>
       <c r="O22" s="58" t="str">
         <f>TRUNC(P22)&amp; ":"&amp;TRUNC((P22 - TRUNC(P22)) * 60)</f>
-        <v>0:28</v>
+        <v>0:15</v>
       </c>
       <c r="P22" s="64">
         <f t="shared" si="3"/>
-        <v>0.47872340425531917</v>
+        <v>0.26329787234042556</v>
       </c>
       <c r="Q22" s="42">
         <v>9</v>
@@ -4248,18 +4234,18 @@
       </c>
       <c r="U22" s="45">
         <f>$I$6*S22</f>
-        <v>0.14361702127659576</v>
+        <v>7.8989361702127669E-2</v>
       </c>
       <c r="V22" s="46">
         <v>0</v>
       </c>
       <c r="W22" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>0:21</v>
+        <v>0:11</v>
       </c>
       <c r="X22" s="64">
         <f t="shared" si="5"/>
-        <v>0.35904255319148937</v>
+        <v>0.19747340425531917</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="17" thickBot="1">
@@ -4269,11 +4255,11 @@
       <c r="F23" s="105"/>
       <c r="G23" s="58" t="str">
         <f>TRUNC(H23)&amp; ":"&amp;TRUNC((H23 - TRUNC(H23)) * 60)</f>
-        <v>10:39</v>
+        <v>5:51</v>
       </c>
       <c r="H23" s="57">
         <f>SUM(H12:H22)</f>
-        <v>10.659764437689972</v>
+        <v>5.8628704407294832</v>
       </c>
       <c r="K23" s="53"/>
       <c r="M23" s="105" t="s">
@@ -4282,11 +4268,11 @@
       <c r="N23" s="105"/>
       <c r="O23" s="58" t="str">
         <f>TRUNC(P23)&amp; ":"&amp;TRUNC((P23 - TRUNC(P23)) * 60)</f>
-        <v>10:51</v>
+        <v>5:58</v>
       </c>
       <c r="P23" s="57">
         <f>SUM(P12:P22)</f>
-        <v>10.859612462006082</v>
+        <v>5.9727868541033438</v>
       </c>
       <c r="Q23" s="66">
         <v>10</v>
@@ -4302,18 +4288,18 @@
       </c>
       <c r="U23" s="70">
         <f>$I$6*S23</f>
-        <v>0.23936170212765959</v>
+        <v>0.13164893617021278</v>
       </c>
       <c r="V23" s="46">
         <v>0</v>
       </c>
       <c r="W23" s="58" t="str">
         <f>TRUNC(X23)&amp; ":"&amp;TRUNC((X23 - TRUNC(X23)) * 60)</f>
-        <v>0:7</v>
+        <v>0:3</v>
       </c>
       <c r="X23" s="64">
         <f t="shared" si="5"/>
-        <v>0.11968085106382979</v>
+        <v>6.5824468085106391E-2</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -4327,7 +4313,7 @@
       <c r="V24" s="105"/>
       <c r="W24" s="58" t="str">
         <f>TRUNC(X25)&amp; ":"&amp;TRUNC((X25 - TRUNC(X25)) * 60)</f>
-        <v>11:4</v>
+        <v>6:5</v>
       </c>
       <c r="X24" s="65"/>
     </row>
@@ -4338,7 +4324,7 @@
       <c r="P25" s="53"/>
       <c r="X25" s="57">
         <f>SUM(X12:X23)</f>
-        <v>11.073328267477205</v>
+        <v>6.0903305471124627</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -4357,13 +4343,13 @@
     <row r="27" spans="1:24">
       <c r="B27" s="97" t="str">
         <f>SUBSTITUTE(D12 &amp; ";"&amp;ROUND(E12,3)* 1000&amp; ";"&amp;B12&amp; ";" &amp;A12&amp;";0;"&amp;F12,",",".")</f>
-        <v>H;191;0.07;1;0;166</v>
+        <v>H;105;0.07;1;0;120</v>
       </c>
       <c r="C27" s="98"/>
       <c r="D27" s="99"/>
       <c r="I27" s="91" t="str">
         <f>SUBSTITUTE(L12 &amp; ";"&amp;ROUND(M12,3)* 1000&amp; ";"&amp;J12&amp; ";" &amp;I12&amp;";0;"&amp;N12,",",".")</f>
-        <v>H;120;0.07;1;0;90</v>
+        <v>H;66;0.07;1;0;120</v>
       </c>
       <c r="J27" s="91"/>
       <c r="K27" s="91"/>
@@ -4376,19 +4362,19 @@
     <row r="28" spans="1:24">
       <c r="B28" s="97" t="str">
         <f t="shared" ref="B28:B37" si="12">SUBSTITUTE(D13 &amp; ";"&amp;ROUND(E13,3)* 1000&amp; ";"&amp;B13&amp; ";" &amp;A13&amp;";0;"&amp;F13,",",".")</f>
-        <v>H;96;0.1;1;0;0</v>
+        <v>H;53;0.1;1;0;0</v>
       </c>
       <c r="C28" s="98"/>
       <c r="D28" s="99"/>
       <c r="I28" s="91" t="str">
         <f t="shared" ref="I28:I37" si="13">SUBSTITUTE(L13 &amp; ";"&amp;ROUND(M13,3)* 1000&amp; ";"&amp;J13&amp; ";" &amp;I13&amp;";0;"&amp;N13,",",".")</f>
-        <v>H;72;0.14;1;0;0</v>
+        <v>H;39;0.14;1;0;0</v>
       </c>
       <c r="J28" s="91"/>
       <c r="K28" s="91"/>
       <c r="Q28" s="111" t="str">
         <f t="shared" ref="Q28:Q37" si="14">SUBSTITUTE(T12 &amp; ";"&amp;ROUND(U12,3)* 1000&amp; ";"&amp;R12&amp; ";" &amp;Q12&amp;";0;"&amp;V12,",",".")</f>
-        <v>H;144;0.07;0;0;90</v>
+        <v>H;79;0.07;0;0;90</v>
       </c>
       <c r="R28" s="112"/>
       <c r="S28" s="113"/>
@@ -4396,19 +4382,19 @@
     <row r="29" spans="1:24">
       <c r="B29" s="97" t="str">
         <f t="shared" si="12"/>
-        <v>H;96;0.2;2;0;0</v>
+        <v>H;53;0.2;2;0;0</v>
       </c>
       <c r="C29" s="98"/>
       <c r="D29" s="99"/>
       <c r="I29" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>H;96;0.3;2;0;0</v>
+        <v>H;53;0.3;2;0;0</v>
       </c>
       <c r="J29" s="91"/>
       <c r="K29" s="91"/>
       <c r="Q29" s="111" t="str">
         <f t="shared" si="14"/>
-        <v>H;96;0.14;0;0;0</v>
+        <v>H;53;0.14;0;0;0</v>
       </c>
       <c r="R29" s="112"/>
       <c r="S29" s="113"/>
@@ -4416,19 +4402,19 @@
     <row r="30" spans="1:24">
       <c r="B30" s="97" t="str">
         <f t="shared" si="12"/>
-        <v>H;48;0.3;3;0;0</v>
+        <v>H;26;0.3;3;0;135</v>
       </c>
       <c r="C30" s="98"/>
       <c r="D30" s="99"/>
       <c r="I30" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>H;96;0.4;3;0;0</v>
+        <v>H;53;0.4;3;0;0</v>
       </c>
       <c r="J30" s="91"/>
       <c r="K30" s="91"/>
       <c r="Q30" s="111" t="str">
         <f t="shared" si="14"/>
-        <v>H;96;0.2;1;0;0</v>
+        <v>H;53;0.2;1;0;0</v>
       </c>
       <c r="R30" s="112"/>
       <c r="S30" s="113"/>
@@ -4436,19 +4422,19 @@
     <row r="31" spans="1:24">
       <c r="B31" s="97" t="str">
         <f t="shared" si="12"/>
-        <v>H;48;0.4;4;0;0</v>
+        <v>H;26;0.4;4;0;160</v>
       </c>
       <c r="C31" s="98"/>
       <c r="D31" s="99"/>
       <c r="I31" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>H;96;0.4;4;0;100</v>
+        <v>H;53;0.4;4;0;130</v>
       </c>
       <c r="J31" s="91"/>
       <c r="K31" s="91"/>
       <c r="Q31" s="111" t="str">
         <f t="shared" si="14"/>
-        <v>H;96;0.3;2;0;0</v>
+        <v>H;53;0.3;2;0;0</v>
       </c>
       <c r="R31" s="112"/>
       <c r="S31" s="113"/>
@@ -4456,19 +4442,19 @@
     <row r="32" spans="1:24">
       <c r="B32" s="97" t="str">
         <f t="shared" si="12"/>
-        <v>B;407;0.5;5;0;0</v>
+        <v>B;224;0.5;5;0;166</v>
       </c>
       <c r="C32" s="98"/>
       <c r="D32" s="99"/>
       <c r="I32" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>B;1628;0.8;5;0;120</v>
+        <v>B;895;0.8;5;0;140</v>
       </c>
       <c r="J32" s="91"/>
       <c r="K32" s="91"/>
       <c r="Q32" s="111" t="str">
         <f t="shared" si="14"/>
-        <v>H;48;0.4;3;0;100</v>
+        <v>H;26;0.4;3;0;100</v>
       </c>
       <c r="R32" s="112"/>
       <c r="S32" s="113"/>
@@ -4476,19 +4462,19 @@
     <row r="33" spans="2:19">
       <c r="B33" s="97" t="str">
         <f t="shared" si="12"/>
-        <v>B;2848;0.9;6;0;0</v>
+        <v>B;1567;0.9;6;0;0</v>
       </c>
       <c r="C33" s="98"/>
       <c r="D33" s="99"/>
       <c r="I33" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>B;1628;0.6;6;0;150</v>
+        <v>B;895;0.6;6;0;150</v>
       </c>
       <c r="J33" s="91"/>
       <c r="K33" s="91"/>
       <c r="Q33" s="111" t="str">
         <f t="shared" si="14"/>
-        <v>B;407;0.6;4;0;120</v>
+        <v>B;224;0.6;4;0;120</v>
       </c>
       <c r="R33" s="112"/>
       <c r="S33" s="113"/>
@@ -4496,19 +4482,19 @@
     <row r="34" spans="2:19">
       <c r="B34" s="97" t="str">
         <f t="shared" si="12"/>
-        <v>B;407;0.5;7;0;0</v>
+        <v>B;224;0.5;7;0;0</v>
       </c>
       <c r="C34" s="98"/>
       <c r="D34" s="99"/>
       <c r="I34" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>B;407;0.4;7;0;0</v>
+        <v>B;224;0.4;7;0;0</v>
       </c>
       <c r="J34" s="91"/>
       <c r="K34" s="91"/>
       <c r="Q34" s="111" t="str">
         <f t="shared" si="14"/>
-        <v>B;1628;0.8;5;0;130</v>
+        <v>B;895;0.8;5;0;130</v>
       </c>
       <c r="R34" s="112"/>
       <c r="S34" s="113"/>
@@ -4516,19 +4502,19 @@
     <row r="35" spans="2:19">
       <c r="B35" s="97" t="str">
         <f t="shared" si="12"/>
-        <v>B;407;0.4;8;0;0</v>
+        <v>B;224;0.4;8;0;0</v>
       </c>
       <c r="C35" s="98"/>
       <c r="D35" s="99"/>
       <c r="I35" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>B;407;0.3;8;0;0</v>
+        <v>B;224;0.3;8;0;0</v>
       </c>
       <c r="J35" s="91"/>
       <c r="K35" s="91"/>
       <c r="Q35" s="111" t="str">
         <f t="shared" si="14"/>
-        <v>B;2035;0.6;6;0;150</v>
+        <v>B;1119;0.6;6;0;150</v>
       </c>
       <c r="R35" s="112"/>
       <c r="S35" s="113"/>
@@ -4536,19 +4522,19 @@
     <row r="36" spans="2:19">
       <c r="B36" s="97" t="str">
         <f t="shared" si="12"/>
-        <v>T;48;0.3;9;0;0</v>
+        <v>T;26;0.3;9;0;0</v>
       </c>
       <c r="C36" s="98"/>
       <c r="D36" s="99"/>
       <c r="I36" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>T;48;0.2;9;0;0</v>
+        <v>T;26;0.2;9;0;0</v>
       </c>
       <c r="J36" s="91"/>
       <c r="K36" s="91"/>
       <c r="Q36" s="111" t="str">
         <f t="shared" si="14"/>
-        <v>T;96;0.4;7;0;120</v>
+        <v>T;53;0.4;7;0;120</v>
       </c>
       <c r="R36" s="112"/>
       <c r="S36" s="113"/>
@@ -4556,19 +4542,19 @@
     <row r="37" spans="2:19">
       <c r="B37" s="97" t="str">
         <f t="shared" si="12"/>
-        <v>T;48;0.2;10;0;0</v>
+        <v>T;26;0.2;10;0;0</v>
       </c>
       <c r="C37" s="98"/>
       <c r="D37" s="99"/>
       <c r="I37" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>T;48;0.1;10;0;0</v>
+        <v>T;26;0.1;10;0;0</v>
       </c>
       <c r="J37" s="91"/>
       <c r="K37" s="91"/>
       <c r="Q37" s="111" t="str">
         <f t="shared" si="14"/>
-        <v>T;239;0.4;8;0;0</v>
+        <v>T;132;0.4;8;0;0</v>
       </c>
       <c r="R37" s="112"/>
       <c r="S37" s="113"/>
@@ -4576,7 +4562,7 @@
     <row r="38" spans="2:19">
       <c r="Q38" s="111" t="str">
         <f>SUBSTITUTE(T23 &amp; ";"&amp;ROUND(U23,3)* 1000&amp; ";"&amp;R23&amp; ";" &amp;Q23&amp;";0;"&amp;V23,",",".")</f>
-        <v>T;239;2;10;0;0</v>
+        <v>T;132;2;10;0;0</v>
       </c>
       <c r="R38" s="112"/>
       <c r="S38" s="113"/>
